--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A5729-4ECD-4ADA-8180-0E45DEB1F0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D23D34-8873-4CA0-BC66-BAEB34185D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="244">
   <si>
     <t>汇报日期</t>
   </si>
@@ -773,9 +773,6 @@
     <t>学英语的时候，去整理了之前的Office博客，还是写文档整理了语法多，花了2小时时间。还是得把目标放在第一位哈。如果想干其他事情，可以放在代办里面。完成后在干。</t>
   </si>
   <si>
-    <t>早睡早起，保持健康生活规律，也是保持学习状态的重要因素</t>
-  </si>
-  <si>
     <t>1.英语学习1个day，小e英语打卡
 2.马士兵至少学习8小时</t>
   </si>
@@ -1022,10 +1019,6 @@
   </si>
   <si>
     <t>部分完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1063,11 +1056,6 @@
   <si>
     <t>1.完成。19:00-&gt;21:00
 2.完成。所有文档尽量都在一个地方管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新增音标总表。这次英语任务比较难，学习超时了。学习了失音，连读几个发音规律。
-2.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1178,10 +1166,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增音标总表。这次英语任务比较难，学习超时了。学习了失音，连读几个发音规律。
+2.继续学invokeBeanFactoryPostProcessors方法。Spring源码学习速度太慢了，按照这个速度，得学35天，后面必须加速了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 小e英语学到视频63
+2.技术, Spring源码视频77
+3.复盘, leetcode(1题)
+4.体重减到76kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.完成。8:30-&gt;13:30。视频58
-2.进行中。14:00-&gt;23:40。6小时
-3.完成。22:20-&gt;23:20
-4.未完成。吃了1顿代餐，水，1碗面</t>
+2.完成。14:00-&gt;23:40。6小时
+3.完成。22:20-&gt;23:20。2题
+4.未完成。76.2kg, 吃了1顿代餐，水，1碗面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早睡早起，保持健康生活规律，也是保持学习状态的重要因素。新增一个重要字段是否无悔，人生并不是所有目标都要完成，重要的是今生无悔。如果今生的80%的今天都无悔，那便是今生无悔。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理面试题。学习仅仅听懂老师讲的远远不够，还要写出来更重要的是表达出来。能让听的人也懂才是真的懂。英语：把发音规则按字母重新分类，以便查阅。学习了发音规则：爆破音+辅音，[j]同化，闪音。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：2天
+2.未完成。实际：10小时，2题
+3.未完成。实际：视频58
+4.未完成。实际：周日,20点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;13:30。视频64
+2.未完成。16:30-&gt;22:30。视频68
+3.完成。leetcode-2题。面试题整理
+4.未完成。中饭正常，晚餐零食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1191,7 +1217,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1317,11 +1343,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,7 +1356,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1371,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,7 +1383,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,7 +1410,91 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1914,7 +2024,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1956,7 +2066,7 @@
         <v>45193</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="8">
         <v>45187</v>
@@ -1965,10 +2075,10 @@
         <v>45193</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="1"/>
@@ -2006,10 +2116,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2382,7 +2492,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2552,7 +2662,7 @@
         <v>45030</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>69</v>
@@ -2575,7 +2685,7 @@
         <v>45023</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>71</v>
@@ -2654,7 +2764,7 @@
         <v>44996</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" s="13">
         <v>44989</v>
@@ -3034,10 +3144,10 @@
         <v>125</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="101.5" x14ac:dyDescent="0.3">
@@ -3089,16 +3199,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -3113,16 +3223,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -3149,13 +3259,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -3208,23 +3318,21 @@
     </row>
     <row r="2" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>225</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3243,24 +3351,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3280,24 +3388,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3317,24 +3425,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3356,22 +3464,22 @@
     </row>
     <row r="6" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3393,22 +3501,22 @@
     </row>
     <row r="7" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>45182</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3430,22 +3538,22 @@
     </row>
     <row r="8" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>45181</v>
-      </c>
-      <c r="B8" s="12" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3467,22 +3575,22 @@
     </row>
     <row r="9" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3503,23 +3611,23 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>45179</v>
+      <c r="A10" s="8">
+        <v>45181</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>149</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3541,22 +3649,22 @@
     </row>
     <row r="11" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3577,23 +3685,23 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>45176</v>
+      <c r="A12" s="13">
+        <v>45179</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>143</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>154</v>
+        <v>136</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3615,22 +3723,22 @@
     </row>
     <row r="13" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>137</v>
+        <v>151</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3652,20 +3760,22 @@
     </row>
     <row r="14" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>143</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="F14" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3687,7 +3797,7 @@
     </row>
     <row r="15" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>9</v>
@@ -3696,11 +3806,13 @@
         <v>153</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>143</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="F15" s="10" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3722,20 +3834,20 @@
     </row>
     <row r="16" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3757,7 +3869,7 @@
     </row>
     <row r="17" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>9</v>
@@ -3766,11 +3878,11 @@
         <v>153</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3791,21 +3903,21 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>45168</v>
+      <c r="A18" s="8">
+        <v>45170</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>165</v>
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="14" t="s">
-        <v>166</v>
+      <c r="F18" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3825,22 +3937,22 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
-        <v>44998</v>
+    <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>45169</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>168</v>
+        <v>9</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="14" t="s">
-        <v>169</v>
+      <c r="F19" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3860,22 +3972,22 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3897,19 +4009,21 @@
     </row>
     <row r="21" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3930,20 +4044,20 @@
     </row>
     <row r="22" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3965,21 +4079,19 @@
     </row>
     <row r="23" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="14" t="s">
-        <v>177</v>
-      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3998,22 +4110,22 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4033,22 +4145,22 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4068,22 +4180,22 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4105,20 +4217,20 @@
     </row>
     <row r="27" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="14" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4138,22 +4250,22 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4173,22 +4285,22 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="16" t="s">
-        <v>194</v>
+      <c r="F29" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4208,22 +4320,22 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="16" t="s">
-        <v>197</v>
+      <c r="F30" s="14" t="s">
+        <v>190</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4243,13 +4355,23 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+    <row r="31" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>44987</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -4268,9 +4390,117 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
+    <row r="32" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>44986</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B1048576 B1">
+  <conditionalFormatting sqref="B6:B1048576 B1">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4294,7 +4524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B3">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4318,7 +4548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4343,7 +4573,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4383,22 +4613,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
@@ -4412,13 +4642,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
@@ -4432,13 +4662,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
@@ -4452,16 +4682,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -4472,13 +4702,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
@@ -4492,13 +4722,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D23D34-8873-4CA0-BC66-BAEB34185D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E8F862-789C-4953-AA77-1AA57C1D08D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="246">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1166,10 +1166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.新增音标总表。这次英语任务比较难，学习超时了。学习了失音，连读几个发音规律。
 2.继续学invokeBeanFactoryPostProcessors方法。Spring源码学习速度太慢了，按照这个速度，得学35天，后面必须加速了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,17 +1193,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.未完成。实际：2天
-2.未完成。实际：10小时，2题
-3.未完成。实际：视频58
-4.未完成。实际：周日,20点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。9:00-&gt;13:30。视频64
 2.未完成。16:30-&gt;22:30。视频68
 3.完成。leetcode-2题。面试题整理
-4.未完成。中饭正常，晚餐零食</t>
+4.完成。75.8，中饭正常，晚餐零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 小e英语学到视频70
+2.技术, Spring6小时
+3.复盘, leetcode(2题)
+4.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:30-&gt;11:40。视频70
+2.完成。14:00-&gt;00:30。7小时
+3.完成。leetcode: 2题。面试题整理
+4.未完成。中饭代餐，晚餐代餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增说话强调章节，涉及重读、弱读。击穿。
+学习，整理，演练面试题。对Spring的理解，对ioc的理解，对aop的理解，Bean的生命周期。Spring源码精讲-连老师的课程学习了第136个视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：3天
+2.未完成。实际：17小时，6题
+3.未完成。实际：视频58
+4.未完成。实际：周日,20点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,7 +2093,7 @@
         <v>218</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="1"/>
@@ -3265,7 +3280,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -3318,21 +3333,23 @@
     </row>
     <row r="2" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>243</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3359,16 +3376,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3399,13 +3416,13 @@
         <v>232</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3812,7 +3829,7 @@
         <v>137</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E8F862-789C-4953-AA77-1AA57C1D08D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FE5492-282B-45A6-864F-A1FE0E25427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="249">
   <si>
     <t>汇报日期</t>
   </si>
@@ -693,12 +693,6 @@
 3. 减肥任务出现瓶颈。看来得寻找新的办法来叠加减肥效果了。下周晚上8点以后不再允许吃热量高的食品</t>
   </si>
   <si>
-    <t>每日计划</t>
-  </si>
-  <si>
-    <t>每日进展</t>
-  </si>
-  <si>
     <t>无悔</t>
   </si>
   <si>
@@ -1010,9 +1004,6 @@
   </si>
   <si>
     <t>对于无心之失的增补处理。</t>
-  </si>
-  <si>
-    <t>有些时候，目标未完成是无心之失。例如：早上起床可能不小心把闹钟按掉了导致没按时起床。类似这种过失，满足一定条件应该可以给与补偿方案。但这样的情况每月不能超过3次，超过还是得算目标未完成。</t>
   </si>
   <si>
     <t>条件：如果当天的计划全部按时完成且还能额外的完成一个新目标（这个目标必须对自己有正向提升）。例如：虽然没能按时起床，但是在家里学习效果也更好，还省下来来回图书馆的时间。另外公共场合学习并不是学英语的最佳场所，因为英语需要发音跟读。</t>
@@ -1030,13 +1021,6 @@
   </si>
   <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>1.坚持6天：7点左右起床，当天计划，日报。
-2.技术：Spring25小时，leetcode-10题。
-3.英语：小E英语学到视频74。声音链30
-4.周日23:00前，完成周报，更新重要目标进度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本周学了Spring源码课程，leetcode做了4题。小E英语学到第49个视频。扇贝精听高阶暂停，先把发音基础巩固好，否则强行打卡毫无意义。本周六也学习了6小时，状态相较上周仍在提升。下周继续保持.</t>
@@ -1202,27 +1186,65 @@
   <si>
     <t>1.英语, 小e英语学到视频70
 2.技术, Spring6小时
-3.复盘, leetcode(2题)
+3.日报, 提交git. leetcode(2题)
 4.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术：学习，整理，演练面试题。对Spring的理解，对ioc的理解，对aop的理解，Bean的生命周期。Spring源码精讲-连老师的课程学习了第136个视频。英语：新增说话强调章节，涉及重读、弱读。击穿。中间还是开了2小时差，明天继续加油。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.完成。9:30-&gt;11:40。视频70
 2.完成。14:00-&gt;00:30。7小时
 3.完成。leetcode: 2题。面试题整理
-4.未完成。中饭代餐，晚餐代餐</t>
+4.未完成。75.7，中饭代餐，晚餐代餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.新增说话强调章节，涉及重读、弱读。击穿。
-学习，整理，演练面试题。对Spring的理解，对ioc的理解，对aop的理解，Bean的生命周期。Spring源码精讲-连老师的课程学习了第136个视频</t>
+    <t>1.英语, 小e英语学到彩蛋13
+2.技术, Spring6小时
+3.日报, 提交git. leetcode(2题)
+4.体重减到75.5kg(非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.未完成。实际：3天
-2.未完成。实际：17小时，6题
-3.未完成。实际：视频58
+    <t>有些时候，目标未完成是无心之失。例如：早上起床可能不小心把闹钟按掉了导致没按时起床。类似这种过失，满足一定条件应该可以给与补偿方案。但这样的情况每月不能超过3次，如果超过还是得算目标未完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日计划（8:00前更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日进展（23:59前更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;12:13。彩蛋13
+2.完成。15:00-&gt;00:20。6小时
+3.完成。13:30-&gt;14:30。2题。
+4.未完成。中饭正常，晚餐代餐+零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode:121. 买卖股票的最佳时机，1378.使用唯一标识码替换员工ID
+Spring循环依赖和三级缓存。完善并发布了Bean的生命周期。英语所有音变规则学完了，在学彩蛋课了。
+非学习时间：2.5小时，从自习室到家目前还不能立刻学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：4天
+2.未完成。实际：23小时，8题
+3.未完成。实际：视频74，彩蛋13
 4.未完成。实际：周日,20点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持6天：7点左右起床，当天计划，日报。
+2.技术：Spring25小时，leetcode-10题。
+3.英语：小E英语学到视频74。彩蛋30
+4.周日23:00前，完成周报，更新重要目标进度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1299,7 +1321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1342,13 +1364,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,11 +1471,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2039,7 +2177,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2081,7 +2219,7 @@
         <v>45193</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C2" s="8">
         <v>45187</v>
@@ -2090,10 +2228,10 @@
         <v>45193</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="1"/>
@@ -2131,10 +2269,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2507,7 +2645,7 @@
         <v>51</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2677,7 +2815,7 @@
         <v>45030</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>69</v>
@@ -2700,7 +2838,7 @@
         <v>45023</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>71</v>
@@ -2779,7 +2917,7 @@
         <v>44996</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C30" s="13">
         <v>44989</v>
@@ -3159,10 +3297,10 @@
         <v>125</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="101.5" x14ac:dyDescent="0.3">
@@ -3214,16 +3352,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -3238,16 +3376,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -3274,13 +3412,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -3302,16 +3440,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3333,23 +3471,21 @@
     </row>
     <row r="2" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>244</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3370,22 +3506,22 @@
     </row>
     <row r="3" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3407,22 +3543,22 @@
     </row>
     <row r="4" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3442,24 +3578,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3479,24 +3615,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3516,24 +3652,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3555,22 +3691,22 @@
     </row>
     <row r="8" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3592,22 +3728,22 @@
     </row>
     <row r="9" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>45182</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3629,22 +3765,22 @@
     </row>
     <row r="10" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>45181</v>
-      </c>
-      <c r="B10" s="12" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3666,22 +3802,22 @@
     </row>
     <row r="11" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3702,23 +3838,23 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>45179</v>
+      <c r="A12" s="8">
+        <v>45181</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>149</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3740,22 +3876,22 @@
     </row>
     <row r="13" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3776,23 +3912,23 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>45176</v>
+      <c r="A14" s="13">
+        <v>45179</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>143</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>154</v>
+        <v>134</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3814,22 +3950,22 @@
     </row>
     <row r="15" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>137</v>
+        <v>149</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3851,20 +3987,22 @@
     </row>
     <row r="16" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3886,20 +4024,22 @@
     </row>
     <row r="17" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3921,20 +4061,20 @@
     </row>
     <row r="18" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3956,20 +4096,20 @@
     </row>
     <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>156</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3990,21 +4130,21 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>45168</v>
+      <c r="A20" s="8">
+        <v>45170</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>164</v>
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="14" t="s">
-        <v>165</v>
+      <c r="F20" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4024,22 +4164,22 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>44998</v>
+    <row r="21" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>45169</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>167</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="14" t="s">
-        <v>168</v>
+      <c r="F21" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4059,22 +4199,22 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4096,19 +4236,21 @@
     </row>
     <row r="23" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -4129,20 +4271,20 @@
     </row>
     <row r="24" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4164,21 +4306,19 @@
     </row>
     <row r="25" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="14" t="s">
-        <v>176</v>
-      </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -4197,22 +4337,22 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4232,22 +4372,22 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4267,22 +4407,22 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="14" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4304,20 +4444,20 @@
     </row>
     <row r="29" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="14" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4337,22 +4477,22 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="14" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4372,22 +4512,22 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E31" s="15"/>
-      <c r="F31" s="16" t="s">
-        <v>193</v>
+      <c r="F31" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4407,22 +4547,22 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E32" s="15"/>
-      <c r="F32" s="16" t="s">
-        <v>196</v>
+      <c r="F32" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4442,13 +4582,23 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+    <row r="33" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>44987</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>190</v>
+      </c>
       <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -4467,9 +4617,117 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
+    <row r="34" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>44986</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B1048576 B1">
+  <conditionalFormatting sqref="B8:B1048576 B1">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
     <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4493,7 +4751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4517,7 +4775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4590,7 +4848,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4611,10 +4869,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4630,127 +4888,127 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>197</v>
+        <v>226</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="27">
         <v>44983</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="27">
         <v>45018</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="27">
         <v>45069</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="27">
         <v>45104</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="27">
         <v>45153</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -4758,7 +5016,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -4766,7 +5024,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -4774,7 +5032,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="15"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FE5492-282B-45A6-864F-A1FE0E25427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09EDE8-4A56-4D4C-966E-48D3B5E8FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="252">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1221,13 +1221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。9:00-&gt;12:13。彩蛋13
-2.完成。15:00-&gt;00:20。6小时
-3.完成。13:30-&gt;14:30。2题。
-4.未完成。中饭正常，晚餐代餐+零食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leetcode:121. 买卖股票的最佳时机，1378.使用唯一标识码替换员工ID
 Spring循环依赖和三级缓存。完善并发布了Bean的生命周期。英语所有音变规则学完了，在学彩蛋课了。
 非学习时间：2.5小时，从自习室到家目前还不能立刻学习。</t>
@@ -1245,6 +1238,31 @@
 2.技术：Spring25小时，leetcode-10题。
 3.英语：小E英语学到视频74。彩蛋30
 4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;12:13。彩蛋13
+2.完成。15:00-&gt;00:20。6小时
+3.完成。13:30-&gt;14:30。2题。
+4.未完成。75.6.中饭正常，晚餐代餐+零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 小e英语学到彩蛋22
+2.技术, Spring6小时
+3.日报, 提交git. leetcode(2题)
+4.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;13:30。彩蛋25
+2.未完成。15:30-&gt;22:30。7小时
+3.未完成。13:50-&gt;15:15。3题。
+4.未完成。中饭正常，晚餐代餐+零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：学到彩蛋课25.调整了英语笔记结构。leetcode: 1581. 进店却未进行过交易的顾客,1068. 产品销售分析 I, 189. 轮转数组，Spring循环依赖源码分析。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2228,10 +2246,10 @@
         <v>45193</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="1"/>
@@ -3471,21 +3489,23 @@
     </row>
     <row r="2" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>214</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>251</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3509,19 +3529,19 @@
         <v>45190</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>241</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>135</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4680,16 +4700,40 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B8:B1048576 B1">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -4703,17 +4747,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -4727,17 +4771,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -4751,17 +4795,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -4775,17 +4819,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -4799,44 +4843,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09EDE8-4A56-4D4C-966E-48D3B5E8FB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4F2F4-8E19-4E55-97A6-5574A8124E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,22 @@
     <sheet name="检讨" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="259">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1221,19 +1232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>leetcode:121. 买卖股票的最佳时机，1378.使用唯一标识码替换员工ID
-Spring循环依赖和三级缓存。完善并发布了Bean的生命周期。英语所有音变规则学完了，在学彩蛋课了。
-非学习时间：2.5小时，从自习室到家目前还不能立刻学习。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.未完成。实际：4天
-2.未完成。实际：23小时，8题
-3.未完成。实际：视频74，彩蛋13
-4.未完成。实际：周日,20点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.坚持6天：7点左右起床，当天计划，日报。
 2.技术：Spring25小时，leetcode-10题。
 3.英语：小E英语学到视频74。彩蛋30
@@ -1255,14 +1253,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>英语：学到彩蛋课25.调整了英语笔记结构。leetcode: 1581. 进店却未进行过交易的顾客,1068. 产品销售分析 I, 189. 轮转数组，Spring循环依赖源码分析。IOC实现原理。IOC注入方式。AOP实现原理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改成按投入小时数来评价任务是否完成后，虽然任务都完成了，但是学习进度依然很慢。Spring在10月1日前必须结束。后续有时间在慢慢学了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.完成。9:00-&gt;13:30。彩蛋25
-2.未完成。15:30-&gt;22:30。7小时
-3.未完成。13:50-&gt;15:15。3题。
-4.未完成。中饭正常，晚餐代餐+零食</t>
+2.完成。15:30-&gt;23:30。6小时
+3.完成。13:50-&gt;15:15。3题。
+4.完成。75.1，中餐，晚餐：代餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语：学到彩蛋课25.调整了英语笔记结构。leetcode: 1581. 进店却未进行过交易的顾客,1068. 产品销售分析 I, 189. 轮转数组，Spring循环依赖源码分析。</t>
+    <t>1.英语, 小e英语学到彩蛋30
+2.技术, Spring4小时
+3.日报, 提交git. leetcode(2题)
+4.体重减到75.0kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode:121. 买卖股票的最佳时机，1378.使用唯一标识码替换员工ID，Spring循环依赖和三级缓存。完善并发布了Bean的生命周期。英语所有音变规则学完了，在学彩蛋课了。
+非学习时间：2.5小时，从自习室到家目前还不能立刻学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.周报，更新目标进度。
+2.体重减到76.0kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。14:00-&gt;16:00。彩蛋31
+2.完成。21:45-&gt;22:50。6小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。14:00-&gt;16:00。彩蛋31
+2.未完成。22:00-&gt;23:38。1小时
+3.完成。13:50-&gt;15:15。3题。
+4.未完成。中饭正常，晚餐正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：5天
+2.未完成。实际：30小时，11题
+3.未完成。实际：彩蛋13
+4.未完成。实际：周日,20点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：继续学习口语发音。补充s后的浊化规则。技术：学了AOP的实现原理和概念。今天没有管住自己，在家带娃，学习时间占比较低，饮食也没控制住。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1320,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1317,6 +1363,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1416,7 +1468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1426,7 +1478,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,11 +1544,110 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2195,63 +2345,65 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.4140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:24" ht="14.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>45193</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>45187</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>45193</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="19"/>
+      <c r="E2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>249</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2271,25 +2423,25 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>45186</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>45179</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>45186</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>215</v>
       </c>
       <c r="H3" s="1"/>
@@ -2311,25 +2463,25 @@
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>45178</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>45171</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>45177</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1"/>
@@ -2351,25 +2503,25 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>45171</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>45164</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>45170</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1"/>
@@ -2391,995 +2543,995 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>45163</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>45157</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>45163</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>45156</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>45150</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>45156</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>45150</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>45143</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>45149</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>45143</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>45136</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>45142</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>45136</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>45129</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>45135</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>45129</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>45122</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>45128</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>45122</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>45115</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>45121</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>45115</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>45108</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>45114</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>45107</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>45101</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>45107</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>45101</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>45094</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>45100</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>45094</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>45087</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>45093</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>45087</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>45080</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>45086</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>45080</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>45073</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>45079</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>45073</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>45066</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>45072</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>45065</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>45059</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>45065</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>45058</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>45052</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>45058</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>45051</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>45045</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>45051</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>45044</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>45038</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>45044</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>45037</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>45031</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>45037</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>45030</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>45024</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>45030</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>45024</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>45017</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>45023</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>45009</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>45003</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>45009</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>45009</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>45010</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>45016</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>45003</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>44996</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>45002</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>44996</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>44989</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>44995</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>44989</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>44982</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>44988</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>44983</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>44975</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>44981</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>44975</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>44968</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>44974</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>44968</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>44961</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>44967</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>44960</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>44954</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>44960</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>44953</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>44947</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>44953</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>44946</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>44940</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>44946</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>44940</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>44933</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>44939</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>44933</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>44926</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>44932</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>44926</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>44919</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>44925</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>44919</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>44912</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>44918</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>44912</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>44905</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>44911</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>44905</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>44898</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>44904</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>44898</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>44890</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>44897</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>44890</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>44883</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>44890</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="87" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+    <row r="46" spans="1:7" ht="83.15" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>44883</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>44876</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>44883</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="101.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+    <row r="47" spans="1:7" ht="96" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>44876</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="12">
         <v>44870</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <v>44876</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>44870</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>44863</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>44869</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -3394,16 +3546,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -3430,43 +3582,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6328125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="11.25" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23" ht="14.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G1" s="1"/>
@@ -3487,25 +3639,23 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>45191</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="11" t="s">
+    <row r="2" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>45193</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>251</v>
-      </c>
+      <c r="F2" s="31"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3524,24 +3674,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>45190</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>245</v>
+    <row r="3" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>45192</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3561,24 +3711,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>45189</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>45191</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>239</v>
+      <c r="F4" s="9" t="s">
+        <v>248</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3598,24 +3748,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>45188</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="11" t="s">
+    <row r="5" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>45190</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>236</v>
+      <c r="F5" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3635,24 +3785,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>45187</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>45189</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>232</v>
+      <c r="F6" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3672,24 +3822,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>45186</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="11" t="s">
+    <row r="7" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>45188</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>231</v>
+      <c r="F7" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3709,24 +3859,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>45185</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>45187</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>225</v>
+      <c r="F8" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3746,24 +3896,24 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>45184</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="11" t="s">
+    <row r="9" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>45186</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>230</v>
+      <c r="F9" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3784,23 +3934,23 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>45183</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="28">
+        <v>45185</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>139</v>
+      <c r="F10" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3821,23 +3971,23 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>45182</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="A11" s="28">
+        <v>45184</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>142</v>
+      <c r="F11" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3858,23 +4008,23 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>45181</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="28">
+        <v>45183</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>143</v>
+      <c r="F12" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3895,23 +4045,23 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>45180</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="28">
+        <v>45182</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>145</v>
+      <c r="D13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3932,23 +4082,23 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>45179</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>147</v>
+      <c r="A14" s="28">
+        <v>45181</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3969,23 +4119,23 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>45178</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="28">
+        <v>45180</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>150</v>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4006,23 +4156,23 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>45176</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>152</v>
+      <c r="A16" s="29">
+        <v>45179</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4043,23 +4193,23 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>45175</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="28">
+        <v>45178</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>235</v>
+      <c r="C17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4080,21 +4230,23 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>45174</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="10" t="s">
-        <v>155</v>
+      <c r="A18" s="28">
+        <v>45176</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4115,21 +4267,23 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>45173</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="28">
+        <v>45175</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="10" t="s">
-        <v>157</v>
+      <c r="D19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4150,21 +4304,21 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>45170</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="10" t="s">
-        <v>159</v>
+      <c r="A20" s="28">
+        <v>45174</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4185,21 +4339,21 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>45169</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="28">
+        <v>45173</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="10" t="s">
-        <v>160</v>
+      <c r="D21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4220,21 +4374,21 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>45168</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14" t="s">
-        <v>163</v>
+      <c r="A22" s="28">
+        <v>45170</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4254,22 +4408,22 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>44998</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14" t="s">
-        <v>166</v>
+    <row r="23" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>45169</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4289,22 +4443,22 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>44997</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14" t="s">
-        <v>169</v>
+    <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
+        <v>45168</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4324,21 +4478,23 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>44995</v>
-      </c>
-      <c r="B25" s="12" t="s">
+    <row r="25" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
+        <v>44998</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -4357,22 +4513,22 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>44994</v>
-      </c>
-      <c r="B26" s="12" t="s">
+    <row r="26" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="29">
+        <v>44997</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14" t="s">
-        <v>171</v>
+      <c r="C26" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4392,23 +4548,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>44993</v>
-      </c>
-      <c r="B27" s="12" t="s">
+    <row r="27" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="29">
+        <v>44995</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14" t="s">
-        <v>174</v>
-      </c>
+      <c r="C27" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -4427,22 +4581,22 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>44992</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14" t="s">
-        <v>177</v>
+    <row r="28" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="29">
+        <v>44994</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4462,22 +4616,22 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
-        <v>44991</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14" t="s">
-        <v>179</v>
+    <row r="29" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
+        <v>44993</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4497,22 +4651,22 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="58" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
-        <v>44990</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14" t="s">
-        <v>182</v>
+    <row r="30" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
+        <v>44992</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4532,22 +4686,22 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
-        <v>44989</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14" t="s">
-        <v>185</v>
+    <row r="31" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+      <c r="A31" s="29">
+        <v>44991</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4567,22 +4721,22 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
-        <v>44988</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14" t="s">
-        <v>188</v>
+    <row r="32" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+      <c r="A32" s="29">
+        <v>44990</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4602,22 +4756,22 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
-        <v>44987</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16" t="s">
-        <v>191</v>
+    <row r="33" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+      <c r="A33" s="29">
+        <v>44989</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4637,22 +4791,22 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="58" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
-        <v>44986</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16" t="s">
-        <v>194</v>
+    <row r="34" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
+        <v>44988</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4672,13 +4826,23 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
+    <row r="35" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4697,9 +4861,117 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
+    <row r="36" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+      <c r="A36" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B8:B1048576 B1">
+  <conditionalFormatting sqref="B10:B1048576 B1">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4723,7 +4995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B7">
     <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4747,7 +5019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B6">
     <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -4820,40 +5092,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4867,8 +5115,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4895,168 +5167,168 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" ht="82.3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>44983</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>45018</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>45069</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>45104</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>45153</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4F2F4-8E19-4E55-97A6-5574A8124E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0990805A-9B1B-4FB6-8D30-9725770891B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="267">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1257,10 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改成按投入小时数来评价任务是否完成后，虽然任务都完成了，但是学习进度依然很慢。Spring在10月1日前必须结束。后续有时间在慢慢学了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。9:00-&gt;13:30。彩蛋25
 2.完成。15:30-&gt;23:30。6小时
 3.完成。13:50-&gt;15:15。3题。
@@ -1280,10 +1276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.周报，更新目标进度。
 2.体重减到76.0kg(非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,14 +1293,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.未完成。实际：5天
-2.未完成。实际：30小时，11题
-3.未完成。实际：彩蛋13
-4.未完成。实际：周日,20点</t>
+    <t>英语：继续学习口语发音。补充s后的浊化规则。技术：学了AOP的实现原理和概念。今天没有管住自己，在家带娃，学习时间占比较低，饮食也没控制住。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语：继续学习口语发音。补充s后的浊化规则。技术：学了AOP的实现原理和概念。今天没有管住自己，在家带娃，学习时间占比较低，饮食也没控制住。</t>
+    <t>改成按投入小时数来评价任务是否完成后，虽然任务都完成了，但是学习进度依然很慢。Spring在10月1日前必须结束。后续有时间在慢慢学了。每天回到家之后，总是不能立即投入到学习中。有待提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：6天
+2.完成。实际：30小时，11题
+3.完成。实际：彩蛋31
+4.完成。实际：周日,21点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持6天：7点起床，确定当天计划，23点日报，睡觉。
+2.技术：Spring结束，leetcode-10题。
+3.英语：小E英语彩蛋67。口语day10
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：0天
+2.未完成。实际：
+3.未完成。实际：彩蛋31
+4.未完成。实际：周日,21点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 小e英语学到彩蛋40
+2.技术, Spring6小时,leetcode(2题)
+3.23:30前，日报, 提交git，睡觉 
+4.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本来想补一下昨天的进度，但实际只更新了周报和目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:10-&gt;13:30。彩蛋44。-1小时
+2.未完成。13:40-&gt;23:30。-1小时
+3.完成。13:50-&gt;15:15。3题。
+4.未完成。中饭正常，晚餐正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:10-&gt;13:30。彩蛋44。-1小时
+2.完成。13:40-&gt;23:30。9.5-3小时
+3.完成。21:00-&gt;21:30。2题。
+4.未完成。中饭正常，晚餐正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 小e英语学到彩蛋55
+2.技术, Spring6小时,aop结束
+3.23:30前，日报，睡觉，leetcode 
+4.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring：看了老师的Spring源码视频142-&gt;157，继续学习AOP实现原理，Spring的单例是否线程安全。学习了JVM的操作数栈。leetcode：197. 上升的温度，1661. 每台机器的进程平均运行时间。英语：学习14个视频。连老师的视频讲的比较细致，不是短时间突击能消化的了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,7 +1370,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1363,12 +1413,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1468,7 +1512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,14 +1600,137 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2339,27 +2506,27 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.4140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2384,25 +2551,25 @@
     </row>
     <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C2" s="7">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D2" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2424,25 +2591,25 @@
     </row>
     <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45179</v>
+        <v>45187</v>
       </c>
       <c r="D3" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2464,25 +2631,25 @@
     </row>
     <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>45178</v>
+        <v>45186</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>45171</v>
+        <v>45179</v>
       </c>
       <c r="D4" s="7">
-        <v>45177</v>
+        <v>45186</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2504,25 +2671,25 @@
     </row>
     <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
         <v>45171</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45164</v>
-      </c>
       <c r="D5" s="7">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2543,810 +2710,827 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>45163</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12">
-        <v>45157</v>
-      </c>
-      <c r="D6" s="12">
-        <v>45163</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="7">
+        <v>45171</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45164</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45170</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="12">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D7" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <v>45150</v>
+        <v>45156</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="D8" s="12">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="12">
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="D9" s="12">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
+        <v>45143</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12">
         <v>45136</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12">
-        <v>45129</v>
-      </c>
       <c r="D10" s="12">
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="12">
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="D11" s="12">
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
+        <v>45129</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12">
         <v>45122</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12">
-        <v>45115</v>
-      </c>
       <c r="D12" s="12">
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="12">
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="D13" s="12">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>45107</v>
+        <v>45115</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="12">
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="D14" s="12">
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
         <v>45101</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12">
-        <v>45094</v>
-      </c>
       <c r="D15" s="12">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="D16" s="12">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="D17" s="12">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
+        <v>45087</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12">
         <v>45080</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12">
-        <v>45073</v>
-      </c>
       <c r="D18" s="12">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="12">
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="D19" s="12">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>45065</v>
+        <v>45073</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="12">
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="D20" s="12">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="12">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="D21" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="12">
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="D22" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="12">
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="D23" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="12">
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="D24" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="12">
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="D25" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>45024</v>
+        <v>45030</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="12">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="D26" s="12">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>45009</v>
+        <v>45024</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="12">
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="D27" s="12">
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>45009</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="12">
-        <v>45010</v>
+        <v>45003</v>
       </c>
       <c r="D28" s="12">
-        <v>45016</v>
+        <v>45009</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>45003</v>
+        <v>45009</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="12">
-        <v>44996</v>
+        <v>45010</v>
       </c>
       <c r="D29" s="12">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
+        <v>45003</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12">
         <v>44996</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="12">
-        <v>44989</v>
-      </c>
       <c r="D30" s="12">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
+        <v>44996</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="12">
         <v>44989</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12">
-        <v>44982</v>
-      </c>
       <c r="D31" s="12">
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <v>44983</v>
+        <v>44989</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" s="12">
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="D32" s="12">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
+        <v>44983</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="12">
         <v>44975</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="12">
-        <v>44968</v>
-      </c>
       <c r="D33" s="12">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="12">
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="D34" s="12">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
-        <v>44960</v>
+        <v>44968</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" s="12">
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="D35" s="12">
-        <v>44960</v>
+        <v>44967</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="12">
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="D36" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="12">
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="D37" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>44940</v>
+        <v>44946</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="D38" s="12">
-        <v>44939</v>
+        <v>44946</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="D39" s="12">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="D40" s="12">
-        <v>44925</v>
+        <v>44932</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="D41" s="12">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>110</v>
@@ -3355,186 +3539,209 @@
         <v>111</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="D42" s="12">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="D43" s="12">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="D44" s="12">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="12">
-        <v>44883</v>
+        <v>44890</v>
       </c>
       <c r="D45" s="12">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F45" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>44890</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="12">
+        <v>44883</v>
+      </c>
+      <c r="D46" s="12">
+        <v>44890</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G46" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="83.15" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+    <row r="47" spans="1:7" ht="87" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>44883</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C47" s="12">
         <v>44876</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <v>44883</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G47" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="96" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+    <row r="48" spans="1:7" ht="101.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>44876</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="12">
-        <v>44870</v>
-      </c>
-      <c r="D47" s="12">
-        <v>44876</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
-        <v>44870</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="12">
+        <v>44870</v>
+      </c>
+      <c r="D48" s="12">
+        <v>44876</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>44870</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="12">
         <v>44863</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>44869</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G49" s="15" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+  <conditionalFormatting sqref="B4:B1048576 B1">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3545,17 +3752,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -3573,7 +3804,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D48 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D49 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3582,27 +3813,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.9140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="12.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3639,23 +3870,23 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45193</v>
+        <v>45195</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="31"/>
+        <v>258</v>
+      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3674,24 +3905,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45192</v>
+        <v>45194</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3711,24 +3942,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45191</v>
+        <v>45193</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3748,24 +3979,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3785,24 +4016,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3822,24 +4053,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3859,24 +4090,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3896,24 +4127,24 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3933,24 +4164,24 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3970,24 +4201,24 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4009,22 +4240,22 @@
     </row>
     <row r="12" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4046,22 +4277,22 @@
     </row>
     <row r="13" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4083,22 +4314,22 @@
     </row>
     <row r="14" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B14" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4120,22 +4351,22 @@
     </row>
     <row r="15" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4156,23 +4387,23 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
-        <v>45179</v>
+      <c r="A16" s="28">
+        <v>45181</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4194,22 +4425,22 @@
     </row>
     <row r="17" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4230,23 +4461,23 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
-        <v>45176</v>
+      <c r="A18" s="29">
+        <v>45179</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>141</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4268,22 +4499,22 @@
     </row>
     <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>135</v>
+        <v>149</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4305,20 +4536,22 @@
     </row>
     <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="F20" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4340,7 +4573,7 @@
     </row>
     <row r="21" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>9</v>
@@ -4349,11 +4582,13 @@
         <v>151</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="F21" s="9" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4375,20 +4610,20 @@
     </row>
     <row r="22" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4410,7 +4645,7 @@
     </row>
     <row r="23" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
@@ -4419,11 +4654,11 @@
         <v>151</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4444,21 +4679,21 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
-        <v>45168</v>
+      <c r="A24" s="28">
+        <v>45170</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="13" t="s">
-        <v>163</v>
+      <c r="F24" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4478,22 +4713,22 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
-        <v>44998</v>
+    <row r="25" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28">
+        <v>45169</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>165</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
-        <v>166</v>
+      <c r="F25" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4513,22 +4748,22 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4548,9 +4783,9 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>13</v>
@@ -4562,7 +4797,9 @@
         <v>165</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -4581,22 +4818,22 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4616,23 +4853,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="13" t="s">
-        <v>174</v>
-      </c>
+      <c r="F29" s="13"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -4651,22 +4886,22 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4686,22 +4921,22 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4721,22 +4956,22 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4756,22 +4991,22 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4791,22 +5026,22 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4826,22 +5061,22 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="15" t="s">
-        <v>191</v>
+      <c r="F35" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4861,22 +5096,22 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="15" t="s">
-        <v>194</v>
+      <c r="F36" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4896,13 +5131,23 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+    <row r="37" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -4921,19 +5166,151 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
+    <row r="38" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A38" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B10:B1048576 B1">
-    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
+  <conditionalFormatting sqref="B12:B1048576 B1">
+    <cfRule type="cellIs" dxfId="43" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="57" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="59" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -4948,16 +5325,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -4971,17 +5348,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -4995,17 +5372,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -5019,30 +5396,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"部分完成"</formula>
@@ -5140,7 +5493,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B39" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5167,18 +5520,18 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>226</v>
       </c>
@@ -5198,7 +5551,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -5218,7 +5571,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -5238,7 +5591,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5611,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5278,7 +5631,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0990805A-9B1B-4FB6-8D30-9725770891B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B5C02C-75DD-4C77-9D9F-E0AAF700373B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="294">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1228,10 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每日进展（23:59前更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.坚持6天：7点左右起床，当天计划，日报。
 2.技术：Spring25小时，leetcode-10题。
 3.英语：小E英语学到视频74。彩蛋30
@@ -1312,20 +1308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.坚持6天：7点起床，确定当天计划，23点日报，睡觉。
-2.技术：Spring结束，leetcode-10题。
-3.英语：小E英语彩蛋67。口语day10
-4.周日23:00前，完成周报，更新重要目标进度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.未完成。实际：0天
-2.未完成。实际：
-3.未完成。实际：彩蛋31
-4.未完成。实际：周日,21点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.英语, 小e英语学到彩蛋40
 2.技术, Spring6小时,leetcode(2题)
 3.23:30前，日报, 提交git，睡觉 
@@ -1337,28 +1319,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。9:10-&gt;13:30。彩蛋44。-1小时
-2.未完成。13:40-&gt;23:30。-1小时
-3.完成。13:50-&gt;15:15。3题。
-4.未完成。中饭正常，晚餐正常</t>
+    <t>Spring：看了老师的Spring源码视频142-&gt;157，继续学习AOP实现原理，Spring的单例是否线程安全。学习了JVM的操作数栈。leetcode：197. 上升的温度，1661. 每台机器的进程平均运行时间。英语：学习14个视频。连老师的视频讲的比较细致，不是短时间突击能消化的了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.完成。9:10-&gt;13:30。彩蛋44。-1小时
 2.完成。13:40-&gt;23:30。9.5-3小时
 3.完成。21:00-&gt;21:30。2题。
-4.未完成。中饭正常，晚餐正常</t>
+4.未完成。75.7，中饭正常，晚餐代餐，夜宵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习springcloud至少5天，每天学习量不低于20分钟。
+2.坚持背单词至少5天
+3.减到71公斤。以周五早上称的为准。
+4.7:00起床，23:30前躺床上开始睡觉（不带任何物件）。
+5.周六23:00前完成周报。制定下周计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 完成。（一，二，三，四，五）完成。（日，六）未完成。
+	2. 未完成。（日，二，三，五）完成。（六，一）未完成。
+	3. 完成。六：72.6，日：73.0，一：74，二：73.4，三：73.3，四：72.7，五：71.9。
+	4. 未完成。无一天完成
+	5. 未完成。（周六）完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 经过调整。以及项目的实际使用，任务一终于完成了。下周继续保持。
+2. 调整起床的任务标准，如果还玩不成就要好好考虑要不要继续了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 学习springcloud至少5天，每天学习量不低于20分钟。
+2. 坚持背单词至少5天。
+3. 减到73公斤。以20221021早上称的为准。
+4. 7:00起床，23:00前躺床上开始睡觉（不带任何物件）。
+5. 周六23:00前完成周报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 未完成。（一，二）完成。
+	2. 完成。（六、日，一，三，五）完成。（二，四）未完成。
+	3. 完成。六：73.5，日：74.6，一：74.1，二：73.7，三：73.4，四：73.2，五：72.9。
+	4. 未完成。。
+完成。（五）完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 早睡早起还是很难。每天回家都快十点了。感觉还是把工作看的太重了。下周要调整目标了。
+2. SpringCloud目标没实现。考虑调整睡觉时间或者用上班时间来学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 学习springcloud至少5天，每天学习量不低于20分钟。
+2. 坚持背单词至少5天。不背完不准回家（除非特殊情况）
+3. 减到73公斤。以20221021早上称的为准。
+4. 7:00起床，23:00前躺床上开始睡觉（不带任何物件）。
+5. 周六23:00前完成周报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 未完成。（仅周六）完成。
+2. 完成。六：74.2，日：73.9，一：73.6，二：74，三：73.5，四：73.4，五：73.2。
+3. 完成。（六、一，二，三，四）完成。（日）未完成。
+4. 未完成。无一天完成。
+5. 完成。（周五）完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 睡觉起床的任务下周继续布置，如果仍然无法完成，考虑后续不再布置。或者降低要求。
+	2. 学习SpringCloud为重中之重，下周必须完成。尽量在地铁上把单词背完。不行考虑放弃其他目标。或者裸辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 7:00起床，23:00前躺床上开始睡觉（不带任何物件）。
+2. 减到74公斤。以20221014早上称的为准。
+3. 坚持背单词至少5天。不背完不准回家（除非特殊情况）
+4. 学习springcloud至少5天，每天学习量不低于20分钟。
+5. 周六完成周报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 本周在工作耽误了1天左右。被Office2021的切换耽误了1天左右。
+	2. 当然最多的还是缺乏自制力。中间大概有2-3天时间在摸鱼。
+	3. 但总体来说比去年国庆节还是有所提升的。至少背了单词也完成了部分工作。
+4.第四个任务虽然完成了，但是发现当时定的目标太小了。500字一个章节就到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 未完成。（二）完成。（日，一，三，四，五）未完成。
+	2. 未完成。日：74.8，一：74.6，二：74.4，三：75.6，四：74.8，五：75，六：74.2。
+	3. 完成。（日、一、二、三、四）完成。（五）未完成。
+	4. 完成。（周五）完成。
+完成。（周五）完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 8:00起床，23:30前不带手机躺床上睡觉。
+	2. 减到74公斤。以20221008早上称的为准。
+	3. 坚持背单词至少5天。不背完不准睡觉（除非特殊情况）
+	4. 学习springcloud并写不少于500字的笔记。
+	5. 周六前完成周报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 未完成。（周一、周二）完成。（周三，周四，周五）未完成。
+	2. 完成。周一：75.1，周二：74.6，周三：74.8，周四：74.6，周五：74.2，周六：。
+	3. 完成。（周日、周一、周二、周三，周四，周五）完成。
+	4. 完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于还是看到了希望，人生只要坚持就有可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 未做到，周五起床晚了。没有写晨报。
+	2. 完成。
+	3. 未完成。周五晚上拉肚子N次，周六没起的起来。
+	4. 完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来写晨报还是有效果的。早晨起来本身是一种坚持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 6:30起床，23:30不带手机躺床上睡觉。
+2. 减到74公斤。以20221001早上称的为准。
+3. 坚持背单词至少5天（周日已背1天）。不背完不准回家（除非特殊情况）
+4. 周五完成周报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务：11:30睡觉，6:30起床。在回家之前背完单词。
+任务：减到140斤。下周目标：75.5公斤
+任务：下周任务如果再完不成，每天早上起床写日报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	1. 一天都没做到过。总是有各种理由拖延时间
+	2. 减到过75.5，但周末控制不5了，又会涨回去。
+	3. 周六做到了，但周日又给忘了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼高手低是达不成目标的。如果避免不了被别人影响，何不干脆去影响别人？
+如果每周的任务都完不成，写周报的意义何在？要不干脆放弃算了？下辈子再说吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务：11点睡觉6点起床。进度：本周一天都没做到。
+原因：缺乏执行力，惯性太大，缺乏意志力。
+解决方案：将目标先改为11点半睡觉，6点半起床试试。继续加油。
+任务：减到140斤。本周进度：75.6公斤。这周五参加一次聚餐，估计又要反弹2斤。明早起床运动。
+任务：尽可能在上午把单词背完。进度：只做到了再回家之前把单词背完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是被公司的事情占据了太多时间。这周接受到了不好的信息。公司效益越来越差了。要加紧自己的学习计划了。不然如果真的不行了。是否还能找到工作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续进行任务：11点睡觉6点起床。尽可能在上午背完单词。公司的事情再多，除非有特别紧急的否则不要超过21点下班。把更多的时间放到自己的目标上，而不是工作。上班8小时决定生存，下班8小时留给未来。
+继续进行任务：减到140斤。下周目标：75.5公斤
+继续进行任务：SQL语句优化。下周目标：优化腾达SQL。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务：11点睡觉6点起床。进度：本周一天都没做到。
+原因：还是缺乏执行力，每次一到了晚上，看到有那么多任务没完成，就想多做一会儿。一做就是12点以后了。
+解决方案：其实晚上干到12点，然后睡到7点。和晚上干掉11点早上6点起床。睡眠时间上是一样的。但是这里面多了一份自我控制力。如果未来想要养成自律的习惯，这一点非常重要。如果连睡觉和起床时间都控制不了，凭什么去控制命运。如果真的想遇见更优秀的自己，那就必须做到。
+任务：减到140斤。本周进度：75.9公斤。上周六吃的太多，又增加了2斤。这周中午都吃代餐才降了点。所以自我控制力是实现目标的关键因素。
+任务：SQL语句优化。进度：本周未实施。一直在处理斯达康和祥生的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我控制力是实现自律的关键因素。没有这个作为基石，任何目标都难以达成。下周必须逐渐培养出自己的工作规律了。不能总是被突如其来的事情牵着鼻子走。
+没有一个公司是可以永远存在的。向科达这种后台这么硬的都开始走下坡路了。任何一个公司如果只靠关系卖产品，产品本身不具备竞争力的，都很难长久。目前的工作能接触到的高端技术也不多，白天8小时决定生存，下班8小时决定发展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日进展（23:30前更新）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.英语, 小e英语学到彩蛋55
-2.技术, Spring6小时,aop结束
-3.23:30前，日报，睡觉，leetcode 
-4.体重减到75.5kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring：看了老师的Spring源码视频142-&gt;157，继续学习AOP实现原理，Spring的单例是否线程安全。学习了JVM的操作数栈。leetcode：197. 上升的温度，1661. 每台机器的进程平均运行时间。英语：学习14个视频。连老师的视频讲的比较细致，不是短时间突击能消化的了。</t>
+2.leetcode，2题(1题算法)
+3.技术, Spring6小时,aop结束
+4.每日计划复盘，早睡早起
+5.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode:122.买卖股票的最佳时机 II，这次居然在没看答案的前提上做出来了，看来持续的积累还是有用的。Spring：根据之前看的视频以及搜集到的文章，整理了AOP实现原理笔记和流程图。整理了事务相关面试题。事务的配置方式，事务失效的场景，事务实现原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;13:24。彩蛋58。-1小时
+2.完成。14:00-&gt;15:30。2题。
+3.完成。15:45-&gt;23:45。8-2小时
+4.完成。23:51，已提交git
+5.未完成。中晚饭代餐+零食饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
+2.技术：Spring结束，leetcode-10题。
+3.英语：小E英语彩蛋67。重启听力训练
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：2天
+2.未完成。实际：事务，4题
+3.未完成。实际：彩蛋44
+4.未完成。实际：周日,21点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1506,13 +1683,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,11 +1790,440 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2506,10 +3125,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
@@ -2523,7 +3142,8 @@
     <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -2563,15 +3183,15 @@
         <v>45200</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="H2" s="33"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2603,13 +3223,13 @@
         <v>45193</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3680,7 +4300,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="101.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>44876</v>
       </c>
@@ -3703,7 +4323,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>44870</v>
       </c>
@@ -3726,22 +4346,253 @@
         <v>131</v>
       </c>
     </row>
+    <row r="50" spans="1:7" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>44870</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="12">
+        <v>44863</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44869</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>44862</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="12">
+        <v>44855</v>
+      </c>
+      <c r="D51" s="12">
+        <v>44862</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>44855</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="12">
+        <v>44849</v>
+      </c>
+      <c r="D52" s="12">
+        <v>44855</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>44848</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="12">
+        <v>44842</v>
+      </c>
+      <c r="D53" s="12">
+        <v>44848</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>44842</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="12">
+        <v>44835</v>
+      </c>
+      <c r="D54" s="12">
+        <v>44842</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>44834</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="12">
+        <v>44829</v>
+      </c>
+      <c r="D55" s="12">
+        <v>44834</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>44829</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="12">
+        <v>44823</v>
+      </c>
+      <c r="D56" s="12">
+        <v>44829</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>44822</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="12">
+        <v>44815</v>
+      </c>
+      <c r="D57" s="12">
+        <v>44822</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>44813</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="12">
+        <v>44807</v>
+      </c>
+      <c r="D58" s="12">
+        <v>44813</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>44808</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="12">
+        <v>44800</v>
+      </c>
+      <c r="D59" s="12">
+        <v>44808</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E59:F59"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B1048576 B1">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+  <conditionalFormatting sqref="B60:B1048576 B4:B49 B1">
+    <cfRule type="cellIs" dxfId="95" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="70" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3753,6 +4604,246 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="91" priority="61" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="62" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="63" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="64" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="87" priority="56" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="57" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="58" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="cellIs" dxfId="83" priority="51" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="53" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="54" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="cellIs" dxfId="79" priority="46" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="47" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="48" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="49" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="44" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="71" priority="36" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="37" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="38" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="39" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="63" priority="26" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="27" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="28" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
     <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -3776,7 +4867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B59">
     <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -3804,7 +4895,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D49 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D59 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3813,13 +4904,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3827,9 +4918,9 @@
     <col min="1" max="1" width="12.6328125" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -3844,13 +4935,13 @@
         <v>243</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3870,23 +4961,25 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>45195</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>291</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3913,16 +5006,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3950,16 +5043,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3987,16 +5080,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4024,16 +5117,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4064,13 +5157,13 @@
         <v>241</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>251</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4103,11 +5196,11 @@
       <c r="D8" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4140,11 +5233,11 @@
       <c r="D9" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4177,11 +5270,11 @@
       <c r="D10" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4214,11 +5307,11 @@
       <c r="D11" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4251,11 +5344,11 @@
       <c r="D12" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4288,11 +5381,11 @@
       <c r="D13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4325,11 +5418,11 @@
       <c r="D14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4362,11 +5455,11 @@
       <c r="D15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4399,11 +5492,11 @@
       <c r="D16" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4436,11 +5529,11 @@
       <c r="D17" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4473,11 +5566,11 @@
       <c r="D18" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4510,11 +5603,11 @@
       <c r="D19" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4547,11 +5640,11 @@
       <c r="D20" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4584,11 +5677,11 @@
       <c r="D21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4621,10 +5714,10 @@
       <c r="D22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>155</v>
       </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -4656,10 +5749,10 @@
       <c r="D23" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>157</v>
       </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -4691,10 +5784,10 @@
       <c r="D24" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>159</v>
       </c>
+      <c r="F24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -4726,10 +5819,10 @@
       <c r="D25" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>160</v>
       </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -4761,10 +5854,10 @@
       <c r="D26" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>163</v>
       </c>
+      <c r="F26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -4796,10 +5889,10 @@
       <c r="D27" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>166</v>
       </c>
+      <c r="F27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -4831,10 +5924,10 @@
       <c r="D28" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>169</v>
       </c>
+      <c r="F28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4866,8 +5959,8 @@
       <c r="D29" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -4899,10 +5992,10 @@
       <c r="D30" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>171</v>
       </c>
+      <c r="F30" s="14"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -4934,10 +6027,10 @@
       <c r="D31" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>174</v>
       </c>
+      <c r="F31" s="14"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -4969,10 +6062,10 @@
       <c r="D32" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>177</v>
       </c>
+      <c r="F32" s="14"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -5004,10 +6097,10 @@
       <c r="D33" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>179</v>
       </c>
+      <c r="F33" s="14"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -5039,10 +6132,10 @@
       <c r="D34" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>182</v>
       </c>
+      <c r="F34" s="14"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -5074,10 +6167,10 @@
       <c r="D35" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>185</v>
       </c>
+      <c r="F35" s="14"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -5109,10 +6202,10 @@
       <c r="D36" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>188</v>
       </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -5144,10 +6237,10 @@
       <c r="D37" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>191</v>
       </c>
+      <c r="F37" s="14"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -5179,10 +6272,10 @@
       <c r="D38" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>194</v>
       </c>
+      <c r="F38" s="14"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -5201,31 +6294,6 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12:B1048576 B1">
@@ -5493,10 +6561,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B39" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B38" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"否,是,无悔,"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B5C02C-75DD-4C77-9D9F-E0AAF700373B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EF9EEC-67F8-4618-9974-69CC30AF7955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="298">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1304,10 +1304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.英语, 小e英语学到彩蛋40
 2.技术, Spring6小时,leetcode(2题)
 3.23:30前，日报, 提交git，睡觉 
@@ -1517,25 +1513,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
+2.技术：Spring结束，leetcode-10题。
+3.英语：小E英语彩蛋67。重启听力训练
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.完成。9:00-&gt;13:24。彩蛋58。-1小时
 2.完成。14:00-&gt;15:30。2题。
 3.完成。15:45-&gt;23:45。8-2小时
 4.完成。23:51，已提交git
+5.未完成。75.7，中晚饭代餐+零食饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 小e英语到彩蛋67，听力
+2.leetcode，2题(1题算法)
+3.技术, Spring事务，类
+4.每日计划复盘，早睡早起
+5.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;12:40。彩蛋67。
+2.完成。14:30-&gt;17:20。2题。
+3.完成。17:25-&gt;23:45。6.5-1.5小时
+4.完成。23:51，已提交git
 5.未完成。中晚饭代餐+零食饮料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
-2.技术：Spring结束，leetcode-10题。
-3.英语：小E英语彩蛋67。重启听力训练
-4.周日23:00前，完成周报，更新重要目标进度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.未完成。实际：2天
-2.未完成。实际：事务，4题
-3.未完成。实际：彩蛋44
+    <t>leetcode：1280. 学生们参加各科测试的次数，55. 跳跃游戏，这次的题比较难，后面那题答案都看了很久才理解。继续整理Spring面试题：事务配置方法，事务的实现原理，BeanFactory和FactoryBean的区别，InitializingBean使用场景，Spring常用注解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：3天
+2.未完成。实际：类，6题
+3.未完成。实际：彩蛋67
 4.未完成。实际：周日,21点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力3小时
+2.leetcode，2题(1题算法)
+3.技术, Spring事务，类
+4.每日计划复盘，早睡早起
+5.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;12:40。彩蛋67。
+2.完成。14:30-&gt;17:20。2题。
+3.完成。17:25-&gt;23:45。6.5-1.5小时
+4.完成。23:51，已提交git
+5.完成。中晚饭代餐+无糖饮料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1790,20 +1822,104 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3127,11 +3243,11 @@
   </sheetPr>
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3183,15 +3299,15 @@
         <v>45200</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4383,13 +4499,13 @@
         <v>44862</v>
       </c>
       <c r="E51" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="G51" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
@@ -4406,13 +4522,13 @@
         <v>44855</v>
       </c>
       <c r="E52" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="G52" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.3">
@@ -4429,13 +4545,13 @@
         <v>44848</v>
       </c>
       <c r="E53" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="G53" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -4452,13 +4568,13 @@
         <v>44842</v>
       </c>
       <c r="E54" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4475,13 +4591,13 @@
         <v>44834</v>
       </c>
       <c r="E55" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="G55" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.3">
@@ -4498,13 +4614,13 @@
         <v>44829</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F56" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4521,13 +4637,13 @@
         <v>44822</v>
       </c>
       <c r="E57" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="G57" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.3">
@@ -4544,13 +4660,13 @@
         <v>44813</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4566,12 +4682,12 @@
       <c r="D59" s="12">
         <v>44808</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F59" s="33"/>
+      <c r="G59" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4580,16 +4696,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B60:B1048576 B4:B49 B1">
-    <cfRule type="cellIs" dxfId="95" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="70" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="71">
@@ -4604,16 +4720,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="91" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -4628,16 +4744,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="87" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -4652,16 +4768,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="83" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -4676,16 +4792,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="79" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -4700,16 +4816,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="75" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -4724,16 +4840,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="71" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -4748,16 +4864,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -4772,16 +4888,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="63" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -4796,16 +4912,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -4820,16 +4936,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -4844,16 +4960,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4868,16 +4984,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -4904,13 +5020,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4935,7 +5051,7 @@
         <v>243</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>133</v>
@@ -4963,22 +5079,20 @@
     </row>
     <row r="2" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>290</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4998,21 +5112,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -5035,21 +5149,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45193</v>
+        <v>45195</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -5074,22 +5188,22 @@
     </row>
     <row r="5" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45192</v>
+        <v>45194</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5109,21 +5223,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45191</v>
+        <v>45193</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -5148,22 +5262,22 @@
     </row>
     <row r="7" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5185,19 +5299,19 @@
     </row>
     <row r="8" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -5222,19 +5336,19 @@
     </row>
     <row r="9" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -5259,19 +5373,19 @@
     </row>
     <row r="10" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -5294,21 +5408,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -5331,21 +5445,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -5368,21 +5482,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -5407,19 +5521,19 @@
     </row>
     <row r="14" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -5444,19 +5558,19 @@
     </row>
     <row r="15" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -5481,19 +5595,19 @@
     </row>
     <row r="16" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -5518,22 +5632,22 @@
     </row>
     <row r="17" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5554,23 +5668,23 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
-        <v>45179</v>
+      <c r="A18" s="28">
+        <v>45181</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5592,19 +5706,19 @@
     </row>
     <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -5628,23 +5742,23 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
-        <v>45176</v>
+      <c r="A20" s="29">
+        <v>45179</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5666,22 +5780,22 @@
     </row>
     <row r="21" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5703,21 +5817,23 @@
     </row>
     <row r="22" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -5738,7 +5854,7 @@
     </row>
     <row r="23" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
@@ -5747,12 +5863,14 @@
         <v>151</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="14"/>
+        <v>235</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -5773,19 +5891,19 @@
     </row>
     <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="1"/>
@@ -5808,7 +5926,7 @@
     </row>
     <row r="25" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>9</v>
@@ -5817,10 +5935,10 @@
         <v>151</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="1"/>
@@ -5842,20 +5960,20 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
-        <v>45168</v>
+      <c r="A26" s="28">
+        <v>45170</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="1"/>
@@ -5876,21 +5994,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
-        <v>44998</v>
+    <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
+        <v>45169</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="1"/>
@@ -5911,21 +6029,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="1"/>
@@ -5948,7 +6066,7 @@
     </row>
     <row r="29" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>13</v>
@@ -5959,7 +6077,9 @@
       <c r="D29" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -5981,19 +6101,19 @@
     </row>
     <row r="30" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="1"/>
@@ -6016,20 +6136,18 @@
     </row>
     <row r="31" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="14"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -6049,21 +6167,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="1"/>
@@ -6084,21 +6202,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="1"/>
@@ -6119,21 +6237,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
@@ -6156,19 +6274,19 @@
     </row>
     <row r="35" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="1"/>
@@ -6189,21 +6307,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
@@ -6224,21 +6342,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
@@ -6259,21 +6377,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
@@ -6294,9 +6412,127 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
+    <row r="39" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A40" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B12:B1048576 B1">
+  <conditionalFormatting sqref="B14:B1048576 B1">
+    <cfRule type="cellIs" dxfId="51" priority="71" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="72" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="73" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="47" priority="66" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="67" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="68" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
     <cfRule type="cellIs" dxfId="43" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6320,7 +6556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B11">
     <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6344,7 +6580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B10">
     <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6417,40 +6653,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="39" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -6464,20 +6676,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6488,17 +6700,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6512,6 +6724,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"部分完成"</formula>
@@ -6561,7 +6797,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B38" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EF9EEC-67F8-4618-9974-69CC30AF7955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741CA1F-D186-4184-BFE1-FE694365917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="22131" windowHeight="11811" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="299">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1528,46 +1528,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>leetcode：1280. 学生们参加各科测试的次数，55. 跳跃游戏，这次的题比较难，后面那题答案都看了很久才理解。继续整理Spring面试题：事务配置方法，事务的实现原理，BeanFactory和FactoryBean的区别，InitializingBean使用场景，Spring常用注解。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：3天
+2.未完成。实际：类，6题
+3.未完成。实际：彩蛋67
+4.未完成。实际：周日,21点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;12:40。彩蛋67。
+2.完成。14:30-&gt;17:20。2题。
+3.完成。17:25-&gt;23:45。6.5-1.5小时
+4.完成。23:51，已提交git
+5.完成。74.9，中晚饭代餐+无糖饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.英语, 小e英语到彩蛋67，听力
 2.leetcode，2题(1题算法)
 3.技术, Spring事务，类
 4.每日计划复盘，早睡早起
-5.体重减到75.5kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。9:00-&gt;12:40。彩蛋67。
-2.完成。14:30-&gt;17:20。2题。
-3.完成。17:25-&gt;23:45。6.5-1.5小时
+5.体重减到75.5kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力3小时
+2.leetcode，2题(1题算法)
+3.技术, Spring架构设计
+4.每日计划复盘，早睡早起
+5.体重减到74.6kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode: 570.至少有5名直接下属的经理,45. 跳跃游戏 II
+Spring：Spring中的设计模式，bean注入方式，@Import注解原理
+中间一段时间在整理其他面试题，还有就是到家之后状态不好。英语学了音变规则后，听力还是听起来很费力，看来还是得大量积累。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。9:00-&gt;12:00。3小时。
+2.完成。13:40-&gt;15:30。2题。
+3.未完成。15:45-&gt;23:45。8-2小时
 4.完成。23:51，已提交git
 5.未完成。中晚饭代餐+零食饮料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leetcode：1280. 学生们参加各科测试的次数，55. 跳跃游戏，这次的题比较难，后面那题答案都看了很久才理解。继续整理Spring面试题：事务配置方法，事务的实现原理，BeanFactory和FactoryBean的区别，InitializingBean使用场景，Spring常用注解。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.未完成。实际：3天
-2.未完成。实际：类，6题
-3.未完成。实际：彩蛋67
-4.未完成。实际：周日,21点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.英语, 托福听力3小时
-2.leetcode，2题(1题算法)
-3.技术, Spring事务，类
-4.每日计划复盘，早睡早起
-5.体重减到75.5kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。9:00-&gt;12:40。彩蛋67。
-2.完成。14:30-&gt;17:20。2题。
-3.完成。17:25-&gt;23:45。6.5-1.5小时
-4.完成。23:51，已提交git
-5.完成。中晚饭代餐+无糖饮料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3302,7 +3308,7 @@
         <v>290</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>255</v>
@@ -5026,7 +5032,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5082,17 +5088,19 @@
         <v>45197</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>296</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>298</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>297</v>
+      </c>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -5120,13 +5128,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741CA1F-D186-4184-BFE1-FE694365917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31D3003-D9A6-4D13-B1D2-D1E0F45D6355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="22131" windowHeight="11811" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="305">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1532,13 +1532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.未完成。实际：3天
-2.未完成。实际：类，6题
-3.未完成。实际：彩蛋67
-4.未完成。实际：周日,21点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。9:00-&gt;12:40。彩蛋67。
 2.完成。14:30-&gt;17:20。2题。
 3.完成。17:25-&gt;23:45。6.5-1.5小时
@@ -1573,7 +1566,49 @@
 2.完成。13:40-&gt;15:30。2题。
 3.未完成。15:45-&gt;23:45。8-2小时
 4.完成。23:51，已提交git
-5.未完成。中晚饭代餐+零食饮料</t>
+5.未完成。75.5，中饭代餐，晚饭正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.leetcode，2题(1题算法)
+2.技术, Spring4小时
+3.每日计划复盘，早睡早起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：5天
+2.未完成。实际：类，10题
+3.未完成。实际：彩蛋67
+4.未完成。实际：周日,21点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode:1934. 确认率,274. H 指数，今天彻底失控，白天睡觉，玩，就晚上做了2个题目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.leetcode，1题(1题算法)
+2.技术, 结束Spring，提交git
+3.每日计划复盘，早睡早起
+4.体重减到75.8kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何一定要完成本周目标。
+leetcode:380.O(1)时间插入、删除和获取随机元素，620. 有趣的电影。复习:55.跳跃游戏。Spring:完成Spring Framework部分的面试题整理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。22:00-&gt;00:20。2小时。
+2.未完成。完全没看。。。
+3.未完成。00:10-&gt;00:21。超时完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。09:00-&gt;13:30。2题，复习1题
+2.完成。15:30-&gt;00:30
+3.完成。23:30-&gt;23:59。
+4.未完成。中餐正常，晚餐方便面+零食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1841,7 +1876,91 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="112">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3253,7 +3372,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3308,11 +3427,9 @@
         <v>290</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>255</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G2" s="18"/>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4702,16 +4819,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B60:B1048576 B4:B49 B1">
-    <cfRule type="cellIs" dxfId="103" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="70" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="71">
@@ -4726,16 +4843,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="99" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -4750,16 +4867,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="95" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -4774,16 +4891,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="91" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -4798,16 +4915,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="87" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -4822,16 +4939,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -4846,16 +4963,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="79" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -4870,16 +4987,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="75" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -4894,16 +5011,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -4918,16 +5035,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="67" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -4942,16 +5059,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -4966,16 +5083,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -4990,16 +5107,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -5026,13 +5143,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5083,21 +5200,21 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>135</v>
@@ -5120,24 +5237,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5159,19 +5276,19 @@
     </row>
     <row r="4" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -5194,21 +5311,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -5231,21 +5348,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45193</v>
+        <v>45195</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -5270,22 +5387,22 @@
     </row>
     <row r="7" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45192</v>
+        <v>45194</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5305,21 +5422,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45191</v>
+        <v>45193</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -5344,22 +5461,22 @@
     </row>
     <row r="9" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5381,19 +5498,19 @@
     </row>
     <row r="10" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -5418,19 +5535,19 @@
     </row>
     <row r="11" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -5455,19 +5572,19 @@
     </row>
     <row r="12" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -5490,21 +5607,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -5527,21 +5644,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -5564,21 +5681,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -5603,19 +5720,19 @@
     </row>
     <row r="16" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -5640,19 +5757,19 @@
     </row>
     <row r="17" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -5677,19 +5794,19 @@
     </row>
     <row r="18" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B18" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -5714,22 +5831,22 @@
     </row>
     <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5750,23 +5867,23 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
-        <v>45179</v>
+      <c r="A20" s="28">
+        <v>45181</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5788,19 +5905,19 @@
     </row>
     <row r="21" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -5824,23 +5941,23 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
-        <v>45176</v>
+      <c r="A22" s="29">
+        <v>45179</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5862,22 +5979,22 @@
     </row>
     <row r="23" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5899,21 +6016,23 @@
     </row>
     <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -5934,7 +6053,7 @@
     </row>
     <row r="25" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>9</v>
@@ -5943,12 +6062,14 @@
         <v>151</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="14"/>
+        <v>235</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -5969,19 +6090,19 @@
     </row>
     <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="1"/>
@@ -6004,7 +6125,7 @@
     </row>
     <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>9</v>
@@ -6013,10 +6134,10 @@
         <v>151</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="1"/>
@@ -6038,20 +6159,20 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
-        <v>45168</v>
+      <c r="A28" s="28">
+        <v>45170</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="1"/>
@@ -6072,21 +6193,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
-        <v>44998</v>
+    <row r="29" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
+        <v>45169</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="1"/>
@@ -6107,21 +6228,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="1"/>
@@ -6144,7 +6265,7 @@
     </row>
     <row r="31" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>13</v>
@@ -6155,7 +6276,9 @@
       <c r="D31" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -6177,19 +6300,19 @@
     </row>
     <row r="32" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="1"/>
@@ -6212,20 +6335,18 @@
     </row>
     <row r="33" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E33" s="13"/>
       <c r="F33" s="14"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -6245,21 +6366,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
@@ -6280,21 +6401,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="1"/>
@@ -6315,21 +6436,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
@@ -6352,19 +6473,19 @@
     </row>
     <row r="37" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
@@ -6385,21 +6506,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
@@ -6420,21 +6541,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
@@ -6455,21 +6576,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
@@ -6490,9 +6611,127 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
+    <row r="41" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A42" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B14:B1048576 B1">
+  <conditionalFormatting sqref="B16:B1048576 B1">
+    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="55" priority="76" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="77" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="78" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="79" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
     <cfRule type="cellIs" dxfId="51" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6516,7 +6755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B13">
     <cfRule type="cellIs" dxfId="47" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6540,7 +6779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="B12">
     <cfRule type="cellIs" dxfId="43" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6613,40 +6852,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="49" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6660,20 +6875,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6684,17 +6899,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -6708,6 +6923,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"部分完成"</formula>
@@ -6805,7 +7044,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B42" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31D3003-D9A6-4D13-B1D2-D1E0F45D6355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94F870-CD27-4EBF-AE9C-C0843B8B662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="317">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1029,9 +1029,6 @@
 3.完成。实际：day4，5天
 4.完成。实际：5天</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
   </si>
   <si>
     <t>本周学了Spring源码课程，leetcode做了4题。小E英语学到第49个视频。扇贝精听高阶暂停，先把发音基础巩固好，否则强行打卡毫无意义。本周六也学习了6小时，状态相较上周仍在提升。下周继续保持.</t>
@@ -1576,13 +1573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.未完成。实际：5天
-2.未完成。实际：类，10题
-3.未完成。实际：彩蛋67
-4.未完成。实际：周日,21点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leetcode:1934. 确认率,274. H 指数，今天彻底失控，白天睡觉，玩，就晚上做了2个题目。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1609,6 +1599,91 @@
 2.完成。15:30-&gt;00:30
 3.完成。23:30-&gt;23:59。
 4.未完成。中餐正常，晚餐方便面+零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：5天
+2.完成。实际：Spring，12题
+3.完成。实际：彩蛋67
+4.完成。实际：周日,23点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>周五状态有点失控，还好周六补回来了。国庆节前几天可以适当休息。但不能全部都在玩，后半段要逐步开始恢复学习了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持9天：7点起床，确定当天计划，23点日报，睡觉。
+2.技术：结束学习Spring相关源码内容，leetcode10题。
+3.英语：扇贝听力-托福相关-20小时
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：0天
+2.完成。实际：Spring，0题
+3.完成。实际：
+4.完成。实际：周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆假期中间本来想边玩边学习的，但是没做到。主要原因还是因为假期一开始没有明确的目标，每天早上也没坚持做计划。一时控就是5天没了。还有就是花在宠物上的精力过多。不过好在10月4日晚上制定了计划，状态重新回来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21:30学习计划。日报。
+2.学习至少2小时。
+3.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力2小时
+2.leetcode，2题(1题算法)
+3.技术, SpringMVC4小时
+4.完成日报复盘，早睡早起
+5.体重减到75.2kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。21:30-&gt;22:20。制定了10天计划
+2.完成。21:30-&gt;23:30。leetcode2题
+3.完成。74.7，中饭正常，晚餐代餐+饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。16:00-&gt;18:30。2小时。
+2.完成。19:30-&gt;21:50。2题。
+3.未完成。21:50-&gt;23:50。8-2小时
+4.完成。起床:7点，
+5.未完成。75.5，中饭正常，晚饭正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode：1251. 平均售价。白天想学习了。但是花在宠物上的精力过多。买柴犬的决定还是太冲动了，至少花了3天的时间在上面。还好晚上把接下来10天的计划做好了。接下来必须收心了。继续朝着目标前进。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力2小时
+2.leetcode，2题(1题算法)
+3.技术, SpringMVC4小时
+4.7点起床做计划，23点日报
+5.体重减到75.2kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前听托福听力还是很费劲，得持续积累培养听感。
+1. 做了2道leetcode题：1633. 各赛事的用户注册率，238. 除自身以外数组的乘积。2. SpringBoot源码-看了5个视频，整理面试题。SpringBoot发展历史，@Configuration，@ComponentScan，@Import注解使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。16:00-&gt;18:30。2小时。
+2.完成。19:30-&gt;21:50。2题。2小时。
+3.未完成。21:50-&gt;00:30。2小时
+4.未完成。起床:7点，睡觉时间超时
+5.未完成。75.5，中饭正常，晚饭正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1876,7 +1951,175 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3366,13 +3609,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3412,24 +3655,26 @@
     </row>
     <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="C2" s="7">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="D2" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="18"/>
+        <v>307</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>308</v>
+      </c>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3450,27 +3695,27 @@
     </row>
     <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D3" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H3" s="31"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3490,25 +3735,25 @@
     </row>
     <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>45179</v>
+        <v>45187</v>
       </c>
       <c r="D4" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3530,25 +3775,25 @@
     </row>
     <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>45178</v>
+        <v>45186</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>45171</v>
+        <v>45179</v>
       </c>
       <c r="D5" s="7">
-        <v>45177</v>
+        <v>45186</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3570,25 +3815,25 @@
     </row>
     <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
         <v>45171</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45164</v>
-      </c>
       <c r="D6" s="7">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3609,810 +3854,827 @@
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>45163</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12">
-        <v>45157</v>
-      </c>
-      <c r="D7" s="12">
-        <v>45163</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="7">
+        <v>45171</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45164</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45170</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="12">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D8" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>45150</v>
+        <v>45156</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="D9" s="12">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12">
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="D10" s="12">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
+        <v>45143</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12">
         <v>45136</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12">
-        <v>45129</v>
-      </c>
       <c r="D11" s="12">
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="12">
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="D12" s="12">
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
+        <v>45129</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
         <v>45122</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12">
-        <v>45115</v>
-      </c>
       <c r="D13" s="12">
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="12">
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="D14" s="12">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <v>45107</v>
+        <v>45115</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12">
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="D15" s="12">
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
         <v>45101</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12">
-        <v>45094</v>
-      </c>
       <c r="D16" s="12">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="D17" s="12">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="12">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="D18" s="12">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
+        <v>45087</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12">
         <v>45080</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12">
-        <v>45073</v>
-      </c>
       <c r="D19" s="12">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="12">
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="D20" s="12">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <v>45065</v>
+        <v>45073</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="12">
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="D21" s="12">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="12">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="D22" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="12">
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="D23" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="12">
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="D24" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="12">
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="D25" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="12">
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="D26" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>45024</v>
+        <v>45030</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="12">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="D27" s="12">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>45009</v>
+        <v>45024</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="12">
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="D28" s="12">
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>45009</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="12">
-        <v>45010</v>
+        <v>45003</v>
       </c>
       <c r="D29" s="12">
-        <v>45016</v>
+        <v>45009</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>45003</v>
+        <v>45009</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="12">
-        <v>44996</v>
+        <v>45010</v>
       </c>
       <c r="D30" s="12">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
+        <v>45003</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
         <v>44996</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="12">
-        <v>44989</v>
-      </c>
       <c r="D31" s="12">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
+        <v>44996</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="12">
         <v>44989</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="12">
-        <v>44982</v>
-      </c>
       <c r="D32" s="12">
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
-        <v>44983</v>
+        <v>44989</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="12">
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="D33" s="12">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
+        <v>44983</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="12">
         <v>44975</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12">
-        <v>44968</v>
-      </c>
       <c r="D34" s="12">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="12">
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="D35" s="12">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <v>44960</v>
+        <v>44968</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="12">
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="D36" s="12">
-        <v>44960</v>
+        <v>44967</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="12">
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="D37" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="12">
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="D38" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <v>44940</v>
+        <v>44946</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="D39" s="12">
-        <v>44939</v>
+        <v>44946</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="D40" s="12">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="D41" s="12">
-        <v>44925</v>
+        <v>44932</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="D42" s="12">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>110</v>
@@ -4421,171 +4683,171 @@
         <v>111</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="D43" s="12">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="D44" s="12">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="D45" s="12">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="12">
-        <v>44883</v>
+        <v>44890</v>
       </c>
       <c r="D46" s="12">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F46" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>44890</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="12">
+        <v>44883</v>
+      </c>
+      <c r="D47" s="12">
+        <v>44890</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G47" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="87" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+    <row r="48" spans="1:7" ht="87" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>44883</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C48" s="12">
         <v>44876</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>44883</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F48" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="G47" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+    </row>
+    <row r="49" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
         <v>44876</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="12">
-        <v>44870</v>
-      </c>
-      <c r="D48" s="12">
-        <v>44876</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
-        <v>44870</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="12">
-        <v>44863</v>
+        <v>44870</v>
       </c>
       <c r="D49" s="12">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>44870</v>
       </c>
@@ -4608,230 +4870,253 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="12">
-        <v>44855</v>
+        <v>44863</v>
       </c>
       <c r="D51" s="12">
+        <v>44869</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
         <v>44862</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
-        <v>44855</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="12">
-        <v>44849</v>
+        <v>44855</v>
       </c>
       <c r="D52" s="12">
+        <v>44862</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>44855</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
-        <v>44848</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="12">
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="D53" s="12">
+        <v>44855</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
         <v>44848</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
-        <v>44842</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="12">
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="D54" s="12">
+        <v>44848</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>44842</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
-        <v>44834</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="12">
-        <v>44829</v>
+        <v>44835</v>
       </c>
       <c r="D55" s="12">
+        <v>44842</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>44834</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
-        <v>44829</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="12">
-        <v>44823</v>
+        <v>44829</v>
       </c>
       <c r="D56" s="12">
+        <v>44834</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
         <v>44829</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
-        <v>44822</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="12">
-        <v>44815</v>
+        <v>44823</v>
       </c>
       <c r="D57" s="12">
+        <v>44829</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
         <v>44822</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
-        <v>44813</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="12">
-        <v>44807</v>
+        <v>44815</v>
       </c>
       <c r="D58" s="12">
+        <v>44822</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
         <v>44813</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
-        <v>44808</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="12">
+        <v>44807</v>
+      </c>
+      <c r="D59" s="12">
+        <v>44813</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>44808</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="12">
         <v>44800</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>44808</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E60" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B60:B1048576 B4:B49 B1">
-    <cfRule type="cellIs" dxfId="111" priority="66" operator="equal">
+  <conditionalFormatting sqref="B61:B1048576 B5:B50 B1">
+    <cfRule type="cellIs" dxfId="127" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="75" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4842,17 +5127,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="123" priority="66" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="67" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="68" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="69" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="107" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -4866,17 +5175,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="103" priority="56" operator="equal">
+  <conditionalFormatting sqref="B51">
+    <cfRule type="cellIs" dxfId="115" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -4890,17 +5199,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="99" priority="51" operator="equal">
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="111" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -4914,17 +5223,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="95" priority="46" operator="equal">
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="107" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -4938,17 +5247,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
+  <conditionalFormatting sqref="B54">
+    <cfRule type="cellIs" dxfId="103" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -4962,17 +5271,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="87" priority="36" operator="equal">
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="99" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -4986,17 +5295,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="83" priority="31" operator="equal">
+  <conditionalFormatting sqref="B56">
+    <cfRule type="cellIs" dxfId="95" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -5010,17 +5319,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="79" priority="26" operator="equal">
+  <conditionalFormatting sqref="B57">
+    <cfRule type="cellIs" dxfId="91" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -5034,20 +5343,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
+  <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="87" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5058,17 +5367,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
+  <conditionalFormatting sqref="B59">
+    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -5082,17 +5391,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5106,17 +5415,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -5134,7 +5443,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D59 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D60 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5143,13 +5452,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5171,10 +5480,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>133</v>
@@ -5200,24 +5509,22 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45199</v>
+        <v>45205</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>302</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -5237,24 +5544,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45198</v>
+        <v>45204</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5274,21 +5581,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45197</v>
+        <v>45203</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -5311,21 +5618,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45196</v>
+        <v>45199</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -5348,24 +5655,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45195</v>
+        <v>45198</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5385,21 +5692,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -5422,21 +5729,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45193</v>
+        <v>45196</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -5459,24 +5766,24 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45192</v>
+        <v>45195</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5498,19 +5805,19 @@
     </row>
     <row r="10" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -5533,21 +5840,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45190</v>
+        <v>45193</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -5572,22 +5879,22 @@
     </row>
     <row r="12" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45189</v>
+        <v>45192</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5609,19 +5916,19 @@
     </row>
     <row r="13" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45188</v>
+        <v>45191</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -5646,19 +5953,19 @@
     </row>
     <row r="14" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45187</v>
+        <v>45190</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -5681,21 +5988,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45186</v>
+        <v>45189</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -5718,21 +6025,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45185</v>
+        <v>45188</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -5755,21 +6062,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -5792,21 +6099,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45183</v>
+        <v>45186</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -5831,19 +6138,19 @@
     </row>
     <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B19" s="11" t="s">
+        <v>45185</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -5868,19 +6175,19 @@
     </row>
     <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -5905,22 +6212,22 @@
     </row>
     <row r="21" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45180</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
+        <v>45183</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5941,23 +6248,23 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
-        <v>45179</v>
+      <c r="A22" s="28">
+        <v>45182</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5979,22 +6286,22 @@
     </row>
     <row r="23" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45178</v>
+        <v>45181</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6016,22 +6323,22 @@
     </row>
     <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45176</v>
+        <v>45180</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>135</v>
+        <v>145</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -6052,23 +6359,23 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
-        <v>45175</v>
+      <c r="A25" s="29">
+        <v>45179</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>235</v>
+        <v>13</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -6090,21 +6397,23 @@
     </row>
     <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45174</v>
+        <v>45178</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>150</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6125,7 +6434,7 @@
     </row>
     <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45173</v>
+        <v>45176</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>9</v>
@@ -6134,12 +6443,14 @@
         <v>151</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -6160,7 +6471,7 @@
     </row>
     <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45170</v>
+        <v>45175</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>9</v>
@@ -6169,12 +6480,14 @@
         <v>151</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -6195,19 +6508,19 @@
     </row>
     <row r="29" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45169</v>
+        <v>45174</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="1"/>
@@ -6229,20 +6542,20 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
-        <v>45168</v>
+      <c r="A30" s="28">
+        <v>45173</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="1"/>
@@ -6263,21 +6576,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A31" s="29">
-        <v>44998</v>
+    <row r="31" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>45170</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="1"/>
@@ -6298,21 +6611,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A32" s="29">
-        <v>44997</v>
+    <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28">
+        <v>45169</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>169</v>
+      <c r="C32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="1"/>
@@ -6333,20 +6646,22 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
-        <v>44995</v>
+        <v>45168</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -6368,19 +6683,19 @@
     </row>
     <row r="34" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
@@ -6403,19 +6718,19 @@
     </row>
     <row r="35" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
-        <v>44993</v>
+        <v>44997</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="1"/>
@@ -6436,22 +6751,20 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E36" s="13"/>
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6471,21 +6784,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
@@ -6506,21 +6819,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
@@ -6543,19 +6856,19 @@
     </row>
     <row r="39" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
-        <v>44989</v>
+        <v>44992</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
@@ -6578,19 +6891,19 @@
     </row>
     <row r="40" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
@@ -6611,21 +6924,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>191</v>
+        <v>181</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
@@ -6646,21 +6959,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
-        <v>44986</v>
+        <v>44989</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
@@ -6681,9 +6994,186 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
+    <row r="43" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="29">
+        <v>44988</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A45" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B16:B1048576 B1">
+  <conditionalFormatting sqref="B19:B1048576 B1">
+    <cfRule type="cellIs" dxfId="71" priority="96" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="97" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="98" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="99" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="67" priority="91" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="92" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="93" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="94" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="63" priority="86" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="87" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="88" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="89" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6707,7 +7197,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B15">
     <cfRule type="cellIs" dxfId="55" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6731,7 +7221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B14">
     <cfRule type="cellIs" dxfId="51" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -6780,40 +7270,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="43" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="57" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6827,17 +7293,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -6851,17 +7317,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6875,17 +7341,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6899,6 +7365,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B7">
     <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"部分完成"</formula>
@@ -7044,7 +7534,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B42" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B45" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7084,7 +7574,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>195</v>
@@ -7136,7 +7626,7 @@
         <v>202</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>203</v>
@@ -7196,7 +7686,7 @@
         <v>210</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>211</v>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94F870-CD27-4EBF-AE9C-C0843B8B662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A3DC6A-4EDA-4A2A-8FDF-94AAF3DE5F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="319">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1654,28 +1654,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。16:00-&gt;18:30。2小时。
-2.完成。19:30-&gt;21:50。2题。
-3.未完成。21:50-&gt;23:50。8-2小时
-4.完成。起床:7点，
-5.未完成。75.5，中饭正常，晚饭正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leetcode：1251. 平均售价。白天想学习了。但是花在宠物上的精力过多。买柴犬的决定还是太冲动了，至少花了3天的时间在上面。还好晚上把接下来10天的计划做好了。接下来必须收心了。继续朝着目标前进。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.英语, 托福听力2小时
 2.leetcode，2题(1题算法)
-3.技术, SpringMVC4小时
+3.技术, SpringBoot4小时
 4.7点起床做计划，23点日报
-5.体重减到75.2kg (非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前听托福听力还是很费劲，得持续积累培养听感。
+5.体重减到74.8kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态持续恢复中，目前听托福听力还是很费劲，得持续积累培养听感。
 1. 做了2道leetcode题：1633. 各赛事的用户注册率，238. 除自身以外数组的乘积。2. SpringBoot源码-看了5个视频，整理面试题。SpringBoot发展历史，@Configuration，@ComponentScan，@Import注解使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode:1211. 查询结果的质量和占比，134. 加油站
+英语:目前对口语发音的认知大部分是不对的，但听得过程中还老是想老外为什么要这么发音，有些句子听了几十遍都听不明白，导致心浮气躁，差点学不下去了。必须要用正确的认知更新自己的预期。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1683,7 +1680,23 @@
 2.完成。19:30-&gt;21:50。2题。2小时。
 3.未完成。21:50-&gt;00:30。2小时
 4.未完成。起床:7点，睡觉时间超时
-5.未完成。75.5，中饭正常，晚饭正常</t>
+5.完成。74.9，中饭正常，晚饭代餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。14:30-&gt;17:00。2小时。
+2.完成。17:00-&gt;19:00。2题。2小时。
+3.完成。19:20-&gt;01:00。4小时
+4.完成。23:30-&gt;23:55。
+5.未完成。74.9，中饭正常，晚饭零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力3小时
+2.leetcode，2题(1题算法)
+3.技术, SpringBoot5小时
+4.7点起床做计划，23点日报
+5.体重减到74.6kg (非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1951,7 +1964,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3615,7 +3670,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5104,16 +5159,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B61:B1048576 B5:B50 B1">
-    <cfRule type="cellIs" dxfId="127" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="75" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -5128,16 +5183,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="123" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -5152,16 +5207,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="119" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -5176,16 +5231,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="115" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -5200,16 +5255,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="111" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -5224,16 +5279,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="107" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -5248,16 +5303,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="103" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -5272,16 +5327,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="99" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -5296,16 +5351,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="95" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -5320,16 +5375,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="91" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -5344,16 +5399,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="87" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5368,16 +5423,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -5392,16 +5447,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5416,16 +5471,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -5452,13 +5507,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5511,16 +5566,16 @@
     </row>
     <row r="2" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
@@ -5546,16 +5601,16 @@
     </row>
     <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>315</v>
@@ -5581,21 +5636,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -5618,21 +5673,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -5655,24 +5710,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5692,24 +5747,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5731,19 +5786,19 @@
     </row>
     <row r="8" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -5768,19 +5823,19 @@
     </row>
     <row r="9" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -5803,21 +5858,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -5840,21 +5895,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -5877,24 +5932,24 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5916,22 +5971,22 @@
     </row>
     <row r="13" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5953,19 +6008,19 @@
     </row>
     <row r="14" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -5990,19 +6045,19 @@
     </row>
     <row r="15" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -6027,19 +6082,19 @@
     </row>
     <row r="16" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -6064,19 +6119,19 @@
     </row>
     <row r="17" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -6099,21 +6154,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -6136,21 +6191,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -6175,19 +6230,19 @@
     </row>
     <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -6212,19 +6267,19 @@
     </row>
     <row r="21" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -6249,19 +6304,19 @@
     </row>
     <row r="22" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B22" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -6286,7 +6341,7 @@
     </row>
     <row r="23" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
@@ -6298,7 +6353,7 @@
         <v>141</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -6323,22 +6378,22 @@
     </row>
     <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -6359,22 +6414,22 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
-        <v>45179</v>
+      <c r="A25" s="28">
+        <v>45180</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G25" s="1"/>
@@ -6396,22 +6451,22 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
-        <v>45178</v>
+      <c r="A26" s="29">
+        <v>45179</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G26" s="1"/>
@@ -6434,22 +6489,22 @@
     </row>
     <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -6471,7 +6526,7 @@
     </row>
     <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>9</v>
@@ -6483,7 +6538,7 @@
         <v>141</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>135</v>
@@ -6508,21 +6563,23 @@
     </row>
     <row r="29" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6543,19 +6600,19 @@
     </row>
     <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="1"/>
@@ -6578,7 +6635,7 @@
     </row>
     <row r="31" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>9</v>
@@ -6587,10 +6644,10 @@
         <v>151</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="1"/>
@@ -6613,7 +6670,7 @@
     </row>
     <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>9</v>
@@ -6622,10 +6679,10 @@
         <v>151</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="1"/>
@@ -6647,20 +6704,20 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29">
-        <v>45168</v>
+      <c r="A33" s="28">
+        <v>45169</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="1"/>
@@ -6681,21 +6738,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
@@ -6718,19 +6775,19 @@
     </row>
     <row r="35" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="1"/>
@@ -6753,18 +6810,20 @@
     </row>
     <row r="36" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6786,20 +6845,18 @@
     </row>
     <row r="37" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E37" s="13"/>
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -6821,19 +6878,19 @@
     </row>
     <row r="38" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
@@ -6854,21 +6911,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
@@ -6891,19 +6948,19 @@
     </row>
     <row r="40" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
@@ -6924,21 +6981,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
@@ -6959,21 +7016,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
@@ -6996,19 +7053,19 @@
     </row>
     <row r="43" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
@@ -7029,21 +7086,21 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
@@ -7064,21 +7121,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -7099,9 +7156,68 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
+    <row r="46" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A46" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B19:B1048576 B1">
+  <conditionalFormatting sqref="B20:B1048576 B1">
+    <cfRule type="cellIs" dxfId="75" priority="101" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="102" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="103" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="104" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="cellIs" dxfId="71" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7125,7 +7241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B19">
     <cfRule type="cellIs" dxfId="67" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7149,7 +7265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="63" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7246,19 +7362,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="47" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7294,19 +7410,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7534,7 +7650,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B45" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B46" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A3DC6A-4EDA-4A2A-8FDF-94AAF3DE5F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC2F54D-5768-46F8-A6C5-52FEBCDE5DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="321">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1692,11 +1692,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.英语, 托福听力3小时
+    <t>1.英语, 托福听力2小时
 2.leetcode，2题(1题算法)
 3.技术, SpringBoot5小时
 4.7点起床做计划，23点日报
 5.体重减到74.6kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天花了太多时间在购买宠物用品上了，计划很多没完成。
+英语：今天开始尝试听写，感觉效果比之前纯听好很多。当把听到的单词一个个写出来之后，就知道哪些是自己能听得出来的哪些是听不出来的。听不出来的原因也挨个找到了。leetcode：13. 罗马数字转整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。15:20-&gt;19:30。1小时。
+2.完成。22:00-&gt;23:53。2题。1小时。
+3.未完成。00:20-&gt;01:00。1小时
+4.完成。23:50-&gt;23:59。
+5.未完成。74.9，中饭正常，晚饭零食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5513,7 +5526,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5569,15 +5582,17 @@
         <v>45206</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>318</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>320</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>319</v>
+      </c>
       <c r="F2" s="10" t="s">
         <v>134</v>
       </c>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC2F54D-5768-46F8-A6C5-52FEBCDE5DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0DA44-878F-4361-856B-F6A973F994B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="328">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1623,17 +1623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。实际：0天
-2.完成。实际：Spring，0题
-3.完成。实际：
-4.完成。实际：周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆假期中间本来想边玩边学习的，但是没做到。主要原因还是因为假期一开始没有明确的目标，每天早上也没坚持做计划。一时控就是5天没了。还有就是花在宠物上的精力过多。不过好在10月4日晚上制定了计划，状态重新回来了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.21:30学习计划。日报。
 2.学习至少2小时。
 3.体重减到75.5kg(非必须)</t>
@@ -1709,7 +1698,66 @@
 2.完成。22:00-&gt;23:53。2题。1小时。
 3.未完成。00:20-&gt;01:00。1小时
 4.完成。23:50-&gt;23:59。
-5.未完成。74.9，中饭正常，晚饭零食</t>
+5.完成。74.5，中饭正常，晚饭零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力3小时
+2.leetcode，2题(1题算法)
+3.技术, SpringBoot5小时
+4.7点起床做计划，23点日报
+5.体重减到74.4kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。10:20-&gt;22:00。4小时。
+2.完成。22:00-&gt;23:00。2题。1小时。
+3.未完成。00:00-&gt;00:00。1小时
+4.完成。23:50-&gt;23:59。
+5.未完成。75.8，中饭正常，晚饭肯德基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力3小时
+2.leetcode，2题(1题算法)
+3.技术, SpringBoot7小时
+4.7点起床做计划，23点日报
+5.体重减到75.0kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天在宠物上花的时间比昨天少了，但依然占用了很多学习时间。个别句子听了几十遍都没听清也严重影响了状态。还好后面及时调整了回来，早睡早起还是很重要的，昨天睡得太晚，今天脑子一直不是很清醒。还有重装系统也至少浪费了1小时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆假期中间本来想边玩边学习的，但是没做到。主要原因还是因为假期一开始没有明确的目标，每天早上也没坚持做计划。一失控就是5天没了。还有就是花在宠物上的精力过多。不过好在10月4日晚上制定了计划，状态逐渐恢复了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。10:10-&gt;15:00。3小时。
+2.完成。15:00-&gt;16:00。2题。1小时。
+3.未完成。15:40-&gt;01:00。7小时
+4.完成。23:50-&gt;23:59。
+5.未完成。，中饭正常，晚饭肯德基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：5天
+2.完成。实际：Spring，10题
+3.完成。实际：
+4.完成。实际：周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：先听懂整句话的大体意思，再逐个了解单词，不要因为个别单词没听出来，导致后面的句子都没听。做了2道leetcode题：2356. 每位教师所教授的科目种类的数量，14. 最长公共前缀。1. 根据之前学习的视频内容，整理了笔记，SpringBoot自动装配实现原理。2. SpringBoot源码，看了第12~15个视频。今天状态比昨天好了很多，但是还是有很多时间是浪费的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。10:10-&gt;15:00。3小时。
+2.完成。15:00-&gt;16:00。2题。1小时。
+3.未完成。15:40-&gt;23:40。6小时
+4.完成。23:00-&gt;23:30。
+5.未完成。，中晚饭代餐，零食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1977,7 +2025,133 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="144">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3683,7 +3857,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3738,10 +3912,10 @@
         <v>306</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
@@ -5172,16 +5346,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B61:B1048576 B5:B50 B1">
-    <cfRule type="cellIs" dxfId="131" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="75" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -5196,16 +5370,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="127" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -5220,16 +5394,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="123" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -5244,16 +5418,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="119" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -5268,16 +5442,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="115" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -5292,16 +5466,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="111" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -5316,16 +5490,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="107" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -5340,16 +5514,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="103" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -5364,16 +5538,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="99" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -5388,16 +5562,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="95" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -5412,16 +5586,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="91" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5436,16 +5610,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -5460,16 +5634,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5484,16 +5658,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -5520,13 +5694,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5579,22 +5753,20 @@
     </row>
     <row r="2" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45206</v>
+        <v>45209</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
+        <v>304</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>319</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -5614,21 +5786,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>315</v>
+        <v>327</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>326</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -5653,22 +5825,22 @@
     </row>
     <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -5688,24 +5860,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45203</v>
+        <v>45206</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5725,21 +5897,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45199</v>
+        <v>45205</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -5762,24 +5934,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45198</v>
+        <v>45204</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5799,21 +5971,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45197</v>
+        <v>45203</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -5836,21 +6008,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45196</v>
+        <v>45199</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -5873,24 +6045,24 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45195</v>
+        <v>45198</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -5910,21 +6082,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -5947,21 +6119,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45193</v>
+        <v>45196</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -5984,24 +6156,24 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45192</v>
+        <v>45195</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6023,19 +6195,19 @@
     </row>
     <row r="14" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -6058,21 +6230,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45190</v>
+        <v>45193</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -6097,22 +6269,22 @@
     </row>
     <row r="16" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45189</v>
+        <v>45192</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6134,19 +6306,19 @@
     </row>
     <row r="17" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45188</v>
+        <v>45191</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -6171,19 +6343,19 @@
     </row>
     <row r="18" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45187</v>
+        <v>45190</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -6206,21 +6378,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45186</v>
+        <v>45189</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -6243,21 +6415,21 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45185</v>
+        <v>45188</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -6280,21 +6452,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -6317,21 +6489,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45183</v>
+        <v>45186</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -6356,19 +6528,19 @@
     </row>
     <row r="23" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B23" s="11" t="s">
+        <v>45185</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -6393,19 +6565,19 @@
     </row>
     <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -6430,22 +6602,22 @@
     </row>
     <row r="25" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45180</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>13</v>
+        <v>45183</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -6466,23 +6638,23 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
-        <v>45179</v>
+      <c r="A26" s="28">
+        <v>45182</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -6504,22 +6676,22 @@
     </row>
     <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45178</v>
+        <v>45181</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -6541,22 +6713,22 @@
     </row>
     <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45176</v>
+        <v>45180</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>135</v>
+        <v>145</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -6577,23 +6749,23 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
-        <v>45175</v>
+      <c r="A29" s="29">
+        <v>45179</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>234</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -6615,21 +6787,23 @@
     </row>
     <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45174</v>
+        <v>45178</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="14"/>
+        <v>150</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -6650,7 +6824,7 @@
     </row>
     <row r="31" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45173</v>
+        <v>45176</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>9</v>
@@ -6659,12 +6833,14 @@
         <v>151</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -6685,7 +6861,7 @@
     </row>
     <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45170</v>
+        <v>45175</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>9</v>
@@ -6694,12 +6870,14 @@
         <v>151</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -6720,19 +6898,19 @@
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45169</v>
+        <v>45174</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="1"/>
@@ -6754,20 +6932,20 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29">
-        <v>45168</v>
+      <c r="A34" s="28">
+        <v>45173</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
@@ -6788,21 +6966,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
-        <v>44998</v>
+    <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28">
+        <v>45170</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="1"/>
@@ -6823,21 +7001,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A36" s="29">
-        <v>44997</v>
+    <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28">
+        <v>45169</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>169</v>
+      <c r="C36" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
@@ -6858,20 +7036,22 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
-        <v>44995</v>
+        <v>45168</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -6893,19 +7073,19 @@
     </row>
     <row r="38" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
@@ -6928,19 +7108,19 @@
     </row>
     <row r="39" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
-        <v>44993</v>
+        <v>44997</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
@@ -6961,22 +7141,20 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E40" s="13"/>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -6996,21 +7174,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
@@ -7031,21 +7209,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
@@ -7068,19 +7246,19 @@
     </row>
     <row r="43" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
-        <v>44989</v>
+        <v>44992</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
@@ -7103,19 +7281,19 @@
     </row>
     <row r="44" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
@@ -7136,21 +7314,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>191</v>
+        <v>181</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -7171,21 +7349,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
-        <v>44986</v>
+        <v>44989</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -7206,9 +7384,186 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
+    <row r="47" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="29">
+        <v>44988</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A49" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B20:B1048576 B1">
+  <conditionalFormatting sqref="B23:B1048576 B1">
+    <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="117" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="118" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="119" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="83" priority="111" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="112" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="113" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="114" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="79" priority="106" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="107" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="108" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="109" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="cellIs" dxfId="75" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7232,7 +7587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B19">
     <cfRule type="cellIs" dxfId="71" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7256,7 +7611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B18">
     <cfRule type="cellIs" dxfId="67" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7305,40 +7660,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="55" priority="76" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="77" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="78" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -7352,17 +7683,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="51" priority="71" operator="equal">
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="55" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -7376,17 +7707,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -7400,17 +7731,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -7424,6 +7755,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B11">
     <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>"部分完成"</formula>
@@ -7665,7 +8020,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B46" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B49" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0DA44-878F-4361-856B-F6A973F994B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239DAB0-1ADE-4886-BE5F-19BDAD9F90A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="330">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1718,34 +1718,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.英语, 托福听力3小时
-2.leetcode，2题(1题算法)
-3.技术, SpringBoot7小时
-4.7点起床做计划，23点日报
-5.体重减到75.0kg (非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今天在宠物上花的时间比昨天少了，但依然占用了很多学习时间。个别句子听了几十遍都没听清也严重影响了状态。还好后面及时调整了回来，早睡早起还是很重要的，昨天睡得太晚，今天脑子一直不是很清醒。还有重装系统也至少浪费了1小时。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国庆假期中间本来想边玩边学习的，但是没做到。主要原因还是因为假期一开始没有明确的目标，每天早上也没坚持做计划。一失控就是5天没了。还有就是花在宠物上的精力过多。不过好在10月4日晚上制定了计划，状态逐渐恢复了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。10:10-&gt;15:00。3小时。
-2.完成。15:00-&gt;16:00。2题。1小时。
-3.未完成。15:40-&gt;01:00。7小时
-4.完成。23:50-&gt;23:59。
-5.未完成。，中饭正常，晚饭肯德基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。实际：5天
-2.完成。实际：Spring，10题
-3.完成。实际：
-4.完成。实际：周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1757,7 +1734,43 @@
 2.完成。15:00-&gt;16:00。2题。1小时。
 3.未完成。15:40-&gt;23:40。6小时
 4.完成。23:00-&gt;23:30。
-5.未完成。，中晚饭代餐，零食</t>
+5.完成。74.8，中晚饭代餐，零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力3小时
+2.leetcode，2题(1题算法)
+3.技术, SpringBoot:7小时
+4.7点起床做计划，23点日报
+5.体重减到75.0kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：5天
+2.完成。实际：Spring，10题
+3.完成。实际：12小时
+4.完成。实际：周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力2小时
+2.leetcode，2题(1题算法)
+3.技术, SpringBoot7小时
+4.7点起床做计划，23点日报
+5.体重减到74.6kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode:550. 游戏玩法分析 IV;28. 找出字符串中第一个匹配项的下标,
+Spring：1. SpringBoot源码，看了第15~16个视频。整理了笔记：为什么debug没有进入selectImports方法；2. 下载了课程附件中的源码，并在本地载入。下午花了一个小时更新简历，因为有心仪的机会。但在没准备好的情况下去面试也是浪费机会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。10:30-&gt;14:30。2小时。
+2.完成。14:30-&gt;15:00。2题。
+3.未完成。17:00-&gt;01:20。6小时(8-2)
+4.延期完成。01:00-&gt;01:10。
+5.未完成。，中饭正常，晚饭代餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3912,10 +3925,10 @@
         <v>306</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
@@ -5700,7 +5713,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5759,12 +5772,14 @@
         <v>304</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>329</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="F2" s="10" t="s">
         <v>135</v>
       </c>
@@ -5794,13 +5809,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -5837,7 +5852,7 @@
         <v>320</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239DAB0-1ADE-4886-BE5F-19BDAD9F90A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C04CE7-6611-4BAB-ACD5-87BF95978ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="333">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1746,13 +1746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。实际：5天
-2.完成。实际：Spring，10题
-3.完成。实际：12小时
-4.完成。实际：周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.英语, 托福听力2小时
 2.leetcode，2题(1题算法)
 3.技术, SpringBoot7小时
@@ -1762,15 +1755,45 @@
   </si>
   <si>
     <t>leetcode:550. 游戏玩法分析 IV;28. 找出字符串中第一个匹配项的下标,
-Spring：1. SpringBoot源码，看了第15~16个视频。整理了笔记：为什么debug没有进入selectImports方法；2. 下载了课程附件中的源码，并在本地载入。下午花了一个小时更新简历，因为有心仪的机会。但在没准备好的情况下去面试也是浪费机会。</t>
+Spring：1. SpringBoot源码，看了第15~16个视频。整理了笔记：为什么debug没有进入selectImports方法；2. 下载了课程附件中的源码，并在本地载入。下午花了2小时更新简历，因为有心仪的机会。但在没准备好的情况下去面试也是浪费机会。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.完成。10:30-&gt;14:30。2小时。
 2.完成。14:30-&gt;15:00。2题。
 3.未完成。17:00-&gt;01:20。6小时(8-2)
-4.延期完成。01:00-&gt;01:10。
-5.未完成。，中饭正常，晚饭代餐</t>
+4.延期完成。01:00-&gt;01:30。
+5.未完成。75.5，中饭正常，晚饭代餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力2小时
+2.leetcode，1题
+3.技术, SpringBoot6小时
+4.7点起床做计划，23点日报
+5.体重减到75.3kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：5天
+2.完成。实际：Spring，10题
+3.完成。实际：17小时
+4.完成。实际：周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。10:00-&gt;14:30。3小时。
+2.完成。14:45-&gt;15:40。1题。
+3.完成。17:30-&gt;23:30。6小时-1.2
+4.完成。23:20-&gt;23:30。
+5.未完成。，中饭代餐，晚饭正常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：听感提升，部分句子不用看答案，听个5遍就能知道意思
+leetcode：125. 验证回文串。正则表达式虽然使用简单，但性能偏低。
+Spring：看了视频17~21，学习到了run方法的主体流程。
+做事情要学会专注，遇到突发事件可以排优先级，将当前任务完成在做其他事情。明天仍有提升空间。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2038,7 +2061,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="148">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3870,7 +3935,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3925,7 +3990,7 @@
         <v>306</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>322</v>
@@ -5359,16 +5424,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B61:B1048576 B5:B50 B1">
-    <cfRule type="cellIs" dxfId="143" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="75" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -5383,16 +5448,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="139" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -5407,16 +5472,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="135" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -5431,16 +5496,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="131" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -5455,16 +5520,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="127" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -5479,16 +5544,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="123" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -5503,16 +5568,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="119" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -5527,16 +5592,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="115" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -5551,16 +5616,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="111" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -5575,16 +5640,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="107" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -5599,16 +5664,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="103" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5623,16 +5688,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="99" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -5647,16 +5712,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5671,16 +5736,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -5707,13 +5772,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5766,19 +5831,19 @@
     </row>
     <row r="2" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>135</v>
@@ -5801,21 +5866,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -5838,24 +5903,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>323</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -5877,19 +5942,19 @@
     </row>
     <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -5914,22 +5979,22 @@
     </row>
     <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5951,19 +6016,19 @@
     </row>
     <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -5986,21 +6051,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -6023,21 +6088,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -6060,24 +6125,24 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -6097,24 +6162,24 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6136,19 +6201,19 @@
     </row>
     <row r="12" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -6173,19 +6238,19 @@
     </row>
     <row r="13" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -6208,21 +6273,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -6245,21 +6310,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -6282,24 +6347,24 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6321,22 +6386,22 @@
     </row>
     <row r="17" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -6358,19 +6423,19 @@
     </row>
     <row r="18" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -6395,19 +6460,19 @@
     </row>
     <row r="19" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -6432,19 +6497,19 @@
     </row>
     <row r="20" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -6469,19 +6534,19 @@
     </row>
     <row r="21" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -6504,21 +6569,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -6541,21 +6606,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -6580,19 +6645,19 @@
     </row>
     <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -6617,19 +6682,19 @@
     </row>
     <row r="25" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>135</v>
@@ -6654,19 +6719,19 @@
     </row>
     <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B26" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -6691,7 +6756,7 @@
     </row>
     <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>9</v>
@@ -6703,7 +6768,7 @@
         <v>141</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -6728,22 +6793,22 @@
     </row>
     <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -6764,22 +6829,22 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
-        <v>45179</v>
+      <c r="A29" s="28">
+        <v>45180</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G29" s="1"/>
@@ -6801,22 +6866,22 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
-        <v>45178</v>
+      <c r="A30" s="29">
+        <v>45179</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G30" s="1"/>
@@ -6839,22 +6904,22 @@
     </row>
     <row r="31" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -6876,7 +6941,7 @@
     </row>
     <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>9</v>
@@ -6888,7 +6953,7 @@
         <v>141</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>135</v>
@@ -6913,21 +6978,23 @@
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -6948,19 +7015,19 @@
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
@@ -6983,7 +7050,7 @@
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>9</v>
@@ -6992,10 +7059,10 @@
         <v>151</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="1"/>
@@ -7018,7 +7085,7 @@
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>9</v>
@@ -7027,10 +7094,10 @@
         <v>151</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
@@ -7052,20 +7119,20 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29">
-        <v>45168</v>
+      <c r="A37" s="28">
+        <v>45169</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
@@ -7086,21 +7153,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
@@ -7123,19 +7190,19 @@
     </row>
     <row r="39" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
@@ -7158,18 +7225,20 @@
     </row>
     <row r="40" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -7191,20 +7260,18 @@
     </row>
     <row r="41" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E41" s="13"/>
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -7226,19 +7293,19 @@
     </row>
     <row r="42" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
@@ -7259,21 +7326,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
@@ -7296,19 +7363,19 @@
     </row>
     <row r="44" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
@@ -7329,21 +7396,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -7364,21 +7431,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -7401,19 +7468,19 @@
     </row>
     <row r="47" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
@@ -7434,21 +7501,21 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -7469,21 +7536,21 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
@@ -7504,9 +7571,68 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
+    <row r="50" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A50" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B23:B1048576 B1">
+  <conditionalFormatting sqref="B24:B1048576 B1">
+    <cfRule type="cellIs" dxfId="91" priority="121" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="122" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="123" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="124" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7530,7 +7656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="B23">
     <cfRule type="cellIs" dxfId="83" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7554,7 +7680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="B21">
     <cfRule type="cellIs" dxfId="79" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7651,19 +7777,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="63" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7699,19 +7825,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="55" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8035,7 +8161,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B49" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C04CE7-6611-4BAB-ACD5-87BF95978ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2747154-36C2-4CD6-9714-CA4B13BA3941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="338">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1775,25 +1775,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。实际：5天
-2.完成。实际：Spring，10题
-3.完成。实际：17小时
+    <t>英语：听感提升，部分句子不用看答案，听个5遍就能知道意思
+leetcode：125. 验证回文串。正则表达式虽然使用简单，但性能偏低。
+Spring：看了视频17~20，学习到了run方法的主体流程和监听的设计
+做事情要学会专注，遇到突发事件可以排优先级，将当前任务完成在做其他事情。明天仍有提升空间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：7天
+2.完成。实际：Spring，11题
+3.完成。实际：21小时
 4.完成。实际：周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。10:00-&gt;14:00。2小时。
+3.完成。14:00-&gt;01:00。8小时(-3)
+4.完成。23:20-&gt;23:30。
+5.未完成。，中饭正常，晚饭代餐。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.完成。10:00-&gt;14:30。3小时。
 2.完成。14:45-&gt;15:40。1题。
-3.完成。17:30-&gt;23:30。6小时-1.2
+3.完成。17:30-&gt;01:20。6小时-1.2
 4.完成。23:20-&gt;23:30。
-5.未完成。，中饭代餐，晚饭正常。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语：听感提升，部分句子不用看答案，听个5遍就能知道意思
-leetcode：125. 验证回文串。正则表达式虽然使用简单，但性能偏低。
-Spring：看了视频17~21，学习到了run方法的主体流程。
-做事情要学会专注，遇到突发事件可以排优先级，将当前任务完成在做其他事情。明天仍有提升空间。</t>
+5.完成。75.1，中饭代餐，晚饭正常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.英语, 托福听力2小时
+2.leetcode，1题 (非必须)
+3.技术, SpringBoot6小时
+4.7点起床做计划，23点日报
+5.体重减到75.2kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语:扇贝听力-托福中级，2篇。听感继续提升。
+Spring：源码环境折腾了5个小时，一直在尝试maven install，后来发现只要idea编译通过就可以了。还可以在当前项目下附加源码。SpringBoot视频学习了21~29，学习了Spring加载配置文件的机制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报
+2.技术, SpringBoot视频看完
+3.英语, 托福听力1小时
+4.leetcode，1题 (非必须)
+5.体重减到75.1kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。10:00-&gt;14:00。2小时。
+3.完成。14:00-&gt;01:00。8小时(-3)
+4.完成。7:30:计划，23:50:日报。
+5.未完成。，中饭正常，晚饭代餐。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2061,7 +2096,91 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="156">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3990,7 +4109,7 @@
         <v>306</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>322</v>
@@ -5424,16 +5543,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B61:B1048576 B5:B50 B1">
-    <cfRule type="cellIs" dxfId="147" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="75" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -5448,16 +5567,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="143" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -5472,16 +5591,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="139" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -5496,16 +5615,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="135" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -5520,16 +5639,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="131" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -5544,16 +5663,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="127" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -5568,16 +5687,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="123" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -5592,16 +5711,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="119" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -5616,16 +5735,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="115" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -5640,16 +5759,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="111" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -5664,16 +5783,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5688,16 +5807,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="103" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -5712,16 +5831,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="99" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5736,16 +5855,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -5772,13 +5891,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5831,22 +5950,22 @@
     </row>
     <row r="2" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45210</v>
+        <v>45212</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -5868,19 +5987,19 @@
     </row>
     <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -5903,21 +6022,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>323</v>
+        <v>333</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -5942,22 +6061,22 @@
     </row>
     <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45207</v>
+        <v>45209</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5977,24 +6096,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>317</v>
+        <v>324</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>323</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6016,22 +6135,22 @@
     </row>
     <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45205</v>
+        <v>45207</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6053,22 +6172,22 @@
     </row>
     <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45204</v>
+        <v>45206</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6088,21 +6207,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -6125,21 +6244,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45199</v>
+        <v>45204</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -6164,22 +6283,22 @@
     </row>
     <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45198</v>
+        <v>45203</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6199,21 +6318,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -6236,24 +6355,24 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6275,19 +6394,19 @@
     </row>
     <row r="14" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -6310,21 +6429,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -6347,21 +6466,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45193</v>
+        <v>45195</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -6386,22 +6505,22 @@
     </row>
     <row r="17" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45192</v>
+        <v>45194</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -6421,21 +6540,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45191</v>
+        <v>45193</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -6460,22 +6579,22 @@
     </row>
     <row r="19" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -6497,19 +6616,19 @@
     </row>
     <row r="20" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -6534,19 +6653,19 @@
     </row>
     <row r="21" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -6571,19 +6690,19 @@
     </row>
     <row r="22" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -6606,21 +6725,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -6643,21 +6762,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -6680,21 +6799,21 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>135</v>
@@ -6719,19 +6838,19 @@
     </row>
     <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -6756,19 +6875,19 @@
     </row>
     <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -6793,19 +6912,19 @@
     </row>
     <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B28" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -6830,22 +6949,22 @@
     </row>
     <row r="29" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -6866,23 +6985,23 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
-        <v>45179</v>
+      <c r="A30" s="28">
+        <v>45181</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -6904,19 +7023,19 @@
     </row>
     <row r="31" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -6940,23 +7059,23 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
-        <v>45176</v>
+      <c r="A32" s="29">
+        <v>45179</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -6978,22 +7097,22 @@
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7015,21 +7134,23 @@
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -7050,7 +7171,7 @@
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>9</v>
@@ -7059,12 +7180,14 @@
         <v>151</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -7085,19 +7208,19 @@
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
@@ -7120,7 +7243,7 @@
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>9</v>
@@ -7129,10 +7252,10 @@
         <v>151</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
@@ -7154,20 +7277,20 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29">
-        <v>45168</v>
+      <c r="A38" s="28">
+        <v>45170</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
@@ -7188,21 +7311,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A39" s="29">
-        <v>44998</v>
+    <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28">
+        <v>45169</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
@@ -7223,21 +7346,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
@@ -7260,7 +7383,7 @@
     </row>
     <row r="41" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>13</v>
@@ -7271,7 +7394,9 @@
       <c r="D41" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -7293,19 +7418,19 @@
     </row>
     <row r="42" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
@@ -7328,20 +7453,18 @@
     </row>
     <row r="43" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E43" s="13"/>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7361,21 +7484,21 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
@@ -7396,21 +7519,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -7431,21 +7554,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -7468,19 +7591,19 @@
     </row>
     <row r="47" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
@@ -7501,21 +7624,21 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -7536,21 +7659,21 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
@@ -7571,21 +7694,21 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
@@ -7606,9 +7729,127 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
+    <row r="51" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A52" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B24:B1048576 B1">
+  <conditionalFormatting sqref="B26:B1048576 B1">
+    <cfRule type="cellIs" dxfId="99" priority="131" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="132" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="133" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="134" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="95" priority="126" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="127" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="128" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="129" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
     <cfRule type="cellIs" dxfId="91" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7632,7 +7873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="B23">
     <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7656,7 +7897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="83" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7729,40 +7970,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="71" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="99" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="67" priority="91" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="92" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="93" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -7776,20 +7993,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="67" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7800,17 +8017,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="59" priority="76" operator="equal">
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -7824,6 +8041,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="73" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B15">
     <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
       <formula>"部分完成"</formula>
@@ -8161,7 +8402,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2747154-36C2-4CD6-9714-CA4B13BA3941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C57A56-B92F-44FB-A44A-67D16B893352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="340">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1722,10 +1722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国庆假期中间本来想边玩边学习的，但是没做到。主要原因还是因为假期一开始没有明确的目标，每天早上也没坚持做计划。一失控就是5天没了。还有就是花在宠物上的精力过多。不过好在10月4日晚上制定了计划，状态逐渐恢复了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语：先听懂整句话的大体意思，再逐个了解单词，不要因为个别单词没听出来，导致后面的句子都没听。做了2道leetcode题：2356. 每位教师所教授的科目种类的数量，14. 最长公共前缀。1. 根据之前学习的视频内容，整理了笔记，SpringBoot自动装配实现原理。2. SpringBoot源码，看了第12~15个视频。今天状态比昨天好了很多，但是还是有很多时间是浪费的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1782,20 +1778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。实际：7天
-2.完成。实际：Spring，11题
-3.完成。实际：21小时
-4.完成。实际：周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。10:00-&gt;14:00。2小时。
-3.完成。14:00-&gt;01:00。8小时(-3)
-4.完成。23:20-&gt;23:30。
-5.未完成。，中饭正常，晚饭代餐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。10:00-&gt;14:30。3小时。
 2.完成。14:45-&gt;15:40。1题。
 3.完成。17:30-&gt;01:20。6小时-1.2
@@ -1829,6 +1811,41 @@
 3.完成。14:00-&gt;01:00。8小时(-3)
 4.完成。7:30:计划，23:50:日报。
 5.未完成。，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语:扇贝听力-托福中级，1篇。
+1. SpringBoot源码，看了第30~46个视频。目前视频已经基本看完。
+2. 学习SpringBoot Actuator的使用步骤和应用场景。
+3. 学习SpringBoot Admin在单机和SpringCloud环境下的使用。
+4. 整理SpringBoot面试题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:30计划，23:55日报
+2.完成。13:00~23:55，8小时(-3)
+3.完成。10:00~12:00，1小时
+4.未完成。
+5.未完成。，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报
+2.技术, 结束spring源码学习
+3.英语, 托福听力1小时
+4.leetcode，1题 (非必须)
+5.体重减到75.1kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：8天
+2.完成。实际：Spring，11题
+3.完成。实际：22小时
+4.完成。实际：周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆假期前面几天未做计划，都在玩。从在10月4日晚上开始制定了10天计划，状态逐渐恢复。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2096,7 +2113,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="160">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4050,7 +4109,7 @@
   </sheetPr>
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4109,10 +4168,10 @@
         <v>306</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
@@ -5543,16 +5602,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B61:B1048576 B5:B50 B1">
-    <cfRule type="cellIs" dxfId="155" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="75" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -5567,16 +5626,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="151" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -5591,16 +5650,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="147" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -5615,16 +5674,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="143" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -5639,16 +5698,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="139" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -5663,16 +5722,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="135" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -5687,16 +5746,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="131" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -5711,16 +5770,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="127" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -5735,16 +5794,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="123" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -5759,16 +5818,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="119" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -5783,16 +5842,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="115" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5807,16 +5866,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="111" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -5831,16 +5890,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5855,16 +5914,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -5891,13 +5950,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5950,22 +6009,20 @@
     </row>
     <row r="2" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45212</v>
+        <v>45213</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>335</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -5987,16 +6044,16 @@
     </row>
     <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>335</v>
@@ -6024,19 +6081,19 @@
     </row>
     <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -6061,19 +6118,19 @@
     </row>
     <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -6096,9 +6153,9 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
@@ -6107,10 +6164,10 @@
         <v>325</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>323</v>
+        <v>327</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>326</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -6133,24 +6190,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6172,19 +6229,19 @@
     </row>
     <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -6209,22 +6266,22 @@
     </row>
     <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -6246,19 +6303,19 @@
     </row>
     <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -6281,21 +6338,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -6318,21 +6375,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -6355,24 +6412,24 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6392,24 +6449,24 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6431,19 +6488,19 @@
     </row>
     <row r="15" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -6468,19 +6525,19 @@
     </row>
     <row r="16" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -6503,21 +6560,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -6540,21 +6597,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -6577,24 +6634,24 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -6616,22 +6673,22 @@
     </row>
     <row r="20" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -6653,19 +6710,19 @@
     </row>
     <row r="21" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -6690,19 +6747,19 @@
     </row>
     <row r="22" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -6727,19 +6784,19 @@
     </row>
     <row r="23" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -6764,19 +6821,19 @@
     </row>
     <row r="24" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -6799,21 +6856,21 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>135</v>
@@ -6836,21 +6893,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -6875,19 +6932,19 @@
     </row>
     <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -6912,19 +6969,19 @@
     </row>
     <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -6949,19 +7006,19 @@
     </row>
     <row r="29" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B29" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>135</v>
@@ -6986,7 +7043,7 @@
     </row>
     <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>9</v>
@@ -6998,7 +7055,7 @@
         <v>141</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>135</v>
@@ -7023,22 +7080,22 @@
     </row>
     <row r="31" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7059,22 +7116,22 @@
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29">
-        <v>45179</v>
+      <c r="A32" s="28">
+        <v>45180</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G32" s="1"/>
@@ -7096,22 +7153,22 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
-        <v>45178</v>
+      <c r="A33" s="29">
+        <v>45179</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G33" s="1"/>
@@ -7134,22 +7191,22 @@
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -7171,7 +7228,7 @@
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>9</v>
@@ -7183,7 +7240,7 @@
         <v>141</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>135</v>
@@ -7208,21 +7265,23 @@
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -7243,19 +7302,19 @@
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
@@ -7278,7 +7337,7 @@
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>9</v>
@@ -7287,10 +7346,10 @@
         <v>151</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
@@ -7313,7 +7372,7 @@
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>9</v>
@@ -7322,10 +7381,10 @@
         <v>151</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
@@ -7347,20 +7406,20 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29">
-        <v>45168</v>
+      <c r="A40" s="28">
+        <v>45169</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
@@ -7381,21 +7440,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
@@ -7418,19 +7477,19 @@
     </row>
     <row r="42" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
@@ -7453,18 +7512,20 @@
     </row>
     <row r="43" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7486,20 +7547,18 @@
     </row>
     <row r="44" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E44" s="13"/>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -7521,19 +7580,19 @@
     </row>
     <row r="45" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -7554,21 +7613,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -7591,19 +7650,19 @@
     </row>
     <row r="47" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
@@ -7624,21 +7683,21 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -7659,21 +7718,21 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
@@ -7696,19 +7755,19 @@
     </row>
     <row r="50" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
@@ -7729,21 +7788,21 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -7764,21 +7823,21 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
@@ -7799,9 +7858,68 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
+    <row r="53" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A53" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B26:B1048576 B1">
+  <conditionalFormatting sqref="B27:B1048576 B1">
+    <cfRule type="cellIs" dxfId="103" priority="136" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="137" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="138" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="139" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
     <cfRule type="cellIs" dxfId="99" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7825,7 +7943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B26">
     <cfRule type="cellIs" dxfId="95" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7849,7 +7967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="B24">
     <cfRule type="cellIs" dxfId="91" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -7946,19 +8064,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="75" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="105">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7994,19 +8112,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="67" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8402,7 +8520,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B52" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B53" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C57A56-B92F-44FB-A44A-67D16B893352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A7A3F9-313E-40A9-BA85-72B679927748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="343">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1822,30 +1822,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>国庆假期前面几天未做计划，都在玩。从在10月4日晚上开始制定了10天计划，状态逐渐恢复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.完成。7:30计划，23:55日报
 2.完成。13:00~23:55，8小时(-3)
 3.完成。10:00~12:00，1小时
 4.未完成。
-5.未完成。，中饭正常，晚饭代餐。</t>
+5.未完成。75.2，中饭正常，晚饭代餐。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.7点起床做计划，23点日报
 2.技术, 结束spring源码学习
-3.英语, 托福听力1小时
+3.英语, 托福听力1小时 (非必须)
 4.leetcode，1题 (非必须)
 5.体重减到75.1kg (非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。实际：8天
+    <t>1.延期完成。7:30计划，0:15日报
+2.完成。14:40~00:30，7小时(-3)
+3.未完成。
+4.未完成。
+5.未完成。，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天将所有的Spring面试题整理完毕，包含Spring，SpringMVC，SpringBoot。整理时部分题目显得太深，花的时间太长。整理面试题的重点，一定要用形成自己的理解不能仅仅复制别人的文章，要理清思路，用自己的语言表达出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：9天
 2.完成。实际：Spring，11题
 3.完成。实际：22小时
 4.完成。实际：周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国庆假期前面几天未做计划，都在玩。从在10月4日晚上开始制定了10天计划，状态逐渐恢复。</t>
+    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
+2.技术：结束学习Mybatis相关源码内容，leetcode10题。
+3.英语：扇贝听力-托福相关-15小时
+4.周日23:00前，完成周报，更新重要目标进度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,7 +2132,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
+  <dxfs count="164">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4107,28 +4168,28 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4153,25 +4214,25 @@
     </row>
     <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="7">
-        <v>45204</v>
+        <v>45215</v>
       </c>
       <c r="D2" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
@@ -4193,25 +4254,25 @@
     </row>
     <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="D3" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="1"/>
@@ -4233,27 +4294,27 @@
     </row>
     <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D4" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H4" s="31"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4273,25 +4334,25 @@
     </row>
     <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>45179</v>
+        <v>45187</v>
       </c>
       <c r="D5" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4313,25 +4374,25 @@
     </row>
     <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>45178</v>
+        <v>45186</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>45171</v>
+        <v>45179</v>
       </c>
       <c r="D6" s="7">
-        <v>45177</v>
+        <v>45186</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4353,25 +4414,25 @@
     </row>
     <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
         <v>45171</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45164</v>
-      </c>
       <c r="D7" s="7">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4392,810 +4453,827 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>45163</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12">
-        <v>45157</v>
-      </c>
-      <c r="D8" s="12">
-        <v>45163</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="7">
+        <v>45171</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45164</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45170</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="12">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D9" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <v>45150</v>
+        <v>45156</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="D10" s="12">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="12">
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="D11" s="12">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
+        <v>45143</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12">
         <v>45136</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12">
-        <v>45129</v>
-      </c>
       <c r="D12" s="12">
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="12">
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="D13" s="12">
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
+        <v>45129</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12">
         <v>45122</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12">
-        <v>45115</v>
-      </c>
       <c r="D14" s="12">
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="12">
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="D15" s="12">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <v>45107</v>
+        <v>45115</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="12">
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="D16" s="12">
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
         <v>45101</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12">
-        <v>45094</v>
-      </c>
       <c r="D17" s="12">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="D18" s="12">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="12">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="D19" s="12">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
+        <v>45087</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12">
         <v>45080</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12">
-        <v>45073</v>
-      </c>
       <c r="D20" s="12">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="12">
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="D21" s="12">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>45065</v>
+        <v>45073</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="12">
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="D22" s="12">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="12">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="D23" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="12">
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="D24" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="12">
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="D25" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="12">
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="D26" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="12">
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="D27" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>45024</v>
+        <v>45030</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="12">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="D28" s="12">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>45009</v>
+        <v>45024</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="12">
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="D29" s="12">
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>45009</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="12">
-        <v>45010</v>
+        <v>45003</v>
       </c>
       <c r="D30" s="12">
-        <v>45016</v>
+        <v>45009</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <v>45003</v>
+        <v>45009</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="12">
-        <v>44996</v>
+        <v>45010</v>
       </c>
       <c r="D31" s="12">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
+        <v>45003</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12">
         <v>44996</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" s="12">
-        <v>44989</v>
-      </c>
       <c r="D32" s="12">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
+        <v>44996</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="12">
         <v>44989</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="12">
-        <v>44982</v>
-      </c>
       <c r="D33" s="12">
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
-        <v>44983</v>
+        <v>44989</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="12">
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="D34" s="12">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
+        <v>44983</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12">
         <v>44975</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12">
-        <v>44968</v>
-      </c>
       <c r="D35" s="12">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="12">
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="D36" s="12">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <v>44960</v>
+        <v>44968</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="12">
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="D37" s="12">
-        <v>44960</v>
+        <v>44967</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="12">
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="D38" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="12">
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="D39" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>44940</v>
+        <v>44946</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="D40" s="12">
-        <v>44939</v>
+        <v>44946</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="D41" s="12">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="D42" s="12">
-        <v>44925</v>
+        <v>44932</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="D43" s="12">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>110</v>
@@ -5204,171 +5282,171 @@
         <v>111</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="D44" s="12">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="D45" s="12">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="D46" s="12">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="12">
-        <v>44883</v>
+        <v>44890</v>
       </c>
       <c r="D47" s="12">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F47" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>44890</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="12">
+        <v>44883</v>
+      </c>
+      <c r="D48" s="12">
+        <v>44890</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="87" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+    <row r="49" spans="1:7" ht="83.15" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
         <v>44883</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C49" s="12">
         <v>44876</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>44883</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G49" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+    <row r="50" spans="1:7" ht="71.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>44876</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="12">
-        <v>44870</v>
-      </c>
-      <c r="D49" s="12">
-        <v>44876</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
-        <v>44870</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="12">
-        <v>44863</v>
+        <v>44870</v>
       </c>
       <c r="D50" s="12">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>44870</v>
       </c>
@@ -5391,217 +5469,264 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="12">
-        <v>44855</v>
+        <v>44863</v>
       </c>
       <c r="D52" s="12">
+        <v>44869</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>44862</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
-        <v>44855</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="12">
-        <v>44849</v>
+        <v>44855</v>
       </c>
       <c r="D53" s="12">
+        <v>44862</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="74.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
         <v>44855</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
-        <v>44848</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="12">
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="D54" s="12">
+        <v>44855</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>44848</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
-        <v>44842</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="12">
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="D55" s="12">
+        <v>44848</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>44842</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
-        <v>44834</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="12">
-        <v>44829</v>
+        <v>44835</v>
       </c>
       <c r="D56" s="12">
+        <v>44842</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
         <v>44834</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
-        <v>44829</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="12">
-        <v>44823</v>
+        <v>44829</v>
       </c>
       <c r="D57" s="12">
+        <v>44834</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
         <v>44829</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
-        <v>44822</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="12">
-        <v>44815</v>
+        <v>44823</v>
       </c>
       <c r="D58" s="12">
+        <v>44829</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
         <v>44822</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
-        <v>44813</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="12">
-        <v>44807</v>
+        <v>44815</v>
       </c>
       <c r="D59" s="12">
+        <v>44822</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
         <v>44813</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
-        <v>44808</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="12">
+        <v>44807</v>
+      </c>
+      <c r="D60" s="12">
+        <v>44813</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="135.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>44808</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="12">
         <v>44800</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <v>44808</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E61" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="15" t="s">
+      <c r="F61" s="33"/>
+      <c r="G61" s="15" t="s">
         <v>285</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B61:B1048576 B5:B50 B1">
+  <conditionalFormatting sqref="B62:B1048576 B6:B51 B1">
+    <cfRule type="cellIs" dxfId="163" priority="76" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="77" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="78" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="80" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" dxfId="159" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5611,10 +5736,10 @@
     <cfRule type="cellIs" dxfId="157" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5649,7 +5774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B52">
     <cfRule type="cellIs" dxfId="151" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5673,7 +5798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B53">
     <cfRule type="cellIs" dxfId="147" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5697,7 +5822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
+  <conditionalFormatting sqref="B54">
     <cfRule type="cellIs" dxfId="143" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5721,7 +5846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
+  <conditionalFormatting sqref="B55">
     <cfRule type="cellIs" dxfId="139" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5745,7 +5870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B56">
     <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5769,7 +5894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
+  <conditionalFormatting sqref="B57">
     <cfRule type="cellIs" dxfId="131" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5793,7 +5918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
+  <conditionalFormatting sqref="B58">
     <cfRule type="cellIs" dxfId="127" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5817,20 +5942,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="123" priority="26" operator="equal">
+  <conditionalFormatting sqref="B59">
+    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5841,7 +5966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
+  <conditionalFormatting sqref="B60">
     <cfRule type="cellIs" dxfId="119" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5865,7 +5990,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
+  <conditionalFormatting sqref="B61">
     <cfRule type="cellIs" dxfId="115" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5889,7 +6014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
+  <conditionalFormatting sqref="B3">
     <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -5914,16 +6039,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -5941,7 +6066,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D60 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D61 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5956,21 +6081,21 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.6328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6007,20 +6132,22 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>45213</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>339</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="F2" s="10" t="s">
         <v>135</v>
       </c>
@@ -6042,7 +6169,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>45212</v>
       </c>
@@ -6053,7 +6180,7 @@
         <v>333</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>335</v>
@@ -6079,7 +6206,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>45211</v>
       </c>
@@ -6116,7 +6243,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="96" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>45210</v>
       </c>
@@ -6153,7 +6280,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>45209</v>
       </c>
@@ -6227,7 +6354,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>45207</v>
       </c>
@@ -6264,7 +6391,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>45206</v>
       </c>
@@ -6301,7 +6428,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>45205</v>
       </c>
@@ -6338,7 +6465,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>45204</v>
       </c>
@@ -6375,7 +6502,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>45203</v>
       </c>
@@ -6412,7 +6539,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>45199</v>
       </c>
@@ -6449,7 +6576,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>45198</v>
       </c>
@@ -6597,7 +6724,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
         <v>45194</v>
       </c>
@@ -6671,7 +6798,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>45192</v>
       </c>
@@ -6708,7 +6835,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
         <v>45191</v>
       </c>
@@ -6745,7 +6872,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
         <v>45190</v>
       </c>
@@ -6782,7 +6909,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
         <v>45189</v>
       </c>
@@ -6819,7 +6946,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
         <v>45188</v>
       </c>
@@ -6856,7 +6983,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>45187</v>
       </c>
@@ -6893,7 +7020,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
         <v>45186</v>
       </c>
@@ -7475,7 +7602,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
         <v>44998</v>
       </c>
@@ -7510,7 +7637,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>44997</v>
       </c>
@@ -7545,7 +7672,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
         <v>44995</v>
       </c>
@@ -7578,7 +7705,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
         <v>44994</v>
       </c>
@@ -7613,7 +7740,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <v>44993</v>
       </c>
@@ -7648,7 +7775,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
         <v>44992</v>
       </c>
@@ -7683,7 +7810,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
         <v>44991</v>
       </c>
@@ -7718,7 +7845,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>44990</v>
       </c>
@@ -7753,7 +7880,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <v>44989</v>
       </c>
@@ -7788,7 +7915,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <v>44988</v>
       </c>
@@ -7823,7 +7950,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>44987</v>
       </c>
@@ -7858,7 +7985,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>44986</v>
       </c>
@@ -7896,16 +8023,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B27:B1048576 B1">
-    <cfRule type="cellIs" dxfId="103" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="136" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="137" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="138" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="139" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -7920,16 +8047,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="99" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="134" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="135">
@@ -7944,16 +8071,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="95" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -7968,16 +8095,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="91" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -7992,16 +8119,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -8016,16 +8143,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="83" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -8040,16 +8167,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="79" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -8064,16 +8191,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -8088,16 +8215,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="71" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -8112,16 +8239,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -8136,16 +8263,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -8160,16 +8287,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -8184,16 +8311,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -8208,16 +8335,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -8232,16 +8359,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -8256,16 +8383,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -8280,16 +8407,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -8304,16 +8431,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -8328,16 +8455,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -8352,16 +8479,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -8376,16 +8503,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -8400,16 +8527,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -8424,16 +8551,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -8448,16 +8575,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -8472,16 +8599,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -8496,16 +8623,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -8547,18 +8674,18 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>225</v>
       </c>
@@ -8578,7 +8705,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -8598,7 +8725,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -8618,7 +8745,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -8638,7 +8765,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -8658,7 +8785,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A7A3F9-313E-40A9-BA85-72B679927748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA03D5-AC3C-49D1-B8C1-E5C396BF578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="22131" windowHeight="11811" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="352">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1842,29 +1842,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今天将所有的Spring面试题整理完毕，包含Spring，SpringMVC，SpringBoot。整理时部分题目显得太深，花的时间太长。整理面试题的重点，一定要用形成自己的理解不能仅仅复制别人的文章，要理清思路，用自己的语言表达出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：9天
+2.完成。实际：Spring，11题
+3.完成。实际：22小时
+4.完成。实际：周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
+2.技术：结束学习Mybatis相关源码内容，leetcode10题。
+3.英语：完成扇贝听力-托福中级听力II
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.延期完成。7:30计划，0:15日报
 2.完成。14:40~00:30，7小时(-3)
 3.未完成。
 4.未完成。
+5.未完成。75.4，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报
+2.英语, 托福听力3小时
+3.leetcode，2题
+4.技术, Mybatis结束第一章
+5.体重减到75.3kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语听感提升，但仍然不能一遍听懂句子。继续积累。leetcode的题，虽然有的简单，但是如果考虑性能和算法之后就会变得复杂。Mybatis之前已经听过一遍，这次算是第二次学习，速度比之前快了很多。家长会占用了2个小时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报
+2.英语, 托福听力3个article
+3.leetcode，2题
+4.技术, Mybatis结束第2章
+5.体重减到75.2kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:50计划，23:52日报
+2.完成。9:00~12:30，3小时，article10
+3.完成。13:50~17:40，1141，392
+4.完成。18:00~00:00，视频1~20
+5.完成。74.9，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:58计划，23:40日报
+2.完成。9:20~16:00，3小时，article2
+3.完成。16:00~17:30，2题
+4.未完成。18:00~01:00，视频21~27
 5.未完成。，中饭正常，晚饭代餐。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天将所有的Spring面试题整理完毕，包含Spring，SpringMVC，SpringBoot。整理时部分题目显得太深，花的时间太长。整理面试题的重点，一定要用形成自己的理解不能仅仅复制别人的文章，要理清思路，用自己的语言表达出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。实际：9天
-2.完成。实际：Spring，11题
-3.完成。实际：22小时
-4.完成。实际：周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
-2.技术：结束学习Mybatis相关源码内容，leetcode10题。
-3.英语：扇贝听力-托福相关-15小时
-4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福听力3个article
+3.leetcode，2题
+4.技术, Mybatis结束第3章
+5.体重减到75.1kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：听了3篇article，目前不再出现听几十遍都听不懂的问题了leetcode:1084. 销售分析III,383. 赎金信.学到一个中新的sql语法,count(a&gt;1 or null)，Mybatis详细学习了配置文件的解析过程。晚上状态不好投入到学习的时间不足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:48计划，日报
+2.完成。9:50~13:40，3小时，article3-5
+3.完成。13:45~15:20，4题
+4.未完成。15:30~23:30，视频28~38
+5.未完成。，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从今天开始要在12点前睡觉，否则算第1个任务没完成。
+英语：听了3篇article，持续积累单词和句子发音。做了4道leetcode题：205，596，1729，619.可以使用`int[] asc = new int[128]`来记录acsii的128个字符，`asc[char1] = char2` 来记录和另一个字符的映射关系。学习Mappers解析过程。openSession代码流程，mapper方法执行流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2132,7 +2193,133 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="164">
+  <dxfs count="176">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4170,26 +4357,26 @@
   </sheetPr>
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.4140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4226,10 +4413,10 @@
         <v>45221</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>336</v>
@@ -4269,7 +4456,7 @@
         <v>306</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>336</v>
@@ -5400,7 +5587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="83.15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="87" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>44883</v>
       </c>
@@ -5423,7 +5610,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="71.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>44876</v>
       </c>
@@ -5515,7 +5702,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="74.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>44855</v>
       </c>
@@ -5676,7 +5863,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="135.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>44808</v>
       </c>
@@ -5703,16 +5890,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B62:B1048576 B6:B51 B1">
-    <cfRule type="cellIs" dxfId="163" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="80" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -5727,16 +5914,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="159" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -5751,16 +5938,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="155" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -5775,16 +5962,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="151" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -5799,16 +5986,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="147" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -5823,16 +6010,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="143" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -5847,16 +6034,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="139" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -5871,16 +6058,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -5895,16 +6082,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="131" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -5919,16 +6106,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="127" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -5943,16 +6130,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -5967,16 +6154,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="119" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5991,16 +6178,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="115" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -6015,16 +6202,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6039,16 +6226,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -6075,27 +6262,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.9140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="12.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6132,24 +6319,24 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45213</v>
+        <v>45217</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -6169,24 +6356,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45212</v>
+        <v>45216</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6206,21 +6393,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -6243,21 +6430,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="96" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45210</v>
+        <v>45213</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -6280,21 +6467,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -6317,21 +6504,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45208</v>
+        <v>45211</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>322</v>
+        <v>334</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -6354,24 +6541,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45207</v>
+        <v>45210</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6391,24 +6578,24 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45206</v>
+        <v>45209</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -6428,21 +6615,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>313</v>
+        <v>323</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -6465,24 +6652,24 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6502,24 +6689,24 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45203</v>
+        <v>45206</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -6539,21 +6726,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45199</v>
+        <v>45205</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -6576,24 +6763,24 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45198</v>
+        <v>45204</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6613,21 +6800,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45197</v>
+        <v>45203</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -6650,21 +6837,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45196</v>
+        <v>45199</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -6687,24 +6874,24 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45195</v>
+        <v>45198</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -6724,21 +6911,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -6761,21 +6948,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45193</v>
+        <v>45196</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -6798,24 +6985,24 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45192</v>
+        <v>45195</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -6835,21 +7022,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -6872,21 +7059,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45190</v>
+        <v>45193</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -6909,24 +7096,24 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45189</v>
+        <v>45192</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6946,21 +7133,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45188</v>
+        <v>45191</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -6983,21 +7170,21 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45187</v>
+        <v>45190</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>135</v>
@@ -7020,21 +7207,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45186</v>
+        <v>45189</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -7057,21 +7244,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45185</v>
+        <v>45188</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -7094,21 +7281,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -7131,21 +7318,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45183</v>
+        <v>45186</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>135</v>
@@ -7170,19 +7357,19 @@
     </row>
     <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B30" s="11" t="s">
+        <v>45185</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>135</v>
@@ -7207,19 +7394,19 @@
     </row>
     <row r="31" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>135</v>
@@ -7244,22 +7431,22 @@
     </row>
     <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45180</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>45183</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -7280,23 +7467,23 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29">
-        <v>45179</v>
+      <c r="A33" s="28">
+        <v>45182</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7318,22 +7505,22 @@
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45178</v>
+        <v>45181</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -7355,22 +7542,22 @@
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45176</v>
+        <v>45180</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>135</v>
+        <v>145</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -7391,23 +7578,23 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
-        <v>45175</v>
+      <c r="A36" s="29">
+        <v>45179</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>234</v>
+        <v>13</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -7429,21 +7616,23 @@
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45174</v>
+        <v>45178</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="14"/>
+        <v>150</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -7464,7 +7653,7 @@
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45173</v>
+        <v>45176</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>9</v>
@@ -7473,12 +7662,14 @@
         <v>151</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -7499,7 +7690,7 @@
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45170</v>
+        <v>45175</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>9</v>
@@ -7508,12 +7699,14 @@
         <v>151</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -7534,19 +7727,19 @@
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45169</v>
+        <v>45174</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
@@ -7568,20 +7761,20 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29">
-        <v>45168</v>
+      <c r="A41" s="28">
+        <v>45173</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
@@ -7602,21 +7795,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
-      <c r="A42" s="29">
-        <v>44998</v>
+    <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28">
+        <v>45170</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
@@ -7637,21 +7830,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
-      <c r="A43" s="29">
-        <v>44997</v>
+    <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28">
+        <v>45169</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>169</v>
+      <c r="C43" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
@@ -7672,20 +7865,22 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
-        <v>44995</v>
+        <v>45168</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -7705,21 +7900,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -7740,21 +7935,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
-        <v>44993</v>
+        <v>44997</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -7775,22 +7970,20 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E47" s="13"/>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -7810,21 +8003,21 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -7845,21 +8038,21 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
@@ -7880,21 +8073,21 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
-        <v>44989</v>
+        <v>44992</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
@@ -7915,21 +8108,21 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -7950,21 +8143,21 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>191</v>
+        <v>181</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
@@ -7985,21 +8178,21 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
-        <v>44986</v>
+        <v>44989</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
@@ -8020,19 +8213,196 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
+    <row r="54" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="29">
+        <v>44988</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A56" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B27:B1048576 B1">
-    <cfRule type="cellIs" dxfId="107" priority="136" operator="equal">
+  <conditionalFormatting sqref="B30:B1048576 B1">
+    <cfRule type="cellIs" dxfId="115" priority="151" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="152" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="153" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="154" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="111" priority="146" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="147" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="148" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="149" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="cellIs" dxfId="107" priority="141" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="142" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="143" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="144" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="cellIs" dxfId="103" priority="136" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="137" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="138" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="139" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -8046,17 +8416,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="103" priority="131" operator="equal">
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="99" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="134" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="135">
@@ -8070,17 +8440,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="99" priority="126" operator="equal">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="95" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -8095,16 +8465,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -8119,30 +8489,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="91" priority="116" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="117" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="118" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="119" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="87" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8166,7 +8512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="83" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8190,7 +8536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B21">
     <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8214,7 +8560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
+  <conditionalFormatting sqref="B20">
     <cfRule type="cellIs" dxfId="75" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8238,17 +8584,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="71" priority="86" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="87" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="88" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="89" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="71" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -8263,16 +8633,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -8287,16 +8657,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -8311,16 +8681,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -8335,16 +8705,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -8359,16 +8729,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -8383,16 +8753,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -8407,16 +8777,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -8431,16 +8801,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -8455,16 +8825,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -8479,16 +8849,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -8503,16 +8873,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -8527,16 +8897,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -8551,16 +8921,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -8575,16 +8945,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -8599,16 +8969,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -8623,16 +8993,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -8647,7 +9017,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B53" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B56" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8674,18 +9044,18 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>225</v>
       </c>
@@ -8705,7 +9075,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -8725,7 +9095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -8745,7 +9115,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -8765,7 +9135,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -8785,7 +9155,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA03D5-AC3C-49D1-B8C1-E5C396BF578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233E3657-A2D0-4267-81E5-C55AD6ED0FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="22131" windowHeight="11811" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="357">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1221,10 +1221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每日计划（8:00前更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.坚持6天：7点左右起床，当天计划，日报。
 2.技术：Spring25小时，leetcode-10题。
 3.英语：小E英语学到视频74。彩蛋30
@@ -1494,10 +1490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每日进展（23:30前更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.英语, 小e英语学到彩蛋55
 2.leetcode，2题(1题算法)
 3.技术, Spring6小时,aop结束
@@ -1853,13 +1845,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
-2.技术：结束学习Mybatis相关源码内容，leetcode10题。
-3.英语：完成扇贝听力-托福中级听力II
-4.周日23:00前，完成周报，更新重要目标进度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.延期完成。7:30计划，0:15日报
 2.完成。14:40~00:30，7小时(-3)
 3.未完成。
@@ -1868,14 +1853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.7点起床做计划，23点日报
-2.英语, 托福听力3小时
-3.leetcode，2题
-4.技术, Mybatis结束第一章
-5.体重减到75.3kg (非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语听感提升，但仍然不能一遍听懂句子。继续积累。leetcode的题，虽然有的简单，但是如果考虑性能和算法之后就会变得复杂。Mybatis之前已经听过一遍，这次算是第二次学习，速度比之前快了很多。家长会占用了2个小时。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1896,14 +1873,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。7:58计划，23:40日报
-2.完成。9:20~16:00，3小时，article2
-3.完成。16:00~17:30，2题
-4.未完成。18:00~01:00，视频21~27
-5.未完成。，中饭正常，晚饭代餐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.7点起床做计划，23点日报睡觉
 2.英语, 托福听力3个article
 3.leetcode，2题
@@ -1916,16 +1885,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>从今天开始要在12点前睡觉，否则算第1个任务没完成。
+英语：听了3篇article，持续积累单词和句子发音。做了4道leetcode题：205，596，1729，619.可以使用`int[] asc = new int[128]`来记录acsii的128个字符，`asc[char1] = char2` 来记录和另一个字符的映射关系。学习Mappers解析过程。openSession代码流程，mapper方法执行流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:58计划，23:40日报
+2.完成。9:20~16:00，3小时，article2
+3.完成。16:00~17:30，2题
+4.未完成。18:00~01:00，视频21~27
+5.完成。75.1，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.完成。7:48计划，日报
 2.完成。9:50~13:40，3小时，article3-5
 3.完成。13:45~15:20，4题
-4.未完成。15:30~23:30，视频28~38
+4.完成。15:30~23:30，视频28~38
+5.未完成。75.9，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福听力3个article
+3.leetcode，2题
+4.技术, Mybatis结束第4章
+5.体重减到75.5kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日进展（23:59前更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日计划（7:59前更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报
+2.英语, 托福听力3小时
+3.leetcode，2题
+4.技术, Mybatis结束第1章
+5.体重减到75.3kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读能力是听力能力的上限，如果读都读不懂，听更不可能听懂。3道leetcode题：1045. 买下所有产品的客户，1731. 每位经理的下属员工数量，12. 整数转罗马数字。Mybatis视频虽然看了很多，但掌握的不多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:26计划，日报
+2.完成。9:23~15:00，3小时，article6-8
+3.完成。15:30~16:30，4题
+4.完成。15:30~23:30，视频39~50
+5.未完成。75.8，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
+2.技术：结束学习Mybatis相关源码内容，leetcode10题。
+3.英语：完成扇贝听力-托福中级听力II
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福听力1个article
+3.leetcode，2题(非必须)
+4.技术, Mybatis结束第5-6章
+5.体重减到75.6kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:26计划，日报
+2.完成。9:23~15:00，3小时，article9
+3.完成。15:30~16:30，4题
+4.完成。15:30~23:30，视频39~50
 5.未完成。，中饭正常，晚饭代餐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从今天开始要在12点前睡觉，否则算第1个任务没完成。
-英语：听了3篇article，持续积累单词和句子发音。做了4道leetcode题：205，596，1729，619.可以使用`int[] asc = new int[128]`来记录acsii的128个字符，`asc[char1] = char2` 来记录和另一个字符的映射关系。学习Mappers解析过程。openSession代码流程，mapper方法执行流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2193,7 +2229,91 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
+  <dxfs count="184">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4404,7 +4524,7 @@
         <v>45221</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" s="7">
         <v>45215</v>
@@ -4413,13 +4533,13 @@
         <v>45221</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
@@ -4453,13 +4573,13 @@
         <v>45214</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="1"/>
@@ -4493,13 +4613,13 @@
         <v>45200</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>305</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="1"/>
@@ -4533,13 +4653,13 @@
         <v>45193</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5693,13 +5813,13 @@
         <v>44862</v>
       </c>
       <c r="E53" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="G53" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
@@ -5716,13 +5836,13 @@
         <v>44855</v>
       </c>
       <c r="E54" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="G54" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.3">
@@ -5739,13 +5859,13 @@
         <v>44848</v>
       </c>
       <c r="E55" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="G55" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -5762,13 +5882,13 @@
         <v>44842</v>
       </c>
       <c r="E56" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5785,13 +5905,13 @@
         <v>44834</v>
       </c>
       <c r="E57" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="G57" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.3">
@@ -5808,13 +5928,13 @@
         <v>44829</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5831,13 +5951,13 @@
         <v>44822</v>
       </c>
       <c r="E59" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="G59" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.3">
@@ -5854,13 +5974,13 @@
         <v>44813</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F60" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G60" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5877,11 +5997,11 @@
         <v>44808</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5890,16 +6010,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B62:B1048576 B6:B51 B1">
-    <cfRule type="cellIs" dxfId="175" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="80" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -5914,16 +6034,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="171" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -5938,16 +6058,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="167" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -5962,16 +6082,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="163" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -5986,16 +6106,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="159" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6010,16 +6130,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="155" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -6034,16 +6154,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="151" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -6058,16 +6178,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6082,16 +6202,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="143" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6106,16 +6226,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="139" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -6130,16 +6250,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="135" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -6154,16 +6274,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="131" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6178,16 +6298,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="127" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -6202,16 +6322,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="123" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6226,16 +6346,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -6262,13 +6382,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6290,10 +6410,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>133</v>
@@ -6321,19 +6441,19 @@
     </row>
     <row r="2" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>134</v>
@@ -6356,21 +6476,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45216</v>
+        <v>45218</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -6393,9 +6513,9 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45215</v>
+        <v>45217</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
@@ -6404,10 +6524,10 @@
         <v>343</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -6432,22 +6552,22 @@
     </row>
     <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45213</v>
+        <v>45216</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6469,19 +6589,19 @@
     </row>
     <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -6506,19 +6626,19 @@
     </row>
     <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45211</v>
+        <v>45213</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -6543,19 +6663,19 @@
     </row>
     <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45210</v>
+        <v>45212</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -6580,19 +6700,19 @@
     </row>
     <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -6615,21 +6735,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>322</v>
+        <v>328</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -6654,22 +6774,22 @@
     </row>
     <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45207</v>
+        <v>45209</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6689,24 +6809,24 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -6728,22 +6848,22 @@
     </row>
     <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45205</v>
+        <v>45207</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6765,22 +6885,22 @@
     </row>
     <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45204</v>
+        <v>45206</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6800,21 +6920,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -6837,21 +6957,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45199</v>
+        <v>45204</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -6876,22 +6996,22 @@
     </row>
     <row r="17" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45198</v>
+        <v>45203</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -6911,21 +7031,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -6948,24 +7068,24 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -6987,19 +7107,19 @@
     </row>
     <row r="20" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -7022,21 +7142,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -7059,21 +7179,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45193</v>
+        <v>45195</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -7098,22 +7218,22 @@
     </row>
     <row r="23" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45192</v>
+        <v>45194</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -7133,21 +7253,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45191</v>
+        <v>45193</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -7172,22 +7292,22 @@
     </row>
     <row r="25" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -7209,19 +7329,19 @@
     </row>
     <row r="26" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -7246,19 +7366,19 @@
     </row>
     <row r="27" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -7283,19 +7403,19 @@
     </row>
     <row r="28" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -7318,21 +7438,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>135</v>
@@ -7355,21 +7475,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>135</v>
@@ -7392,21 +7512,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>135</v>
@@ -7431,19 +7551,19 @@
     </row>
     <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -7468,19 +7588,19 @@
     </row>
     <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>135</v>
@@ -7505,19 +7625,19 @@
     </row>
     <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B34" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -7542,22 +7662,22 @@
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -7578,23 +7698,23 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29">
-        <v>45179</v>
+      <c r="A36" s="28">
+        <v>45181</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -7616,19 +7736,19 @@
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -7652,23 +7772,23 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28">
-        <v>45176</v>
+      <c r="A38" s="29">
+        <v>45179</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -7690,22 +7810,22 @@
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7727,21 +7847,23 @@
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -7762,7 +7884,7 @@
     </row>
     <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>9</v>
@@ -7771,12 +7893,14 @@
         <v>151</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -7797,19 +7921,19 @@
     </row>
     <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
@@ -7832,7 +7956,7 @@
     </row>
     <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>9</v>
@@ -7841,10 +7965,10 @@
         <v>151</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
@@ -7866,20 +7990,20 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29">
-        <v>45168</v>
+      <c r="A44" s="28">
+        <v>45170</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
@@ -7900,21 +8024,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A45" s="29">
-        <v>44998</v>
+    <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28">
+        <v>45169</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -7935,21 +8059,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -7972,7 +8096,7 @@
     </row>
     <row r="47" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
@@ -7983,7 +8107,9 @@
       <c r="D47" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="13"/>
+      <c r="E47" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -8005,19 +8131,19 @@
     </row>
     <row r="48" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -8040,20 +8166,18 @@
     </row>
     <row r="49" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E49" s="13"/>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -8073,21 +8197,21 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
@@ -8108,21 +8232,21 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -8143,21 +8267,21 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
@@ -8180,19 +8304,19 @@
     </row>
     <row r="53" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
@@ -8213,21 +8337,21 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
@@ -8248,21 +8372,21 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
@@ -8283,21 +8407,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -8318,9 +8442,127 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
+    <row r="57" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A58" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B30:B1048576 B1">
+  <conditionalFormatting sqref="B32:B1048576 B1">
+    <cfRule type="cellIs" dxfId="123" priority="161" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="162" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="163" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="164" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="119" priority="156" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="157" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="158" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="159" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
     <cfRule type="cellIs" dxfId="115" priority="151" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8344,7 +8586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B29">
     <cfRule type="cellIs" dxfId="111" priority="146" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8368,7 +8610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
+  <conditionalFormatting sqref="B28">
     <cfRule type="cellIs" dxfId="107" priority="141" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8441,40 +8683,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="95" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="129" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="91" priority="121" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="122" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="123" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -8488,20 +8706,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="87" priority="111" operator="equal">
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="91" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8512,17 +8730,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="83" priority="106" operator="equal">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="87" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -8536,6 +8754,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="83" priority="101" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B21">
     <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
       <formula>"部分完成"</formula>
@@ -9017,7 +9259,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B56" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B58" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233E3657-A2D0-4267-81E5-C55AD6ED0FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9057C08-7C81-4BB0-B1BD-BA0424ECCE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="358">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1958,10 +1958,14 @@
   </si>
   <si>
     <t>1.完成。7:26计划，日报
-2.完成。9:23~15:00，3小时，article9
-3.完成。15:30~16:30，4题
+2.完成。9:00~12:00，2小时，article9
+3.完成。12:30~16:30，2题
 4.完成。15:30~23:30，视频39~50
 5.未完成。，中饭正常，晚饭代餐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode：1789. 员工的直属部门，135. 分发糖果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4484,19 +4488,19 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>45221</v>
       </c>
@@ -4559,7 +4563,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45214</v>
       </c>
@@ -4599,7 +4603,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>45200</v>
       </c>
@@ -4639,7 +4643,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45193</v>
       </c>
@@ -4679,7 +4683,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45186</v>
       </c>
@@ -4719,7 +4723,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45178</v>
       </c>
@@ -4759,7 +4763,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45171</v>
       </c>
@@ -4799,7 +4803,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>45163</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>45156</v>
       </c>
@@ -4845,7 +4849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>45150</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>45143</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>45136</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>45129</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>45122</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>45115</v>
       </c>
@@ -4983,7 +4987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>45107</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>45101</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>45094</v>
       </c>
@@ -5052,7 +5056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>45087</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>45080</v>
       </c>
@@ -5096,7 +5100,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>45073</v>
       </c>
@@ -5117,7 +5121,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>45065</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>45058</v>
       </c>
@@ -5161,7 +5165,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>45051</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>45044</v>
       </c>
@@ -5205,7 +5209,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>45037</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>45030</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>45024</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>45009</v>
       </c>
@@ -5295,7 +5299,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>45009</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>45003</v>
       </c>
@@ -5339,7 +5343,7 @@
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>44996</v>
       </c>
@@ -5362,7 +5366,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>44989</v>
       </c>
@@ -5385,7 +5389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>44983</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>44975</v>
       </c>
@@ -5431,7 +5435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>44968</v>
       </c>
@@ -5454,7 +5458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>44960</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>44953</v>
       </c>
@@ -5500,7 +5504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>44946</v>
       </c>
@@ -5523,7 +5527,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>44940</v>
       </c>
@@ -5546,7 +5550,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>44933</v>
       </c>
@@ -5569,7 +5573,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>44926</v>
       </c>
@@ -5592,7 +5596,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>44919</v>
       </c>
@@ -5615,7 +5619,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>44912</v>
       </c>
@@ -5638,7 +5642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44905</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>44898</v>
       </c>
@@ -5684,7 +5688,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>44890</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="87" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="90.6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>44883</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>44876</v>
       </c>
@@ -5753,7 +5757,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>44870</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="68.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>44870</v>
       </c>
@@ -5799,7 +5803,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="86.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>44862</v>
       </c>
@@ -5822,7 +5826,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>44855</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="73.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>44848</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>44842</v>
       </c>
@@ -5891,7 +5895,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>44834</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>44829</v>
       </c>
@@ -5937,7 +5941,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="77.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="77.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>44822</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="94" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="94.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>44813</v>
       </c>
@@ -5983,7 +5987,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="135.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>44808</v>
       </c>
@@ -6388,21 +6392,21 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.6328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6439,7 +6443,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45219</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>356</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>134</v>
@@ -6476,7 +6480,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45218</v>
       </c>
@@ -6513,7 +6517,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45217</v>
       </c>
@@ -6550,7 +6554,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>45216</v>
       </c>
@@ -6587,7 +6591,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>45215</v>
       </c>
@@ -6624,7 +6628,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45213</v>
       </c>
@@ -6661,7 +6665,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>45212</v>
       </c>
@@ -6698,7 +6702,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>45211</v>
       </c>
@@ -6735,7 +6739,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45210</v>
       </c>
@@ -6772,7 +6776,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45209</v>
       </c>
@@ -6809,7 +6813,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45208</v>
       </c>
@@ -6846,7 +6850,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45207</v>
       </c>
@@ -6883,7 +6887,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45206</v>
       </c>
@@ -6920,7 +6924,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45205</v>
       </c>
@@ -6957,7 +6961,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>45204</v>
       </c>
@@ -6994,7 +6998,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45203</v>
       </c>
@@ -7031,7 +7035,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45199</v>
       </c>
@@ -7068,7 +7072,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45198</v>
       </c>
@@ -7105,7 +7109,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45197</v>
       </c>
@@ -7142,7 +7146,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45196</v>
       </c>
@@ -7179,7 +7183,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="76" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45195</v>
       </c>
@@ -7216,7 +7220,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>45194</v>
       </c>
@@ -7253,7 +7257,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45193</v>
       </c>
@@ -7290,7 +7294,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45192</v>
       </c>
@@ -7327,7 +7331,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45191</v>
       </c>
@@ -7364,7 +7368,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45190</v>
       </c>
@@ -7401,7 +7405,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45189</v>
       </c>
@@ -7438,7 +7442,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45188</v>
       </c>
@@ -7475,7 +7479,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
         <v>45187</v>
       </c>
@@ -7512,7 +7516,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45186</v>
       </c>
@@ -7549,7 +7553,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45185</v>
       </c>
@@ -7586,7 +7590,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45184</v>
       </c>
@@ -7623,7 +7627,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45183</v>
       </c>
@@ -7660,7 +7664,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45182</v>
       </c>
@@ -7697,7 +7701,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45181</v>
       </c>
@@ -7734,7 +7738,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45180</v>
       </c>
@@ -7771,7 +7775,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>45179</v>
       </c>
@@ -7808,7 +7812,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45178</v>
       </c>
@@ -7845,7 +7849,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45176</v>
       </c>
@@ -7882,7 +7886,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45175</v>
       </c>
@@ -7919,7 +7923,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45174</v>
       </c>
@@ -7954,7 +7958,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45173</v>
       </c>
@@ -7989,7 +7993,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45170</v>
       </c>
@@ -8024,7 +8028,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45169</v>
       </c>
@@ -8059,7 +8063,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>45168</v>
       </c>
@@ -8094,7 +8098,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>44998</v>
       </c>
@@ -8129,7 +8133,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>44997</v>
       </c>
@@ -8164,7 +8168,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>44995</v>
       </c>
@@ -8197,7 +8201,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>44994</v>
       </c>
@@ -8232,7 +8236,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>44993</v>
       </c>
@@ -8267,7 +8271,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>44992</v>
       </c>
@@ -8302,7 +8306,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>44991</v>
       </c>
@@ -8337,7 +8341,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>44990</v>
       </c>
@@ -8372,7 +8376,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>44989</v>
       </c>
@@ -8407,7 +8411,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>44988</v>
       </c>
@@ -8442,7 +8446,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>44987</v>
       </c>
@@ -8477,7 +8481,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>44986</v>
       </c>
@@ -9286,18 +9290,18 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>225</v>
       </c>
@@ -9317,7 +9321,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -9337,7 +9341,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -9357,7 +9361,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -9377,7 +9381,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -9397,7 +9401,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -9417,7 +9421,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="26"/>
       <c r="C7" s="14"/>
@@ -9425,7 +9429,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="26"/>
       <c r="C8" s="14"/>
@@ -9433,7 +9437,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="26"/>
       <c r="C9" s="14"/>
@@ -9441,7 +9445,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="26"/>
       <c r="C10" s="14"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\git-doc\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9057C08-7C81-4BB0-B1BD-BA0424ECCE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14DFF4-5178-46DE-A236-AECD5048410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="359">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1957,15 +1957,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。7:26计划，日报
+    <t>leetcode：1789. 员工的直属部门，135. 分发糖果
+1. Mybatis源码视频，看了第51~80个视频。学习Mybatis重要类和接口作用。一二三级缓存。整合Spring的原理。
+2. 之前看视频速度太快，都没有记笔记，感觉效果不是很好。今天跟着视频写了笔记。学习效果提升不少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:26计划，23:40日报
 2.完成。9:00~12:00，2小时，article9
-3.完成。12:30~16:30，2题
-4.完成。15:30~23:30，视频39~50
+3.完成。12:30~14:30，2题
+4.完成。14:30~23:30，视频51~80
 5.未完成。，中饭正常，晚饭代餐。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>leetcode：1789. 员工的直属部门，135. 分发糖果</t>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福听力3个article
+3.leetcode，2题(非必须)
+4.技术, Mybatis面试题
+5.体重减到75.6kg (非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2132,7 +2142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2229,11 +2239,56 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="184">
+  <dxfs count="188">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4488,19 +4543,19 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4523,7 +4578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>45221</v>
       </c>
@@ -4563,7 +4618,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>45214</v>
       </c>
@@ -4603,7 +4658,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>45200</v>
       </c>
@@ -4643,7 +4698,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>45193</v>
       </c>
@@ -4683,7 +4738,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>45186</v>
       </c>
@@ -4723,7 +4778,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>45178</v>
       </c>
@@ -4763,7 +4818,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>45171</v>
       </c>
@@ -4803,7 +4858,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>45163</v>
       </c>
@@ -4826,7 +4881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>45156</v>
       </c>
@@ -4849,7 +4904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>45150</v>
       </c>
@@ -4872,7 +4927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>45143</v>
       </c>
@@ -4895,7 +4950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>45136</v>
       </c>
@@ -4918,7 +4973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>45129</v>
       </c>
@@ -4941,7 +4996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>45122</v>
       </c>
@@ -4964,7 +5019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>45115</v>
       </c>
@@ -4987,7 +5042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>45107</v>
       </c>
@@ -5010,7 +5065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>45101</v>
       </c>
@@ -5033,7 +5088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>45094</v>
       </c>
@@ -5056,7 +5111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>45087</v>
       </c>
@@ -5079,7 +5134,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>45080</v>
       </c>
@@ -5100,7 +5155,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>45073</v>
       </c>
@@ -5121,7 +5176,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>45065</v>
       </c>
@@ -5144,7 +5199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>45058</v>
       </c>
@@ -5165,7 +5220,7 @@
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>45051</v>
       </c>
@@ -5188,7 +5243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>45044</v>
       </c>
@@ -5209,7 +5264,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>45037</v>
       </c>
@@ -5232,7 +5287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>45030</v>
       </c>
@@ -5255,7 +5310,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>45024</v>
       </c>
@@ -5278,7 +5333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>45009</v>
       </c>
@@ -5299,7 +5354,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>45009</v>
       </c>
@@ -5322,7 +5377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>45003</v>
       </c>
@@ -5343,7 +5398,7 @@
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>44996</v>
       </c>
@@ -5366,7 +5421,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>44989</v>
       </c>
@@ -5389,7 +5444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>44983</v>
       </c>
@@ -5412,7 +5467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>44975</v>
       </c>
@@ -5435,7 +5490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>44968</v>
       </c>
@@ -5458,7 +5513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>44960</v>
       </c>
@@ -5481,7 +5536,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>44953</v>
       </c>
@@ -5504,7 +5559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>44946</v>
       </c>
@@ -5527,7 +5582,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>44940</v>
       </c>
@@ -5550,7 +5605,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>44933</v>
       </c>
@@ -5573,7 +5628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>44926</v>
       </c>
@@ -5596,7 +5651,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>44919</v>
       </c>
@@ -5619,7 +5674,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>44912</v>
       </c>
@@ -5642,7 +5697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>44905</v>
       </c>
@@ -5665,7 +5720,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>44898</v>
       </c>
@@ -5688,7 +5743,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>44890</v>
       </c>
@@ -5711,7 +5766,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="90.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="83.15" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>44883</v>
       </c>
@@ -5734,7 +5789,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>44876</v>
       </c>
@@ -5757,7 +5812,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>44870</v>
       </c>
@@ -5780,7 +5835,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="68.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="68.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>44870</v>
       </c>
@@ -5803,7 +5858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="86.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="86.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>44862</v>
       </c>
@@ -5826,7 +5881,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>44855</v>
       </c>
@@ -5849,7 +5904,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="73.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="73.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>44848</v>
       </c>
@@ -5872,7 +5927,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>44842</v>
       </c>
@@ -5895,7 +5950,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>44834</v>
       </c>
@@ -5918,7 +5973,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>44829</v>
       </c>
@@ -5941,7 +5996,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="77.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="77.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>44822</v>
       </c>
@@ -5964,7 +6019,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="94.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="94.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>44813</v>
       </c>
@@ -5987,7 +6042,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="135.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="135.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>44808</v>
       </c>
@@ -6014,16 +6069,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B62:B1048576 B6:B51 B1">
-    <cfRule type="cellIs" dxfId="183" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="80" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="81">
@@ -6038,16 +6093,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="179" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -6062,16 +6117,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="175" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -6086,16 +6141,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="171" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -6110,16 +6165,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="167" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6134,16 +6189,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="163" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -6158,16 +6213,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="159" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -6182,16 +6237,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="155" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6206,16 +6261,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="151" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6230,16 +6285,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="147" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -6254,16 +6309,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="143" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -6278,16 +6333,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="139" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6302,16 +6357,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="135" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -6326,16 +6381,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="131" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6350,16 +6405,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="127" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -6386,27 +6441,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6419,7 +6474,7 @@
       <c r="D1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>133</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -6443,24 +6498,22 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="74.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45219</v>
+        <v>45220</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E2" s="9" t="s">
         <v>357</v>
       </c>
+      <c r="E2" s="18"/>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -6480,24 +6533,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="74.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6517,21 +6570,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="74.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>345</v>
+        <v>353</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>352</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -6554,24 +6607,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="74.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>344</v>
+        <v>347</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6591,24 +6644,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>344</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6628,21 +6681,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45213</v>
+        <v>45215</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>340</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -6665,21 +6718,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45212</v>
+        <v>45213</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>333</v>
+        <v>339</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -6702,21 +6755,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -6739,21 +6792,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>330</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -6776,21 +6829,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="96" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>324</v>
+        <v>328</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>327</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -6813,21 +6866,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -6850,24 +6903,24 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6887,21 +6940,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>319</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -6924,24 +6977,24 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -6961,21 +7014,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>311</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -6998,21 +7051,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>310</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -7035,21 +7088,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>298</v>
+        <v>307</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>308</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -7072,24 +7125,24 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -7109,24 +7162,24 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>293</v>
+        <v>299</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -7146,21 +7199,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -7183,21 +7236,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="76.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -7220,21 +7273,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>257</v>
+        <v>288</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -7257,21 +7310,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -7294,24 +7347,24 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>256</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -7331,24 +7384,24 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>245</v>
+        <v>251</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -7368,21 +7421,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -7405,21 +7458,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -7442,21 +7495,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>135</v>
@@ -7479,21 +7532,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>135</v>
@@ -7516,21 +7569,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>135</v>
@@ -7553,21 +7606,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -7590,21 +7643,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>135</v>
@@ -7627,21 +7680,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -7664,21 +7717,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B35" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>135</v>
@@ -7701,9 +7754,9 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>9</v>
@@ -7714,8 +7767,8 @@
       <c r="D36" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>143</v>
+      <c r="E36" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>135</v>
@@ -7738,24 +7791,24 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -7775,23 +7828,23 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
-        <v>45179</v>
+    <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28">
+        <v>45180</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G38" s="1"/>
@@ -7812,23 +7865,23 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
-        <v>45178</v>
+    <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29">
+        <v>45179</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G39" s="1"/>
@@ -7849,24 +7902,24 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>135</v>
+        <v>149</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -7886,9 +7939,9 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>9</v>
@@ -7899,8 +7952,8 @@
       <c r="D41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>234</v>
+      <c r="E41" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>135</v>
@@ -7923,23 +7976,25 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -7958,21 +8013,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
@@ -7993,9 +8048,9 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
@@ -8004,10 +8059,10 @@
         <v>151</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
@@ -8028,9 +8083,9 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
@@ -8039,10 +8094,10 @@
         <v>151</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -8063,21 +8118,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
-        <v>45168</v>
+    <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28">
+        <v>45169</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -8098,21 +8153,21 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
@@ -8133,21 +8188,21 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -8168,20 +8223,22 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -8201,22 +8258,20 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E50" s="15"/>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -8236,21 +8291,21 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -8271,21 +8326,21 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
@@ -8306,21 +8361,21 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
@@ -8341,21 +8396,21 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
@@ -8376,21 +8431,21 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
@@ -8411,21 +8466,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -8446,21 +8501,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
@@ -8481,21 +8536,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -8516,9 +8571,68 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
+    <row r="59" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+      <c r="A59" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B32:B1048576 B1">
+  <conditionalFormatting sqref="B33:B1048576 B1">
+    <cfRule type="cellIs" dxfId="127" priority="166" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="167" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="168" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="169" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
     <cfRule type="cellIs" dxfId="123" priority="161" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8542,7 +8656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
+  <conditionalFormatting sqref="B32">
     <cfRule type="cellIs" dxfId="119" priority="156" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8566,7 +8680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
+  <conditionalFormatting sqref="B30">
     <cfRule type="cellIs" dxfId="115" priority="151" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8663,19 +8777,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="99" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8711,19 +8825,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="91" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9263,7 +9377,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B58" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B59" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -9290,18 +9404,18 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>225</v>
       </c>
@@ -9321,7 +9435,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -9341,7 +9455,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -9361,7 +9475,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -9381,7 +9495,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -9401,7 +9515,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -9421,7 +9535,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="26"/>
       <c r="C7" s="14"/>
@@ -9429,7 +9543,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
       <c r="B8" s="26"/>
       <c r="C8" s="14"/>
@@ -9437,7 +9551,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="26"/>
       <c r="C9" s="14"/>
@@ -9445,7 +9559,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
       <c r="B10" s="26"/>
       <c r="C10" s="14"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14DFF4-5178-46DE-A236-AECD5048410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4C66D-E97B-4167-BDF8-E55C3FBAB082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="22131" windowHeight="11811" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="367">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1967,15 +1967,65 @@
 2.完成。9:00~12:00，2小时，article9
 3.完成。12:30~14:30，2题
 4.完成。14:30~23:30，视频51~80
-5.未完成。，中饭正常，晚饭代餐。</t>
+5.完成。75.4，中饭正常，晚饭代餐。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.7点起床做计划，23点日报睡觉
-2.英语, 托福听力3个article
+2.英语, 托福2个article(非必须)
 3.leetcode，2题(非必须)
 4.技术, Mybatis面试题
-5.体重减到75.6kg (非必须)</t>
+5.体重减到75.5kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天状态较差，头也有点胀痛。没怎么学习，看看明天能不能把今天的进度补回来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福2个article
+3.leetcode，2题(非必须)
+4.技术, Mybatis面试题
+5.体重减到75.5kg (非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：6天
+2.完成。实际：mybatis，11题
+3.完成。实际：高级article3
+4.完成。实际：周日：20:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周状态已经恢复正常。Mybatis源码学习结束，但是学习效果仍有提升空间。英语听力总体听感提升，没有出现一句话听个几十遍都听不懂的情况了。但还未达到听一遍就能知道意思的程度。下周仍需继续积累。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周状态已经恢复正常。Mybatis源码学习结束，但是学习效果仍有提升空间。英语听力总体听感提升，没有出现一句话听个几十遍都听不懂的情况了。但还未达到听一遍就能知道意思的程度。下周仍需继续积累。单句听完之后要整篇复习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持5天：7点起床，确定当天计划，23点日报，睡觉。
+2.技术：结束学习MongoDB，开始MySQL。
+3.英语：完成扇贝听力-托福高级II
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:52计划，23:20日报
+2.未完成。9:00~12:00，2小时，article9
+3.未完成。0题
+4.未完成。14:30~23:30，视频51~80
+5.未完成。76kg，中晚饭正常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:45计划，23:40日报
+2.完成。11:30~15:30，2小时，article9
+3.未完成。0题
+4.完成。16:30~23:30
+5.未完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2233,20 +2283,146 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="188">
+  <dxfs count="200">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4534,7 +4710,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -4543,19 +4719,19 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.4140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="11.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4580,25 +4756,25 @@
     </row>
     <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="7">
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="D2" s="7">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
@@ -4620,25 +4796,25 @@
     </row>
     <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45204</v>
+        <v>45215</v>
       </c>
       <c r="D3" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="1"/>
@@ -4660,25 +4836,25 @@
     </row>
     <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="D4" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="1"/>
@@ -4700,27 +4876,27 @@
     </row>
     <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D5" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4740,25 +4916,25 @@
     </row>
     <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>45179</v>
+        <v>45187</v>
       </c>
       <c r="D6" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4780,25 +4956,25 @@
     </row>
     <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>45178</v>
+        <v>45186</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7">
-        <v>45171</v>
+        <v>45179</v>
       </c>
       <c r="D7" s="7">
-        <v>45177</v>
+        <v>45186</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4820,25 +4996,25 @@
     </row>
     <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
         <v>45171</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45164</v>
-      </c>
       <c r="D8" s="7">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4859,810 +5035,827 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>45163</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
-        <v>45157</v>
-      </c>
-      <c r="D9" s="12">
-        <v>45163</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="7">
+        <v>45171</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45164</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45170</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="12">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D10" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>45150</v>
+        <v>45156</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="D11" s="12">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="12">
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="D12" s="12">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
+        <v>45143</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12">
         <v>45136</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12">
-        <v>45129</v>
-      </c>
       <c r="D13" s="12">
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="12">
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="D14" s="12">
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
+        <v>45129</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
         <v>45122</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12">
-        <v>45115</v>
-      </c>
       <c r="D15" s="12">
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="12">
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="D16" s="12">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>45107</v>
+        <v>45115</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="12">
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="D17" s="12">
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
         <v>45101</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="12">
-        <v>45094</v>
-      </c>
       <c r="D18" s="12">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="D19" s="12">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="12">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="D20" s="12">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
+        <v>45087</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12">
         <v>45080</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="12">
-        <v>45073</v>
-      </c>
       <c r="D21" s="12">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="12">
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="D22" s="12">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <v>45065</v>
+        <v>45073</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="12">
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="D23" s="12">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="12">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="D24" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="12">
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="D25" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="12">
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="D26" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="12">
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="D27" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="12">
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="D28" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>45024</v>
+        <v>45030</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="12">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="D29" s="12">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>45009</v>
+        <v>45024</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="12">
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="D30" s="12">
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>45009</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="12">
-        <v>45010</v>
+        <v>45003</v>
       </c>
       <c r="D31" s="12">
-        <v>45016</v>
+        <v>45009</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <v>45003</v>
+        <v>45009</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="12">
-        <v>44996</v>
+        <v>45010</v>
       </c>
       <c r="D32" s="12">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
+        <v>45003</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12">
         <v>44996</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="12">
-        <v>44989</v>
-      </c>
       <c r="D33" s="12">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
+        <v>44996</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="12">
         <v>44989</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12">
-        <v>44982</v>
-      </c>
       <c r="D34" s="12">
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
-        <v>44983</v>
+        <v>44989</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" s="12">
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="D35" s="12">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
+        <v>44983</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="12">
         <v>44975</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="12">
-        <v>44968</v>
-      </c>
       <c r="D36" s="12">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="12">
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="D37" s="12">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>44960</v>
+        <v>44968</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="12">
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="D38" s="12">
-        <v>44960</v>
+        <v>44967</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="12">
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="D39" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="12">
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="D40" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <v>44940</v>
+        <v>44946</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="D41" s="12">
-        <v>44939</v>
+        <v>44946</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="D42" s="12">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="D43" s="12">
-        <v>44925</v>
+        <v>44932</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="D44" s="12">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>110</v>
@@ -5671,171 +5864,171 @@
         <v>111</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="D45" s="12">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="D46" s="12">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="D47" s="12">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="12">
-        <v>44883</v>
+        <v>44890</v>
       </c>
       <c r="D48" s="12">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F48" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>44890</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="12">
+        <v>44883</v>
+      </c>
+      <c r="D49" s="12">
+        <v>44890</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G49" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="83.15" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+    <row r="50" spans="1:7" ht="87" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>44883</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C50" s="12">
         <v>44876</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <v>44883</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F50" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G50" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+    <row r="51" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
         <v>44876</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="12">
-        <v>44870</v>
-      </c>
-      <c r="D50" s="12">
-        <v>44876</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
-        <v>44870</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="12">
-        <v>44863</v>
+        <v>44870</v>
       </c>
       <c r="D51" s="12">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="68.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>44870</v>
       </c>
@@ -5858,230 +6051,253 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="86.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="68.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="12">
-        <v>44855</v>
+        <v>44863</v>
       </c>
       <c r="D53" s="12">
+        <v>44869</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="86.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
         <v>44862</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
-        <v>44855</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="12">
-        <v>44849</v>
+        <v>44855</v>
       </c>
       <c r="D54" s="12">
+        <v>44862</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>44855</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="73.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
-        <v>44848</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="12">
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="D55" s="12">
+        <v>44855</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>44848</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
-        <v>44842</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="12">
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="D56" s="12">
+        <v>44848</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
         <v>44842</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
-        <v>44834</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="12">
-        <v>44829</v>
+        <v>44835</v>
       </c>
       <c r="D57" s="12">
+        <v>44842</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
         <v>44834</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
-        <v>44829</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="12">
-        <v>44823</v>
+        <v>44829</v>
       </c>
       <c r="D58" s="12">
+        <v>44834</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
         <v>44829</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="77.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
-        <v>44822</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="12">
-        <v>44815</v>
+        <v>44823</v>
       </c>
       <c r="D59" s="12">
+        <v>44829</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
         <v>44822</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="94.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
-        <v>44813</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="12">
-        <v>44807</v>
+        <v>44815</v>
       </c>
       <c r="D60" s="12">
+        <v>44822</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
         <v>44813</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="135.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
-        <v>44808</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="12">
+        <v>44807</v>
+      </c>
+      <c r="D61" s="12">
+        <v>44813</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>44808</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="12">
         <v>44800</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <v>44808</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E62" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="15" t="s">
+      <c r="F62" s="34"/>
+      <c r="G62" s="15" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B62:B1048576 B6:B51 B1">
-    <cfRule type="cellIs" dxfId="187" priority="76" operator="equal">
+  <conditionalFormatting sqref="B63:B1048576 B7:B52 B1">
+    <cfRule type="cellIs" dxfId="199" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="85" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6092,17 +6308,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="195" priority="76" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="77" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="78" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="79" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="183" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -6116,17 +6356,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="179" priority="66" operator="equal">
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="187" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -6140,17 +6380,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="175" priority="61" operator="equal">
+  <conditionalFormatting sqref="B54">
+    <cfRule type="cellIs" dxfId="183" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -6164,17 +6404,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="171" priority="56" operator="equal">
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="179" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6188,17 +6428,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="167" priority="51" operator="equal">
+  <conditionalFormatting sqref="B56">
+    <cfRule type="cellIs" dxfId="175" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -6212,17 +6452,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="163" priority="46" operator="equal">
+  <conditionalFormatting sqref="B57">
+    <cfRule type="cellIs" dxfId="171" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -6236,17 +6476,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="159" priority="41" operator="equal">
+  <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="167" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6260,17 +6500,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="155" priority="36" operator="equal">
+  <conditionalFormatting sqref="B59">
+    <cfRule type="cellIs" dxfId="163" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6284,20 +6524,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="151" priority="31" operator="equal">
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="159" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6308,17 +6548,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="147" priority="21" operator="equal">
+  <conditionalFormatting sqref="B61">
+    <cfRule type="cellIs" dxfId="155" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -6332,17 +6572,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="143" priority="16" operator="equal">
+  <conditionalFormatting sqref="B62">
+    <cfRule type="cellIs" dxfId="151" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6356,17 +6596,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="139" priority="11" operator="equal">
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="147" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -6381,16 +6621,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6405,16 +6645,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -6432,7 +6672,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D61 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D62 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6441,27 +6681,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.9140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="12.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6328125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -6498,18 +6738,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="74.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45220</v>
+        <v>45222</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="10" t="s">
@@ -6533,22 +6773,20 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="74.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45219</v>
+        <v>45221</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>356</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="E3" s="18"/>
       <c r="F3" s="10" t="s">
         <v>135</v>
       </c>
@@ -6570,24 +6808,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="74.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45218</v>
+        <v>45220</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6607,21 +6845,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="74.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -6644,24 +6882,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45216</v>
+        <v>45218</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6681,21 +6919,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45215</v>
+        <v>45217</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -6718,24 +6956,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45213</v>
+        <v>45216</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6755,21 +6993,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -6792,21 +7030,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45211</v>
+        <v>45213</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -6829,21 +7067,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="96" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45210</v>
+        <v>45212</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -6866,21 +7104,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -6903,21 +7141,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -6940,24 +7178,24 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45207</v>
+        <v>45209</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6977,24 +7215,24 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -7014,24 +7252,24 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45205</v>
+        <v>45207</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -7051,24 +7289,24 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45204</v>
+        <v>45206</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -7088,21 +7326,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -7125,21 +7363,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45199</v>
+        <v>45204</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -7162,24 +7400,24 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45198</v>
+        <v>45203</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -7199,21 +7437,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -7236,24 +7474,24 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -7273,21 +7511,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -7310,21 +7548,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -7347,21 +7585,21 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45193</v>
+        <v>45195</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>135</v>
@@ -7384,24 +7622,24 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45192</v>
+        <v>45194</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -7421,21 +7659,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45191</v>
+        <v>45193</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -7458,24 +7696,24 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -7495,21 +7733,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>135</v>
@@ -7532,21 +7770,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>135</v>
@@ -7569,21 +7807,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>135</v>
@@ -7606,21 +7844,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -7643,21 +7881,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>135</v>
@@ -7680,21 +7918,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -7719,19 +7957,19 @@
     </row>
     <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>135</v>
@@ -7756,19 +7994,19 @@
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>135</v>
@@ -7793,19 +8031,19 @@
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B37" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>135</v>
@@ -7830,22 +8068,22 @@
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -7866,23 +8104,23 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29">
-        <v>45179</v>
+      <c r="A39" s="28">
+        <v>45181</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7904,19 +8142,19 @@
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -7940,23 +8178,23 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28">
-        <v>45176</v>
+      <c r="A41" s="29">
+        <v>45179</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -7978,22 +8216,22 @@
     </row>
     <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -8015,21 +8253,23 @@
     </row>
     <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -8050,7 +8290,7 @@
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
@@ -8059,12 +8299,14 @@
         <v>151</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F44" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -8085,19 +8327,19 @@
     </row>
     <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
@@ -8120,7 +8362,7 @@
     </row>
     <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
@@ -8129,10 +8371,10 @@
         <v>151</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -8154,20 +8396,20 @@
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29">
-        <v>45168</v>
+      <c r="A47" s="28">
+        <v>45170</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
@@ -8188,21 +8430,21 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
-      <c r="A48" s="29">
-        <v>44998</v>
+    <row r="48" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28">
+        <v>45169</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -8223,21 +8465,21 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
@@ -8258,9 +8500,9 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>13</v>
@@ -8271,7 +8513,9 @@
       <c r="D50" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="15" t="s">
+        <v>166</v>
+      </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -8291,21 +8535,21 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -8326,22 +8570,20 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E52" s="15"/>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -8361,21 +8603,21 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
@@ -8396,21 +8638,21 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
@@ -8431,21 +8673,21 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
@@ -8466,21 +8708,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -8501,21 +8743,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
@@ -8536,21 +8778,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -8571,21 +8813,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
@@ -8606,9 +8848,127 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
+    <row r="60" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A61" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B33:B1048576 B1">
+  <conditionalFormatting sqref="B35:B1048576 B1">
+    <cfRule type="cellIs" dxfId="135" priority="176" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="177" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="178" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="179" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="cellIs" dxfId="131" priority="171" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="172" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="173" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="174" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
     <cfRule type="cellIs" dxfId="127" priority="166" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8632,7 +8992,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
+  <conditionalFormatting sqref="B32">
     <cfRule type="cellIs" dxfId="123" priority="161" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8656,7 +9016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="B31">
     <cfRule type="cellIs" dxfId="119" priority="156" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8729,40 +9089,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="107" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="136" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="137" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="138" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="144" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="103" priority="136" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="137" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="138" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="139" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -8776,20 +9112,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="99" priority="126" operator="equal">
+  <conditionalFormatting sqref="B27">
+    <cfRule type="cellIs" dxfId="103" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="134" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8800,17 +9136,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="99" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -8824,6 +9160,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="95" priority="116" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="117" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="118" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="119" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B24">
     <cfRule type="cellIs" dxfId="91" priority="111" operator="equal">
       <formula>"部分完成"</formula>
@@ -9377,7 +9737,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B59" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B61" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -9404,18 +9764,18 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>225</v>
       </c>
@@ -9435,7 +9795,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -9455,7 +9815,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -9475,7 +9835,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -9495,7 +9855,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -9515,7 +9875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4C66D-E97B-4167-BDF8-E55C3FBAB082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF6916-F8AB-4931-B6AE-36CF0A10307D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="22131" windowHeight="11811" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="376">
   <si>
     <t>汇报日期</t>
   </si>
@@ -2013,19 +2013,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。7:52计划，23:20日报
+    <t>今天计划较昨日明显提升，但比起工作日还是不足。别人只会为结果买单，过程如果再艰辛没有结果，也只能感动自己而已。所以要做就一切以结果为导向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福2个article
+3.leetcode，2题
+4.技术, Mybatis面试题+MongoDB
+5.体重减到75.2kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:41计划，23:00日报
+2.完成。09:00~16:30，3小时，article2~4
+3.完成。16:30~17:30，2题
+4.完成。20:00~23:30
+5.未完成。74.8kg，中饭正常，晚饭代餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态大幅下滑，在宠物上花费过多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当出现小问题时没有及时止损，导致状态越来越差。2.当目标没完成时没有及时总结和反思，导致目标不完成成为习惯。3.养了宠物之后客观上需要额外时间投入。但本质还是个人管理没有做好。4.时间长了之后有点忘记当前的处境了。忘了当时是为了什么要破斧沉舟的。本可以边工作边学习的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的听力材料较难，不仅考验听力，而且考验阅读理解。不查字典都无法知道整句话的意思。不愧是高级听力。Leetcode做了2题：610. 判断三角形，151. 反转字符串中的单词。Mybatis：面试题整理结束。MongoDb学习了介绍，应用场景和安装。今天白天至少有4小时没有投入学习。晚上加班补进度还是没完成明天写检讨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。7:45计划，23:40日报
+2.完成。11:30~15:30，2小时，article9
+3.未完成。0题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。16:30~23:30
+5.完成。74.8kg，晚饭没吃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。7:52计划，23:20日报
 2.未完成。9:00~12:00，2小时，article9
 3.未完成。0题
-4.未完成。14:30~23:30，视频51~80
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。14:30~23:30，视频51~80
 5.未完成。76kg，中晚饭正常。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。7:45计划，23:40日报
-2.完成。11:30~15:30，2小时，article9
-3.未完成。0题
-4.完成。16:30~23:30
-5.未完成。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报
+2.英语, 托福3个article
+3.leetcode，2题
+4.技术, MongoDB安装使用。
+5.体重减到75.0kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。8:13计划，23:00日报，睡觉延迟
+2.完成。09:00~16:30，3小时，article2~4
+3.完成。16:30~17:30，2题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。20:00~01:30，执行机制。
+5.未完成。74.7kg，中饭正常，晚饭代餐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行力和状态必须提升，只要有一天目标没完成就要分析原因找到解决方案。别忘了自己当下的处境，别人只会为你的结果买单。不关心你的过程，如果达不到岗位要求，还是找不到工作的。付出这么大的代价，目前只是一厢情愿，如果找不到工作你打算怎么办？你是不是误以为你现在和正常人一样？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2037,7 +2179,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2077,6 +2219,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2192,7 +2342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2286,6 +2436,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2296,7 +2449,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="204">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6271,10 +6466,10 @@
       <c r="D62" s="12">
         <v>44808</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="F62" s="34"/>
+      <c r="F62" s="35"/>
       <c r="G62" s="15" t="s">
         <v>284</v>
       </c>
@@ -6285,16 +6480,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B63:B1048576 B7:B52 B1">
-    <cfRule type="cellIs" dxfId="199" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="85" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -6309,16 +6504,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="195" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6333,16 +6528,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="191" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -6357,16 +6552,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="187" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -6381,16 +6576,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="183" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -6405,16 +6600,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="179" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6429,16 +6624,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="175" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -6453,16 +6648,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="171" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -6477,16 +6672,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="167" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6501,16 +6696,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="163" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6525,16 +6720,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="159" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -6549,16 +6744,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="155" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -6573,16 +6768,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="151" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6597,16 +6792,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="147" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -6621,16 +6816,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="143" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6645,16 +6840,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -6681,13 +6876,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6740,20 +6935,20 @@
     </row>
     <row r="2" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="18"/>
+        <v>367</v>
+      </c>
+      <c r="E2" s="33"/>
       <c r="F2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -6775,18 +6970,20 @@
     </row>
     <row r="3" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45221</v>
+        <v>45222</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="18"/>
+        <v>374</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>370</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
       </c>
@@ -6810,22 +7007,22 @@
     </row>
     <row r="4" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45220</v>
+        <v>45221</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>359</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6847,22 +7044,22 @@
     </row>
     <row r="5" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45219</v>
+        <v>45220</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6884,19 +7081,19 @@
     </row>
     <row r="6" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -6921,19 +7118,19 @@
     </row>
     <row r="7" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -6956,24 +7153,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6995,22 +7192,22 @@
     </row>
     <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -7032,19 +7229,19 @@
     </row>
     <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45213</v>
+        <v>45215</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -7069,19 +7266,19 @@
     </row>
     <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45212</v>
+        <v>45213</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -7106,19 +7303,19 @@
     </row>
     <row r="12" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -7143,19 +7340,19 @@
     </row>
     <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -7180,19 +7377,19 @@
     </row>
     <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -7215,21 +7412,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -7252,24 +7449,24 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -7291,19 +7488,19 @@
     </row>
     <row r="17" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -7328,22 +7525,22 @@
     </row>
     <row r="18" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -7365,19 +7562,19 @@
     </row>
     <row r="19" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -7400,21 +7597,21 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -7437,21 +7634,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -7474,24 +7671,24 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -7511,24 +7708,24 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -7550,19 +7747,19 @@
     </row>
     <row r="24" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -7587,19 +7784,19 @@
     </row>
     <row r="25" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>135</v>
@@ -7622,21 +7819,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -7659,21 +7856,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -7696,24 +7893,24 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -7735,22 +7932,22 @@
     </row>
     <row r="29" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -7772,19 +7969,19 @@
     </row>
     <row r="30" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>135</v>
@@ -7809,19 +8006,19 @@
     </row>
     <row r="31" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>135</v>
@@ -7846,19 +8043,19 @@
     </row>
     <row r="32" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -7883,19 +8080,19 @@
     </row>
     <row r="33" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>135</v>
@@ -7918,21 +8115,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -7955,21 +8152,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>135</v>
@@ -7994,19 +8191,19 @@
     </row>
     <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>135</v>
@@ -8031,19 +8228,19 @@
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>135</v>
@@ -8068,19 +8265,19 @@
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B38" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>135</v>
@@ -8105,7 +8302,7 @@
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>9</v>
@@ -8117,7 +8314,7 @@
         <v>141</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>135</v>
@@ -8142,22 +8339,22 @@
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -8178,22 +8375,22 @@
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29">
-        <v>45179</v>
+      <c r="A41" s="28">
+        <v>45180</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G41" s="1"/>
@@ -8215,22 +8412,22 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28">
-        <v>45178</v>
+      <c r="A42" s="29">
+        <v>45179</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G42" s="1"/>
@@ -8253,22 +8450,22 @@
     </row>
     <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -8290,7 +8487,7 @@
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
@@ -8302,7 +8499,7 @@
         <v>141</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>135</v>
@@ -8327,21 +8524,23 @@
     </row>
     <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -8362,19 +8561,19 @@
     </row>
     <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
@@ -8397,7 +8596,7 @@
     </row>
     <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>9</v>
@@ -8406,10 +8605,10 @@
         <v>151</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
@@ -8432,7 +8631,7 @@
     </row>
     <row r="48" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>9</v>
@@ -8441,10 +8640,10 @@
         <v>151</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -8466,20 +8665,20 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29">
-        <v>45168</v>
+      <c r="A49" s="28">
+        <v>45169</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
@@ -8500,21 +8699,21 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
@@ -8537,19 +8736,19 @@
     </row>
     <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -8572,18 +8771,20 @@
     </row>
     <row r="52" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="15"/>
+        <v>168</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -8605,20 +8806,18 @@
     </row>
     <row r="53" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E53" s="15"/>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -8640,19 +8839,19 @@
     </row>
     <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
@@ -8673,21 +8872,21 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
@@ -8710,19 +8909,19 @@
     </row>
     <row r="56" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -8743,21 +8942,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
@@ -8778,21 +8977,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -8815,19 +9014,19 @@
     </row>
     <row r="59" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
@@ -8848,21 +9047,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
@@ -8883,21 +9082,21 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
@@ -8918,9 +9117,68 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
+    <row r="62" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A62" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B35:B1048576 B1">
+  <conditionalFormatting sqref="B36:B1048576 B1">
+    <cfRule type="cellIs" dxfId="139" priority="181" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="182" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="183" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="184" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
     <cfRule type="cellIs" dxfId="135" priority="176" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8944,7 +9202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
+  <conditionalFormatting sqref="B35">
     <cfRule type="cellIs" dxfId="131" priority="171" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -8968,7 +9226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+  <conditionalFormatting sqref="B33">
     <cfRule type="cellIs" dxfId="127" priority="166" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9065,19 +9323,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="111" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="141" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="143" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="144" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="150">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9113,19 +9371,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="103" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="135">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9737,7 +9995,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B61" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B62" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -9757,17 +10015,17 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
@@ -9895,13 +10153,25 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="26">
+        <v>45223</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF6916-F8AB-4931-B6AE-36CF0A10307D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963BAFD-C07F-4740-9828-FAEE18D13268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="378">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1890,14 +1890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。7:58计划，23:40日报
-2.完成。9:20~16:00，3小时，article2
-3.完成。16:00~17:30，2题
-4.未完成。18:00~01:00，视频21~27
-5.完成。75.1，中饭正常，晚饭代餐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。7:48计划，日报
 2.完成。9:50~13:40，3小时，article3-5
 3.完成。13:45~15:20，4题
@@ -2022,14 +2014,6 @@
 3.leetcode，2题
 4.技术, Mybatis面试题+MongoDB
 5.体重减到75.2kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。7:41计划，23:00日报
-2.完成。09:00~16:30，3小时，article2~4
-3.完成。16:30~17:30，2题
-4.完成。20:00~23:30
-5.未完成。74.8kg，中饭正常，晚饭代餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2107,11 +2091,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>执行力和状态必须提升，只要有一天目标没完成就要分析原因找到解决方案。别忘了自己当下的处境，别人只会为你的结果买单。不关心你的过程，如果达不到岗位要求，还是找不到工作的。付出这么大的代价，目前只是一厢情愿，如果找不到工作你打算怎么办？你是不是误以为你现在和正常人一样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.7点起床做计划，23点日报
 2.英语, 托福3个article
 3.leetcode，2题
-4.技术, MongoDB安装使用。
+4.技术, Mybatis结束+MongoDB。
 5.体重减到75.0kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。7:58计划，23:40日报
+2.完成。9:20~16:00，3小时，article2
+3.完成。16:00~17:30，2题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。18:00~01:00，视频21~27
+5.完成。75.1，中饭正常，晚饭代餐。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2162,12 +2181,28 @@
         <charset val="134"/>
       </rPr>
       <t>。20:00~01:30，执行机制。
-5.未完成。74.7kg，中饭正常，晚饭代餐</t>
+5.完成。74.7kg，中饭正常，晚饭代餐</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行力和状态必须提升，只要有一天目标没完成就要分析原因找到解决方案。别忘了自己当下的处境，别人只会为你的结果买单。不关心你的过程，如果达不到岗位要求，还是找不到工作的。付出这么大的代价，目前只是一厢情愿，如果找不到工作你打算怎么办？你是不是误以为你现在和正常人一样？</t>
+    <t>1.完成。7:41计划，23:50日报
+2.完成。09:00~13:36，3小时，article5~8
+3.完成。14:00~15:30，3题
+4.完成。16:00~23:50，整理结束。
+5.未完成。74.8kg，中晚饭代餐+零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：学了3篇article，学习效率提升后，发现3小时还是有可能学完的。Leetcode：180. 连续出现的数字，11. 盛最多水的容器。Mybatis面试题整理完成。面试题整理的标准应该是能按照自己的思路表达出来。不用面面具到。Mongo安装成功并可以执行基本指令。今天状态相比昨天提升很大，写检讨还是有用的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福3个article
+3.leetcode，2题
+4.技术, MongoDB-5小时。
+5.体重减到74.9kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2179,7 +2214,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2219,14 +2254,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2436,20 +2463,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="208">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4963,13 +5032,13 @@
         <v>45228</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>361</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>362</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
@@ -5003,13 +5072,13 @@
         <v>45221</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="1"/>
@@ -6466,10 +6535,10 @@
       <c r="D62" s="12">
         <v>44808</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="F62" s="35"/>
+      <c r="F62" s="34"/>
       <c r="G62" s="15" t="s">
         <v>284</v>
       </c>
@@ -6480,16 +6549,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B63:B1048576 B7:B52 B1">
-    <cfRule type="cellIs" dxfId="203" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="85" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -6504,16 +6573,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="199" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6528,16 +6597,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="195" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -6552,16 +6621,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="191" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -6576,16 +6645,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="187" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -6600,16 +6669,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="183" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6624,16 +6693,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="179" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -6648,16 +6717,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="175" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -6672,16 +6741,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="171" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6696,16 +6765,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="167" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6720,16 +6789,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="163" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -6744,16 +6813,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="159" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -6768,16 +6837,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="155" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6792,16 +6861,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="151" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -6816,16 +6885,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="147" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6840,16 +6909,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -6876,13 +6945,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -6904,10 +6973,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>133</v>
@@ -6935,21 +7004,19 @@
     </row>
     <row r="2" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="10" t="s">
-        <v>134</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -6970,19 +7037,19 @@
     </row>
     <row r="3" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>370</v>
+        <v>375</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>376</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -7007,19 +7074,19 @@
     </row>
     <row r="4" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45221</v>
+        <v>45222</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -7044,22 +7111,22 @@
     </row>
     <row r="5" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45220</v>
+        <v>45221</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7081,22 +7148,22 @@
     </row>
     <row r="6" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45219</v>
+        <v>45220</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7118,19 +7185,19 @@
     </row>
     <row r="7" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -7155,19 +7222,19 @@
     </row>
     <row r="8" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -7190,24 +7257,24 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>346</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -7229,22 +7296,22 @@
     </row>
     <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -7266,19 +7333,19 @@
     </row>
     <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45213</v>
+        <v>45215</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -7303,19 +7370,19 @@
     </row>
     <row r="12" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45212</v>
+        <v>45213</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -7340,19 +7407,19 @@
     </row>
     <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -7377,19 +7444,19 @@
     </row>
     <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -7414,19 +7481,19 @@
     </row>
     <row r="15" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -7449,21 +7516,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -7486,24 +7553,24 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -7525,19 +7592,19 @@
     </row>
     <row r="18" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -7562,22 +7629,22 @@
     </row>
     <row r="19" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -7599,19 +7666,19 @@
     </row>
     <row r="20" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -7634,21 +7701,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -7671,21 +7738,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -7708,24 +7775,24 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -7745,24 +7812,24 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -7784,19 +7851,19 @@
     </row>
     <row r="25" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>135</v>
@@ -7821,19 +7888,19 @@
     </row>
     <row r="26" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -7856,21 +7923,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -7893,21 +7960,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -7930,24 +7997,24 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -7969,22 +8036,22 @@
     </row>
     <row r="30" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -8006,19 +8073,19 @@
     </row>
     <row r="31" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>135</v>
@@ -8043,19 +8110,19 @@
     </row>
     <row r="32" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -8080,19 +8147,19 @@
     </row>
     <row r="33" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>135</v>
@@ -8117,19 +8184,19 @@
     </row>
     <row r="34" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -8152,21 +8219,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>135</v>
@@ -8189,21 +8256,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>135</v>
@@ -8228,19 +8295,19 @@
     </row>
     <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>135</v>
@@ -8265,19 +8332,19 @@
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>135</v>
@@ -8302,19 +8369,19 @@
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B39" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>135</v>
@@ -8339,7 +8406,7 @@
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>9</v>
@@ -8351,7 +8418,7 @@
         <v>141</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>135</v>
@@ -8376,22 +8443,22 @@
     </row>
     <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -8412,22 +8479,22 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29">
-        <v>45179</v>
+      <c r="A42" s="28">
+        <v>45180</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G42" s="1"/>
@@ -8449,22 +8516,22 @@
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28">
-        <v>45178</v>
+      <c r="A43" s="29">
+        <v>45179</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G43" s="1"/>
@@ -8487,22 +8554,22 @@
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -8524,7 +8591,7 @@
     </row>
     <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
@@ -8536,7 +8603,7 @@
         <v>141</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>135</v>
@@ -8561,21 +8628,23 @@
     </row>
     <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F46" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -8596,19 +8665,19 @@
     </row>
     <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
@@ -8631,7 +8700,7 @@
     </row>
     <row r="48" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>9</v>
@@ -8640,10 +8709,10 @@
         <v>151</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -8666,7 +8735,7 @@
     </row>
     <row r="49" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
@@ -8675,10 +8744,10 @@
         <v>151</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
@@ -8700,20 +8769,20 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29">
-        <v>45168</v>
+      <c r="A50" s="28">
+        <v>45169</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
@@ -8734,21 +8803,21 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -8771,19 +8840,19 @@
     </row>
     <row r="52" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
@@ -8806,18 +8875,20 @@
     </row>
     <row r="53" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="15"/>
+        <v>168</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -8839,20 +8910,18 @@
     </row>
     <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E54" s="15"/>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -8874,19 +8943,19 @@
     </row>
     <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
@@ -8907,21 +8976,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -8944,19 +9013,19 @@
     </row>
     <row r="57" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
@@ -8977,21 +9046,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -9012,21 +9081,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
@@ -9049,19 +9118,19 @@
     </row>
     <row r="60" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
@@ -9082,21 +9151,21 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
@@ -9117,21 +9186,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
@@ -9152,9 +9221,68 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
+    <row r="63" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A63" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B36:B1048576 B1">
+  <conditionalFormatting sqref="B37:B1048576 B1">
+    <cfRule type="cellIs" dxfId="143" priority="186" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="187" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="188" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="189" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
     <cfRule type="cellIs" dxfId="139" priority="181" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9178,7 +9306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+  <conditionalFormatting sqref="B36">
     <cfRule type="cellIs" dxfId="135" priority="176" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9202,7 +9330,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="B34">
     <cfRule type="cellIs" dxfId="131" priority="171" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9299,19 +9427,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="115" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="146" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="147" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="148" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="149" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="155">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9347,19 +9475,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="107" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="134" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9995,7 +10123,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B62" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B63" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10015,7 +10143,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10164,13 +10292,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963BAFD-C07F-4740-9828-FAEE18D13268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D166A4-D39D-4F70-9A16-46C691A2EC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="381">
   <si>
     <t>汇报日期</t>
   </si>
@@ -2186,14 +2186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。7:41计划，23:50日报
-2.完成。09:00~13:36，3小时，article5~8
-3.完成。14:00~15:30，3题
-4.完成。16:00~23:50，整理结束。
-5.未完成。74.8kg，中晚饭代餐+零食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语：学了3篇article，学习效率提升后，发现3小时还是有可能学完的。Leetcode：180. 连续出现的数字，11. 盛最多水的容器。Mybatis面试题整理完成。面试题整理的标准应该是能按照自己的思路表达出来。不用面面具到。Mongo安装成功并可以执行基本指令。今天状态相比昨天提升很大，写检讨还是有用的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2203,6 +2195,57 @@
 3.leetcode，2题
 4.技术, MongoDB-5小时。
 5.体重减到74.9kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:41计划，23:50日报
+2.完成。09:00~13:36，3小时，article5~8
+3.完成。14:00~15:30，3题
+4.完成。16:00~23:50，整理结束。
+5.完成。74.9kg，中晚饭代餐+零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode:1164. 指定日期的产品价格,1204. 最后一个能进入巴士的人,104. 二叉树的最大深度。MongoDB学习，看了《MongoDB最热门NoSql数据库》视频3~8，学习了MongoDB的基本操作。回到家后，状态下降严重，要把家人当成奋斗的动力而不是障碍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。7:42计划，23:36日报
+2.完成。09:00~15:00，3小时，article10~2
+3.完成。16:10~17:30，3题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。17:30~23:30，2小时。
+5.未完成。74.8kg，中晚饭代餐+零食</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福3个article
+3.leetcode，2题
+4.技术, MongoDB结束。
+5.体重减到75.0kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2463,20 +2506,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="208">
+  <dxfs count="212">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6535,10 +6620,10 @@
       <c r="D62" s="12">
         <v>44808</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="F62" s="34"/>
+      <c r="F62" s="35"/>
       <c r="G62" s="15" t="s">
         <v>284</v>
       </c>
@@ -6549,16 +6634,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B63:B1048576 B7:B52 B1">
-    <cfRule type="cellIs" dxfId="207" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="85" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -6573,16 +6658,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="203" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6597,16 +6682,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="199" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -6621,16 +6706,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="195" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -6645,16 +6730,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="191" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -6669,16 +6754,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="187" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6693,16 +6778,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="183" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -6717,16 +6802,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="179" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -6741,16 +6826,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6765,16 +6850,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="171" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6789,16 +6874,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="167" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -6813,16 +6898,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="163" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -6837,16 +6922,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="159" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6861,16 +6946,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="155" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -6885,16 +6970,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6909,16 +6994,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -6945,7 +7030,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -7004,19 +7089,23 @@
     </row>
     <row r="2" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="10"/>
+        <v>379</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7037,22 +7126,22 @@
     </row>
     <row r="3" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>376</v>
+        <v>379</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>378</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -7074,19 +7163,19 @@
     </row>
     <row r="4" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>368</v>
+        <v>377</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>375</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -7111,19 +7200,19 @@
     </row>
     <row r="5" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45221</v>
+        <v>45222</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -7148,22 +7237,22 @@
     </row>
     <row r="6" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45220</v>
+        <v>45221</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -7185,22 +7274,22 @@
     </row>
     <row r="7" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45219</v>
+        <v>45220</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7222,19 +7311,19 @@
     </row>
     <row r="8" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -7259,19 +7348,19 @@
     </row>
     <row r="9" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -7294,24 +7383,24 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -7333,22 +7422,22 @@
     </row>
     <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7370,19 +7459,19 @@
     </row>
     <row r="12" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45213</v>
+        <v>45215</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -7407,19 +7496,19 @@
     </row>
     <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45212</v>
+        <v>45213</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -7444,19 +7533,19 @@
     </row>
     <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -7481,19 +7570,19 @@
     </row>
     <row r="15" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -7518,19 +7607,19 @@
     </row>
     <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -7553,21 +7642,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -7590,24 +7679,24 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -7629,19 +7718,19 @@
     </row>
     <row r="19" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -7666,22 +7755,22 @@
     </row>
     <row r="20" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -7703,19 +7792,19 @@
     </row>
     <row r="21" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -7738,21 +7827,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -7775,21 +7864,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -7812,24 +7901,24 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -7849,24 +7938,24 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -7888,19 +7977,19 @@
     </row>
     <row r="26" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -7925,19 +8014,19 @@
     </row>
     <row r="27" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -7960,21 +8049,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -7997,21 +8086,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>135</v>
@@ -8034,24 +8123,24 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -8073,22 +8162,22 @@
     </row>
     <row r="31" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -8110,19 +8199,19 @@
     </row>
     <row r="32" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -8147,19 +8236,19 @@
     </row>
     <row r="33" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>135</v>
@@ -8184,19 +8273,19 @@
     </row>
     <row r="34" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -8221,19 +8310,19 @@
     </row>
     <row r="35" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>135</v>
@@ -8256,21 +8345,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>135</v>
@@ -8293,21 +8382,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>135</v>
@@ -8332,19 +8421,19 @@
     </row>
     <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>135</v>
@@ -8369,19 +8458,19 @@
     </row>
     <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>135</v>
@@ -8406,19 +8495,19 @@
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B40" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>135</v>
@@ -8443,7 +8532,7 @@
     </row>
     <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>9</v>
@@ -8455,7 +8544,7 @@
         <v>141</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>135</v>
@@ -8480,22 +8569,22 @@
     </row>
     <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -8516,22 +8605,22 @@
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29">
-        <v>45179</v>
+      <c r="A43" s="28">
+        <v>45180</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="13" t="s">
+      <c r="C43" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G43" s="1"/>
@@ -8553,22 +8642,22 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28">
-        <v>45178</v>
+      <c r="A44" s="29">
+        <v>45179</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G44" s="1"/>
@@ -8591,22 +8680,22 @@
     </row>
     <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -8628,7 +8717,7 @@
     </row>
     <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
@@ -8640,7 +8729,7 @@
         <v>141</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>135</v>
@@ -8665,21 +8754,23 @@
     </row>
     <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -8700,19 +8791,19 @@
     </row>
     <row r="48" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
@@ -8735,7 +8826,7 @@
     </row>
     <row r="49" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
@@ -8744,10 +8835,10 @@
         <v>151</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
@@ -8770,7 +8861,7 @@
     </row>
     <row r="50" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>9</v>
@@ -8779,10 +8870,10 @@
         <v>151</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
@@ -8804,20 +8895,20 @@
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29">
-        <v>45168</v>
+      <c r="A51" s="28">
+        <v>45169</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -8838,21 +8929,21 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
@@ -8875,19 +8966,19 @@
     </row>
     <row r="53" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
@@ -8910,18 +9001,20 @@
     </row>
     <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="15"/>
+        <v>168</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -8943,20 +9036,18 @@
     </row>
     <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E55" s="15"/>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -8978,19 +9069,19 @@
     </row>
     <row r="56" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -9011,21 +9102,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
@@ -9048,19 +9139,19 @@
     </row>
     <row r="58" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -9081,21 +9172,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
@@ -9116,21 +9207,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
@@ -9153,19 +9244,19 @@
     </row>
     <row r="61" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
@@ -9186,21 +9277,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
@@ -9221,21 +9312,21 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
@@ -9256,9 +9347,68 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
+    <row r="64" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A64" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B37:B1048576 B1">
+  <conditionalFormatting sqref="B38:B1048576 B1">
+    <cfRule type="cellIs" dxfId="147" priority="191" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="192" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="193" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="194" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
     <cfRule type="cellIs" dxfId="143" priority="186" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9282,7 +9432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="B37">
     <cfRule type="cellIs" dxfId="139" priority="181" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9306,7 +9456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+  <conditionalFormatting sqref="B35">
     <cfRule type="cellIs" dxfId="135" priority="176" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9403,19 +9553,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="119" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="151" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="152" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="154" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9451,19 +9601,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="111" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="136" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="137" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="138" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="139" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10123,7 +10273,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B63" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D166A4-D39D-4F70-9A16-46C691A2EC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A67CC6-C90D-492F-86D9-89F4D42B4552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="389">
   <si>
     <t>汇报日期</t>
   </si>
@@ -2236,7 +2236,7 @@
         <charset val="134"/>
       </rPr>
       <t>。17:30~23:30，2小时。
-5.未完成。74.8kg，中晚饭代餐+零食</t>
+5.未完成。75.5kg，中晚饭代餐+零食</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2245,7 +2245,131 @@
 2.英语, 托福3个article
 3.leetcode，2题
 4.技术, MongoDB结束。
-5.体重减到75.0kg</t>
+5.体重减到75.4kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode:1907. 按分类统计薪水,167. 两数之和 II - 输入有序数组,优化之后性能提升了400倍。2. MongoDB学习，看了《MongoDB最热门NoSql数据库》部分视频。
+   1. 使用Springboot连接MongoDB插入数据成功.
+   2. 学习了MongoDb的特点和应用场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福2个article
+3.leetcode，2题
+4.技术, mysql5小时。
+5.体重减到75.3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:53计划，23:59日报
+2.完成。21:00~23:59，3小时，article3~6
+3.完成。18:10~20:00，2题
+4.完成。10:00~16:30，已结束。
+5.完成。75.3kg，中晚饭零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：听了2个article，听抖音学了听力提升办法。
+1. Leetcode做了2题：1978. 上级经理已离职的公司员工，15. 三数之和
+2. 看了一篇文章不建议在docker中使用数据库，于是在虚拟机中重新安装了MySQL8。1. 开通root用户外网访问权限。update user set host = '%' where user = 'root';。3. 视频《MySQL实战调优》看了1~2，学习了show profile;命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。7:48计划，23:36日报
+2.完成。09:00~13:20，3小时，article7~8
+3.完成。14:30~17:08，2题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。19:00~00:00，2小时。
+5.完成。74.6kg，晚上吃了栗子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福2个article
+3.leetcode，2题
+4.技术, mysql2小时。
+5.体重减到75.2kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。8:55计划，23:36日报
+2.完成。09:00~13:20，3小时，article7~8
+3.完成。20:00~21:30，2题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。19:00~00:00，2小时。
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。74.8kg，晚上吃了栗子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天发生特殊情况，送家人去医院。本周目标延期到明天。
+leetcode:626. 换座位，1341. 电影评分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2519,7 +2643,91 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="212">
+  <dxfs count="220">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6634,16 +6842,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B63:B1048576 B7:B52 B1">
-    <cfRule type="cellIs" dxfId="211" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="85" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -6658,16 +6866,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="207" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6682,16 +6890,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="203" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -6706,16 +6914,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="199" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -6730,16 +6938,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="195" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -6754,16 +6962,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="191" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6778,16 +6986,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="187" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -6802,16 +7010,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="183" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -6826,16 +7034,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="179" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -6850,16 +7058,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="175" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6874,16 +7082,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="171" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -6898,16 +7106,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="167" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -6922,16 +7130,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="163" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6946,16 +7154,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="159" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -6970,16 +7178,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="155" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6994,16 +7202,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -7030,13 +7238,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7089,22 +7297,22 @@
     </row>
     <row r="2" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45225</v>
+        <v>45227</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -7126,22 +7334,22 @@
     </row>
     <row r="3" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45224</v>
+        <v>45226</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -7163,19 +7371,19 @@
     </row>
     <row r="4" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45223</v>
+        <v>45225</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -7200,22 +7408,22 @@
     </row>
     <row r="5" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>368</v>
+        <v>379</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>378</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7237,19 +7445,19 @@
     </row>
     <row r="6" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45221</v>
+        <v>45223</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>364</v>
+        <v>377</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>375</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -7274,22 +7482,22 @@
     </row>
     <row r="7" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45220</v>
+        <v>45222</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7311,19 +7519,19 @@
     </row>
     <row r="8" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45219</v>
+        <v>45221</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -7348,22 +7556,22 @@
     </row>
     <row r="9" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45218</v>
+        <v>45220</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -7385,19 +7593,19 @@
     </row>
     <row r="10" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -7420,24 +7628,24 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45216</v>
+        <v>45218</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7457,21 +7665,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45215</v>
+        <v>45217</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -7496,22 +7704,22 @@
     </row>
     <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45213</v>
+        <v>45216</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -7533,19 +7741,19 @@
     </row>
     <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -7570,19 +7778,19 @@
     </row>
     <row r="15" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45211</v>
+        <v>45213</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -7607,19 +7815,19 @@
     </row>
     <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45210</v>
+        <v>45212</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -7644,19 +7852,19 @@
     </row>
     <row r="17" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -7679,21 +7887,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -7718,22 +7926,22 @@
     </row>
     <row r="19" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45207</v>
+        <v>45209</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -7753,24 +7961,24 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -7792,22 +8000,22 @@
     </row>
     <row r="21" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45205</v>
+        <v>45207</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -7829,22 +8037,22 @@
     </row>
     <row r="22" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45204</v>
+        <v>45206</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -7864,21 +8072,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -7901,21 +8109,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45199</v>
+        <v>45204</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>135</v>
@@ -7940,22 +8148,22 @@
     </row>
     <row r="25" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45198</v>
+        <v>45203</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -7975,21 +8183,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -8012,24 +8220,24 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -8051,19 +8259,19 @@
     </row>
     <row r="28" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -8086,21 +8294,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>135</v>
@@ -8123,21 +8331,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45193</v>
+        <v>45195</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>135</v>
@@ -8162,22 +8370,22 @@
     </row>
     <row r="31" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45192</v>
+        <v>45194</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -8197,21 +8405,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45191</v>
+        <v>45193</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -8236,22 +8444,22 @@
     </row>
     <row r="33" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -8273,19 +8481,19 @@
     </row>
     <row r="34" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -8310,19 +8518,19 @@
     </row>
     <row r="35" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>135</v>
@@ -8347,19 +8555,19 @@
     </row>
     <row r="36" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>135</v>
@@ -8382,21 +8590,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>135</v>
@@ -8419,21 +8627,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>135</v>
@@ -8456,21 +8664,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>135</v>
@@ -8495,19 +8703,19 @@
     </row>
     <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>135</v>
@@ -8532,19 +8740,19 @@
     </row>
     <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>135</v>
@@ -8569,19 +8777,19 @@
     </row>
     <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B42" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>135</v>
@@ -8606,22 +8814,22 @@
     </row>
     <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -8642,23 +8850,23 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29">
-        <v>45179</v>
+      <c r="A44" s="28">
+        <v>45181</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -8680,19 +8888,19 @@
     </row>
     <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>134</v>
@@ -8716,23 +8924,23 @@
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28">
-        <v>45176</v>
+      <c r="A46" s="29">
+        <v>45179</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -8754,22 +8962,22 @@
     </row>
     <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -8791,21 +8999,23 @@
     </row>
     <row r="48" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F48" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -8826,7 +9036,7 @@
     </row>
     <row r="49" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
@@ -8835,12 +9045,14 @@
         <v>151</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -8861,19 +9073,19 @@
     </row>
     <row r="50" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
@@ -8896,7 +9108,7 @@
     </row>
     <row r="51" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>9</v>
@@ -8905,10 +9117,10 @@
         <v>151</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
@@ -8930,20 +9142,20 @@
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29">
-        <v>45168</v>
+      <c r="A52" s="28">
+        <v>45170</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
@@ -8964,21 +9176,21 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A53" s="29">
-        <v>44998</v>
+    <row r="53" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28">
+        <v>45169</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
@@ -8999,21 +9211,21 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
@@ -9036,7 +9248,7 @@
     </row>
     <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
@@ -9047,7 +9259,9 @@
       <c r="D55" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E55" s="15"/>
+      <c r="E55" s="15" t="s">
+        <v>166</v>
+      </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -9069,19 +9283,19 @@
     </row>
     <row r="56" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -9104,20 +9318,18 @@
     </row>
     <row r="57" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E57" s="15"/>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -9137,21 +9349,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -9172,21 +9384,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
@@ -9207,21 +9419,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
@@ -9244,19 +9456,19 @@
     </row>
     <row r="61" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
@@ -9277,21 +9489,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
@@ -9312,21 +9524,21 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
@@ -9347,21 +9559,21 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
@@ -9382,9 +9594,127 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
+    <row r="65" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A66" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B38:B1048576 B1">
+  <conditionalFormatting sqref="B40:B1048576 B1">
+    <cfRule type="cellIs" dxfId="155" priority="201" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="202" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="203" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="204" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="cellIs" dxfId="151" priority="196" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="197" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="198" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="199" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
     <cfRule type="cellIs" dxfId="147" priority="191" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9408,7 +9738,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+  <conditionalFormatting sqref="B37">
     <cfRule type="cellIs" dxfId="143" priority="186" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9432,7 +9762,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B36">
     <cfRule type="cellIs" dxfId="139" priority="181" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9505,40 +9835,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="127" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="161" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="162" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="163" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="169" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="123" priority="161" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="162" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="163" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="164" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="165">
@@ -9552,20 +9858,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="119" priority="151" operator="equal">
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="123" priority="156" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="157" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="159" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="155">
+    <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9576,17 +9882,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="115" priority="146" operator="equal">
+  <conditionalFormatting sqref="B31">
+    <cfRule type="cellIs" dxfId="119" priority="146" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="147" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="148" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="149" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="150">
@@ -9600,6 +9906,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="115" priority="141" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B29">
     <cfRule type="cellIs" dxfId="111" priority="136" operator="equal">
       <formula>"部分完成"</formula>
@@ -10273,7 +10603,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B64" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B66" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A67CC6-C90D-492F-86D9-89F4D42B4552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38EFE2-D524-4BAA-8B89-4F2B4C91F611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1946" yWindow="1646" windowWidth="19217" windowHeight="9977" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="397">
   <si>
     <t>汇报日期</t>
   </si>
@@ -1987,10 +1987,6 @@
 2.完成。实际：mybatis，11题
 3.完成。实际：高级article3
 4.完成。实际：周日：20:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周状态已经恢复正常。Mybatis源码学习结束，但是学习效果仍有提升空间。英语听力总体听感提升，没有出现一句话听个几十遍都听不懂的情况了。但还未达到听一遍就能知道意思的程度。下周仍需继续积累。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2316,9 +2312,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>今天发生特殊情况，送家人去医院。本周目标延期到明天。
+leetcode:626. 换座位，1341. 电影评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1.完成。8:55计划，23:36日报
-2.完成。09:00~13:20，3小时，article7~8
+      <t>1.延期完成。8:55计划，23:05日报
+2.未完成。
 3.完成。20:00~21:30，2题
 4.</t>
     </r>
@@ -2341,8 +2342,17 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>。19:00~00:00，2小时。
-5.</t>
+      <t>。
+5.完成。74.9kg，晚上吃了栗子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。7:55计划，23:05日报
+2.完成。09:30~10:30，article10
+3.完成。20:00~21:30，2题
+4.</t>
     </r>
     <r>
       <rPr>
@@ -2363,13 +2373,59 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>。74.8kg，晚上吃了栗子</t>
+      <t>。
+5.完成。74.9kg，晚上吃了栗子</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天发生特殊情况，送家人去医院。本周目标延期到明天。
-leetcode:626. 换座位，1341. 电影评分</t>
+    <t>1.完成。实际：5天
+2.完成。实际：mongoDB，11题
+3.完成。实际：已完成
+4.完成。实际：周日：21:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：本周扇贝听力口语-《450句助力托福计划》学习结束。技术：leetcode共做了12题。MongoDB基础部分结束。学习了安装，使用，java基础调用。按时起床睡觉写日报。在宠物上的投入显著减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持5天：7点起床，确定当天计划，23点日报睡觉。
+2.技术：看完视频《MySQL实战调优》(不含笔记)。
+3.英语：学习18小时。
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福1个article
+3.leetcode，2题(非必须)
+4.周报
+5.体重减到75.2kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午学习英语article10，晚上写了周报和leetcode题目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福1个article
+3.leetcode，2题
+4.周报
+5.体重减到75.2kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:55计划，22:56日报
+2.完成。09:30~10:30，article10
+3.完成。22:00~22:50，2题
+4.完成。
+5.完成。74.9kg，晚上吃了栗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午学习英语article10，晚上写了周报和leetcode题目。1321. 餐馆营业额变化增长。602. 好友申请 II ：谁有最多的好友。学到了高级SQL语法over(order by date range interval 6 day preceding),写了Mermaid笔记。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2643,7 +2699,133 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="220">
+  <dxfs count="232">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5267,28 +5449,28 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7265625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5313,26 +5495,24 @@
     </row>
     <row r="2" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="7">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="D2" s="7">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>361</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G2" s="18"/>
       <c r="H2" s="31"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -5353,25 +5533,25 @@
     </row>
     <row r="3" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="D3" s="7">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="1"/>
@@ -5393,25 +5573,25 @@
     </row>
     <row r="4" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>45204</v>
+        <v>45215</v>
       </c>
       <c r="D4" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="1"/>
@@ -5433,25 +5613,25 @@
     </row>
     <row r="5" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="D5" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="1"/>
@@ -5473,27 +5653,27 @@
     </row>
     <row r="6" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D6" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="H6" s="31"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -5513,25 +5693,25 @@
     </row>
     <row r="7" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7">
-        <v>45179</v>
+        <v>45187</v>
       </c>
       <c r="D7" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5553,25 +5733,25 @@
     </row>
     <row r="8" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>45178</v>
+        <v>45186</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>45171</v>
+        <v>45179</v>
       </c>
       <c r="D8" s="7">
-        <v>45177</v>
+        <v>45186</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5593,25 +5773,25 @@
     </row>
     <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
         <v>45171</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45164</v>
-      </c>
       <c r="D9" s="7">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -5632,810 +5812,827 @@
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>45163</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12">
-        <v>45157</v>
-      </c>
-      <c r="D10" s="12">
-        <v>45163</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="7">
+        <v>45171</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45164</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45170</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
     </row>
     <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12">
-        <v>45150</v>
+        <v>45157</v>
       </c>
       <c r="D11" s="12">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <v>45150</v>
+        <v>45156</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="D12" s="12">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="12">
-        <v>45136</v>
+        <v>45143</v>
       </c>
       <c r="D13" s="12">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
+        <v>45143</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
         <v>45136</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12">
-        <v>45129</v>
-      </c>
       <c r="D14" s="12">
-        <v>45135</v>
+        <v>45142</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <v>45129</v>
+        <v>45136</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="12">
-        <v>45122</v>
+        <v>45129</v>
       </c>
       <c r="D15" s="12">
-        <v>45128</v>
+        <v>45135</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
+        <v>45129</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
         <v>45122</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12">
-        <v>45115</v>
-      </c>
       <c r="D16" s="12">
-        <v>45121</v>
+        <v>45128</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>45115</v>
+        <v>45122</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="12">
-        <v>45108</v>
+        <v>45115</v>
       </c>
       <c r="D17" s="12">
-        <v>45114</v>
+        <v>45121</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>45107</v>
+        <v>45115</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="12">
-        <v>45101</v>
+        <v>45108</v>
       </c>
       <c r="D18" s="12">
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12">
         <v>45101</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="12">
-        <v>45094</v>
-      </c>
       <c r="D19" s="12">
-        <v>45100</v>
+        <v>45107</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="D20" s="12">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="12">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="D21" s="12">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
+        <v>45087</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12">
         <v>45080</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12">
-        <v>45073</v>
-      </c>
       <c r="D22" s="12">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="12">
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="D23" s="12">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>45065</v>
+        <v>45073</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="12">
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="D24" s="12">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="12">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="D25" s="12">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="12">
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="D26" s="12">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="12">
-        <v>45038</v>
+        <v>45045</v>
       </c>
       <c r="D27" s="12">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="12">
-        <v>45031</v>
+        <v>45038</v>
       </c>
       <c r="D28" s="12">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="12">
-        <v>45024</v>
+        <v>45031</v>
       </c>
       <c r="D29" s="12">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>45024</v>
+        <v>45030</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="12">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="D30" s="12">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <v>45009</v>
+        <v>45024</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="12">
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="D31" s="12">
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>45009</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" s="12">
-        <v>45010</v>
+        <v>45003</v>
       </c>
       <c r="D32" s="12">
-        <v>45016</v>
+        <v>45009</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
-        <v>45003</v>
+        <v>45009</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="12">
-        <v>44996</v>
+        <v>45010</v>
       </c>
       <c r="D33" s="12">
-        <v>45002</v>
+        <v>45016</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
+        <v>45003</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12">
         <v>44996</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="12">
-        <v>44989</v>
-      </c>
       <c r="D34" s="12">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
+        <v>44996</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="12">
         <v>44989</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="12">
-        <v>44982</v>
-      </c>
       <c r="D35" s="12">
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <v>44983</v>
+        <v>44989</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="12">
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="D36" s="12">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
+        <v>44983</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="12">
         <v>44975</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="12">
-        <v>44968</v>
-      </c>
       <c r="D37" s="12">
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>44968</v>
+        <v>44975</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="12">
-        <v>44961</v>
+        <v>44968</v>
       </c>
       <c r="D38" s="12">
-        <v>44967</v>
+        <v>44974</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <v>44960</v>
+        <v>44968</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="12">
-        <v>44954</v>
+        <v>44961</v>
       </c>
       <c r="D39" s="12">
-        <v>44960</v>
+        <v>44967</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="12">
-        <v>44947</v>
+        <v>44954</v>
       </c>
       <c r="D40" s="12">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" s="12">
-        <v>44940</v>
+        <v>44947</v>
       </c>
       <c r="D41" s="12">
-        <v>44946</v>
+        <v>44953</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>44940</v>
+        <v>44946</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="D42" s="12">
-        <v>44939</v>
+        <v>44946</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="D43" s="12">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="D44" s="12">
-        <v>44925</v>
+        <v>44932</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="D45" s="12">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>110</v>
@@ -6444,171 +6641,171 @@
         <v>111</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="D46" s="12">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="D47" s="12">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="D48" s="12">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="12">
-        <v>44883</v>
+        <v>44890</v>
       </c>
       <c r="D49" s="12">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F49" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>44890</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="12">
+        <v>44883</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44890</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G50" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="87" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+    <row r="51" spans="1:7" ht="83.15" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
         <v>44883</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C51" s="12">
         <v>44876</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <v>44883</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F51" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G51" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+    <row r="52" spans="1:7" ht="71.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
         <v>44876</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="12">
-        <v>44870</v>
-      </c>
-      <c r="D51" s="12">
-        <v>44876</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
-        <v>44870</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="12">
-        <v>44863</v>
+        <v>44870</v>
       </c>
       <c r="D52" s="12">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="68.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>44870</v>
       </c>
@@ -6631,230 +6828,253 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="86.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="68.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="12">
-        <v>44855</v>
+        <v>44863</v>
       </c>
       <c r="D54" s="12">
+        <v>44869</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="86.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
         <v>44862</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
-        <v>44855</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="12">
-        <v>44849</v>
+        <v>44855</v>
       </c>
       <c r="D55" s="12">
+        <v>44862</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="74.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>44855</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
-        <v>44848</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="12">
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="D56" s="12">
+        <v>44855</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
         <v>44848</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
-        <v>44842</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="12">
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="D57" s="12">
+        <v>44848</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
         <v>44842</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
-        <v>44834</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="12">
-        <v>44829</v>
+        <v>44835</v>
       </c>
       <c r="D58" s="12">
+        <v>44842</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
         <v>44834</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
-        <v>44829</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="12">
-        <v>44823</v>
+        <v>44829</v>
       </c>
       <c r="D59" s="12">
+        <v>44834</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
         <v>44829</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
-        <v>44822</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="12">
-        <v>44815</v>
+        <v>44823</v>
       </c>
       <c r="D60" s="12">
+        <v>44829</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="77.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
         <v>44822</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="94.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
-        <v>44813</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="12">
-        <v>44807</v>
+        <v>44815</v>
       </c>
       <c r="D61" s="12">
+        <v>44822</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
         <v>44813</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
-        <v>44808</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12">
+        <v>44807</v>
+      </c>
+      <c r="D62" s="12">
+        <v>44813</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="135.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>44808</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="12">
         <v>44800</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <v>44808</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E63" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="15" t="s">
+      <c r="F63" s="35"/>
+      <c r="G63" s="15" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B63:B1048576 B7:B52 B1">
-    <cfRule type="cellIs" dxfId="219" priority="81" operator="equal">
+  <conditionalFormatting sqref="B64:B1048576 B8:B53 B1">
+    <cfRule type="cellIs" dxfId="231" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="95" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6865,17 +7085,65 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="227" priority="86" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="87" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="88" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="89" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="215" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="84" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="cellIs" dxfId="219" priority="76" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="77" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="78" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6889,17 +7157,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="211" priority="71" operator="equal">
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="215" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -6913,17 +7181,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="207" priority="66" operator="equal">
+  <conditionalFormatting sqref="B56">
+    <cfRule type="cellIs" dxfId="211" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -6937,17 +7205,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="203" priority="61" operator="equal">
+  <conditionalFormatting sqref="B57">
+    <cfRule type="cellIs" dxfId="207" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -6961,17 +7229,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="199" priority="56" operator="equal">
+  <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="203" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -6985,17 +7253,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="195" priority="51" operator="equal">
+  <conditionalFormatting sqref="B59">
+    <cfRule type="cellIs" dxfId="199" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -7009,17 +7277,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="191" priority="46" operator="equal">
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="195" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -7033,41 +7301,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="187" priority="41" operator="equal">
+  <conditionalFormatting sqref="B61">
+    <cfRule type="cellIs" dxfId="191" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="44" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="183" priority="36" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="37" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="38" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -7081,17 +7325,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="179" priority="26" operator="equal">
+  <conditionalFormatting sqref="B62">
+    <cfRule type="cellIs" dxfId="187" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="34" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="cellIs" dxfId="183" priority="26" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="27" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="28" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -7105,17 +7373,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="175" priority="21" operator="equal">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="179" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -7129,17 +7397,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="171" priority="16" operator="equal">
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="175" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -7153,41 +7421,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="167" priority="11" operator="equal">
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="171" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="14" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="163" priority="6" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="7" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="8" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7202,16 +7446,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -7229,7 +7473,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D62 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D63 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7238,27 +7482,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.6328125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.9140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.6" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -7295,21 +7539,21 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45227</v>
+        <v>45229</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>135</v>
@@ -7332,21 +7576,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45226</v>
+        <v>45228</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -7369,21 +7613,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45225</v>
+        <v>45227</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -7406,24 +7650,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45224</v>
+        <v>45226</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7443,21 +7687,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45223</v>
+        <v>45225</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -7480,24 +7724,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>368</v>
+        <v>378</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>377</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7517,21 +7761,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45221</v>
+        <v>45223</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>364</v>
+        <v>376</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>374</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -7554,24 +7798,24 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45220</v>
+        <v>45222</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -7591,21 +7835,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45219</v>
+        <v>45221</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -7628,24 +7872,24 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45218</v>
+        <v>45220</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7665,21 +7909,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>135</v>
@@ -7702,24 +7946,24 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45216</v>
+        <v>45218</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -7739,21 +7983,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45215</v>
+        <v>45217</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -7776,24 +8020,24 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="69.45" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45213</v>
+        <v>45216</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -7813,21 +8057,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>135</v>
@@ -7850,21 +8094,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45211</v>
+        <v>45213</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -7887,21 +8131,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45210</v>
+        <v>45212</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -7924,21 +8168,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -7961,21 +8205,21 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="96" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -7998,24 +8242,24 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45207</v>
+        <v>45209</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -8035,24 +8279,24 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -8072,24 +8316,24 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45205</v>
+        <v>45207</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -8109,24 +8353,24 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45204</v>
+        <v>45206</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -8146,21 +8390,21 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>135</v>
@@ -8183,21 +8427,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45199</v>
+        <v>45204</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -8220,24 +8464,24 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45198</v>
+        <v>45203</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -8257,21 +8501,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45197</v>
+        <v>45199</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -8294,24 +8538,24 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -8331,21 +8575,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>135</v>
@@ -8368,21 +8612,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>135</v>
@@ -8405,21 +8649,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45193</v>
+        <v>45195</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -8442,24 +8686,24 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45192</v>
+        <v>45194</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -8479,21 +8723,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45191</v>
+        <v>45193</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -8516,24 +8760,24 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -8553,21 +8797,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>135</v>
@@ -8590,21 +8834,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>135</v>
@@ -8627,21 +8871,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>135</v>
@@ -8664,21 +8908,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>135</v>
@@ -8701,21 +8945,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45185</v>
+        <v>45187</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>135</v>
@@ -8738,21 +8982,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>135</v>
@@ -8777,19 +9021,19 @@
     </row>
     <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
-        <v>45183</v>
+        <v>45185</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>135</v>
@@ -8814,19 +9058,19 @@
     </row>
     <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>9</v>
+        <v>45184</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>135</v>
@@ -8851,19 +9095,19 @@
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
-        <v>45181</v>
-      </c>
-      <c r="B44" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>135</v>
@@ -8888,22 +9132,22 @@
     </row>
     <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -8924,23 +9168,23 @@
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29">
-        <v>45179</v>
+      <c r="A46" s="28">
+        <v>45181</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>134</v>
+        <v>9</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -8962,19 +9206,19 @@
     </row>
     <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
-        <v>45178</v>
+        <v>45180</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -8998,23 +9242,23 @@
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28">
-        <v>45176</v>
+      <c r="A48" s="29">
+        <v>45179</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -9036,22 +9280,22 @@
     </row>
     <row r="49" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28">
-        <v>45175</v>
+        <v>45178</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -9073,21 +9317,23 @@
     </row>
     <row r="50" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -9108,7 +9354,7 @@
     </row>
     <row r="51" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>9</v>
@@ -9117,12 +9363,14 @@
         <v>151</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -9143,19 +9391,19 @@
     </row>
     <row r="52" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
@@ -9178,7 +9426,7 @@
     </row>
     <row r="53" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>9</v>
@@ -9187,10 +9435,10 @@
         <v>151</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
@@ -9212,20 +9460,20 @@
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29">
-        <v>45168</v>
+      <c r="A54" s="28">
+        <v>45170</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
@@ -9246,21 +9494,21 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="29" x14ac:dyDescent="0.3">
-      <c r="A55" s="29">
-        <v>44998</v>
+    <row r="55" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28">
+        <v>45169</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
@@ -9281,21 +9529,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
-        <v>44997</v>
+        <v>45168</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -9316,9 +9564,9 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
@@ -9329,7 +9577,9 @@
       <c r="D57" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E57" s="15"/>
+      <c r="E57" s="15" t="s">
+        <v>166</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -9349,21 +9599,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -9384,22 +9634,20 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E59" s="15"/>
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -9419,21 +9667,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
@@ -9454,21 +9702,21 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
@@ -9489,21 +9737,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
@@ -9524,21 +9772,21 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
@@ -9559,21 +9807,21 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
@@ -9594,21 +9842,21 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="1"/>
@@ -9629,21 +9877,21 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="1"/>
@@ -9664,9 +9912,127 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
+    <row r="67" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A67" s="29">
+        <v>44987</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+      <c r="A68" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B40:B1048576 B1">
+  <conditionalFormatting sqref="B42:B1048576 B1">
+    <cfRule type="cellIs" dxfId="163" priority="211" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="212" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="213" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="214" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="cellIs" dxfId="159" priority="206" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="207" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="208" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="209" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
     <cfRule type="cellIs" dxfId="155" priority="201" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9690,7 +10056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B39">
     <cfRule type="cellIs" dxfId="151" priority="196" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9714,7 +10080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
+  <conditionalFormatting sqref="B38">
     <cfRule type="cellIs" dxfId="147" priority="191" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -9787,40 +10153,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="135" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="171" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="172" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="173" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="179" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="131" priority="171" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="172" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="173" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="174" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="175">
@@ -9834,20 +10176,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="127" priority="161" operator="equal">
+  <conditionalFormatting sqref="B34">
+    <cfRule type="cellIs" dxfId="131" priority="166" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="167" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="168" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="169" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9858,17 +10200,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="123" priority="156" operator="equal">
+  <conditionalFormatting sqref="B33">
+    <cfRule type="cellIs" dxfId="127" priority="156" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="157" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="158" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="159" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="160">
@@ -9882,6 +10224,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="123" priority="151" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="152" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="153" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="154" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B31">
     <cfRule type="cellIs" dxfId="119" priority="146" operator="equal">
       <formula>"部分完成"</formula>
@@ -10603,7 +10969,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B66" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B68" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10630,18 +10996,18 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>225</v>
       </c>
@@ -10661,7 +11027,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="82.3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -10681,7 +11047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -10701,7 +11067,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -10721,7 +11087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -10741,7 +11107,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -10761,7 +11127,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -10772,13 +11138,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>367</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38EFE2-D524-4BAA-8B89-4F2B4C91F611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF0599-5794-4593-A0BA-68B44C1AE405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1946" yWindow="1646" windowWidth="19217" windowHeight="9977" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="399">
   <si>
     <t>汇报日期</t>
   </si>
@@ -2348,10 +2348,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.完成。实际：5天
+2.完成。实际：mongoDB，11题
+3.完成。实际：已完成
+4.完成。实际：周日：21:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：本周扇贝听力口语-《450句助力托福计划》学习结束。技术：leetcode共做了12题。MongoDB基础部分结束。学习了安装，使用，java基础调用。按时起床睡觉写日报。在宠物上的投入显著减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.坚持5天：7点起床，确定当天计划，23点日报睡觉。
+2.技术：看完视频《MySQL实战调优》(不含笔记)。
+3.英语：学习18小时。
+4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 托福1个article
+3.leetcode，2题
+4.周报
+5.体重减到75.2kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午学习英语article10，晚上写了周报和leetcode题目。1321. 餐馆营业额变化增长。602. 好友申请 II ：谁有最多的好友。学到了高级SQL语法over(order by date range interval 6 day preceding),写了Mermaid笔记。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:55计划，22:56日报
+2.完成。09:30~10:30，article10
+3.完成。22:00~22:50，2题
+4.完成。
+5.完成。75.7kg，晚上吃了栗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 学习3小时
+3.leetcode，2题
+4.mysql视频2小时
+5.体重减到75.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。实际：
+2.未完成。实际：
+3.未完成。实际：
+4.未完成。实际：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1.完成。7:55计划，23:05日报
-2.完成。09:30~10:30，article10
-3.完成。20:00~21:30，2题
+      <t>1.完成。7:38计划，23:05日报
+2.完成。09:20~13:00，3小时
+3.完成。16:00~18:00，2题
 4.</t>
     </r>
     <r>
@@ -2373,59 +2426,41 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>。
+      <t>。19:00~23:50，1小时
 5.完成。74.9kg，晚上吃了栗子</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。实际：5天
-2.完成。实际：mongoDB，11题
-3.完成。实际：已完成
-4.完成。实际：周日：21:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语：本周扇贝听力口语-《450句助力托福计划》学习结束。技术：leetcode共做了12题。MongoDB基础部分结束。学习了安装，使用，java基础调用。按时起床睡觉写日报。在宠物上的投入显著减少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.坚持5天：7点起床，确定当天计划，23点日报睡觉。
-2.技术：看完视频《MySQL实战调优》(不含笔记)。
-3.英语：学习18小时。
-4.周日23:00前，完成周报，更新重要目标进度。</t>
+    <r>
+      <t>英语：总结that发音。做指示代词时读/ðæt/，其他情况都可弱读/ð</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t/，末尾t可不发音。学习代词。复习article9。leetcode：585. 2016年的投资。185. 部门工资前三高的所有员工。dense_rank()和rank()的区别,rank当存在并列时会跳过。mysql：视频《MySQL实战调优》看了2~7，约1小时。今天帮同事处理问题，花了2小时左右。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.7点起床做计划，23点日报睡觉
-2.英语, 托福1个article
-3.leetcode，2题(非必须)
-4.周报
-5.体重减到75.2kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午学习英语article10，晚上写了周报和leetcode题目。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7点起床做计划，23点日报睡觉
-2.英语, 托福1个article
+2.英语, 学习3小时
 3.leetcode，2题
-4.周报
-5.体重减到75.2kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。7:55计划，22:56日报
-2.完成。09:30~10:30，article10
-3.完成。22:00~22:50，2题
-4.完成。
-5.完成。74.9kg，晚上吃了栗子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午学习英语article10，晚上写了周报和leetcode题目。1321. 餐馆营业额变化增长。602. 好友申请 II ：谁有最多的好友。学到了高级SQL语法over(order by date range interval 6 day preceding),写了Mermaid笔记。</t>
+4.mysql视频3小时
+5.体重减到75.5kg(非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2437,7 +2472,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2480,6 +2515,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2699,7 +2740,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="236">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5455,22 +5538,22 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.4140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="11.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5507,10 +5590,10 @@
         <v>45235</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="31"/>
@@ -5548,10 +5631,10 @@
         <v>362</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>389</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>390</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="1"/>
@@ -6759,7 +6842,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="83.15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="87" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>44883</v>
       </c>
@@ -6782,7 +6865,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="71.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>44876</v>
       </c>
@@ -6828,7 +6911,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="68.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="68.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>44870</v>
       </c>
@@ -6851,7 +6934,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="86.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="86.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>44862</v>
       </c>
@@ -6874,7 +6957,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="74.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>44855</v>
       </c>
@@ -6897,7 +6980,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="73.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>44848</v>
       </c>
@@ -6966,7 +7049,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>44829</v>
       </c>
@@ -6989,7 +7072,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="77.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="77.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>44822</v>
       </c>
@@ -7012,7 +7095,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>44813</v>
       </c>
@@ -7035,7 +7118,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="135.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>44808</v>
       </c>
@@ -7062,16 +7145,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B64:B1048576 B8:B53 B1">
-    <cfRule type="cellIs" dxfId="231" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="95" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="96">
@@ -7086,16 +7169,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="227" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -7110,16 +7193,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="223" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -7134,16 +7217,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="219" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -7158,16 +7241,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="215" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -7182,16 +7265,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="211" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -7206,16 +7289,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="207" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -7230,16 +7313,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="203" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -7254,16 +7337,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="199" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -7278,16 +7361,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="195" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -7302,16 +7385,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="191" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -7326,16 +7409,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="187" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -7350,16 +7433,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="183" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -7374,16 +7457,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="179" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -7398,16 +7481,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="175" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -7422,16 +7505,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="171" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7446,16 +7529,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -7482,7 +7565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -7491,18 +7574,18 @@
       <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.9140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="12.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.6328125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -7539,25 +7622,21 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>135</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7576,21 +7655,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>394</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -7613,21 +7692,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -7650,21 +7729,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -7687,21 +7766,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -7724,24 +7803,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -7761,24 +7840,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -7798,21 +7877,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>367</v>
+        <v>376</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>374</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>135</v>
@@ -7835,21 +7914,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45221</v>
+        <v>45222</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -7872,24 +7951,24 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45220</v>
+        <v>45221</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7909,24 +7988,24 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45219</v>
+        <v>45220</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -7946,21 +8025,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>135</v>
@@ -7983,21 +8062,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -8020,24 +8099,24 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="69.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -8057,24 +8136,24 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -8094,21 +8173,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45213</v>
+        <v>45215</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>135</v>
@@ -8131,21 +8210,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45212</v>
+        <v>45213</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -8168,21 +8247,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -8205,21 +8284,21 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="96" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -8242,21 +8321,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -8279,21 +8358,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -8316,24 +8395,24 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -8353,21 +8432,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -8390,24 +8469,24 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -8427,21 +8506,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>135</v>
@@ -8464,21 +8543,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>135</v>
@@ -8501,21 +8580,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -8538,24 +8617,24 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -8575,24 +8654,24 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -8612,21 +8691,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>135</v>
@@ -8649,21 +8728,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -8686,21 +8765,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>135</v>
@@ -8723,21 +8802,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -8760,24 +8839,24 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -8797,24 +8876,24 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -8834,21 +8913,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>135</v>
@@ -8871,21 +8950,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>135</v>
@@ -8908,21 +8987,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>135</v>
@@ -8945,21 +9024,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="59.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>135</v>
@@ -8982,21 +9061,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>135</v>
@@ -9019,21 +9098,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>135</v>
@@ -9058,19 +9137,19 @@
     </row>
     <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>135</v>
@@ -9095,19 +9174,19 @@
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>135</v>
@@ -9132,19 +9211,19 @@
     </row>
     <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B45" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>135</v>
@@ -9169,7 +9248,7 @@
     </row>
     <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
@@ -9181,7 +9260,7 @@
         <v>141</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>135</v>
@@ -9206,22 +9285,22 @@
     </row>
     <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -9242,22 +9321,22 @@
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29">
-        <v>45179</v>
+      <c r="A48" s="28">
+        <v>45180</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="C48" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="E48" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G48" s="1"/>
@@ -9279,22 +9358,22 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28">
-        <v>45178</v>
+      <c r="A49" s="29">
+        <v>45179</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G49" s="1"/>
@@ -9317,22 +9396,22 @@
     </row>
     <row r="50" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -9354,7 +9433,7 @@
     </row>
     <row r="51" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>9</v>
@@ -9366,7 +9445,7 @@
         <v>141</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>135</v>
@@ -9391,21 +9470,23 @@
     </row>
     <row r="52" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="14"/>
+        <v>234</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -9426,19 +9507,19 @@
     </row>
     <row r="53" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
@@ -9461,7 +9542,7 @@
     </row>
     <row r="54" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>9</v>
@@ -9470,10 +9551,10 @@
         <v>151</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
@@ -9496,7 +9577,7 @@
     </row>
     <row r="55" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>9</v>
@@ -9505,10 +9586,10 @@
         <v>151</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
@@ -9530,20 +9611,20 @@
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29">
-        <v>45168</v>
+      <c r="A56" s="28">
+        <v>45169</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -9564,21 +9645,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
@@ -9599,21 +9680,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -9634,20 +9715,22 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="15"/>
+        <v>168</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -9667,22 +9750,20 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E60" s="15"/>
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -9702,21 +9783,21 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="27.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
@@ -9737,21 +9818,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
@@ -9772,21 +9853,21 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
@@ -9807,21 +9888,21 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
@@ -9842,21 +9923,21 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="1"/>
@@ -9877,21 +9958,21 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="1"/>
@@ -9912,21 +9993,21 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="68.599999999999994" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="1"/>
@@ -9947,21 +10028,21 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="54.9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="1"/>
@@ -9982,9 +10063,68 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
+    <row r="69" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A69" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B42:B1048576 B1">
+  <conditionalFormatting sqref="B43:B1048576 B1">
+    <cfRule type="cellIs" dxfId="167" priority="216" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="217" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="218" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="219" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
     <cfRule type="cellIs" dxfId="163" priority="211" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -10008,7 +10148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B42">
     <cfRule type="cellIs" dxfId="159" priority="206" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -10032,7 +10172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
+  <conditionalFormatting sqref="B40">
     <cfRule type="cellIs" dxfId="155" priority="201" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -10129,19 +10269,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="139" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="176" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="177" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="178" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="179" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="185">
+    <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10177,19 +10317,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="131" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="161" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="170">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10969,7 +11109,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B68" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B69" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10996,18 +11136,18 @@
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>225</v>
       </c>
@@ -11027,7 +11167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="82.3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -11047,7 +11187,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -11067,7 +11207,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -11087,7 +11227,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -11107,7 +11247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -11127,7 +11267,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="41.15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF0599-5794-4593-A0BA-68B44C1AE405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC49B7-64AA-4258-BDC0-1DE52E05CBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="405">
   <si>
     <t>汇报日期</t>
   </si>
@@ -965,9 +965,6 @@
   </si>
   <si>
     <t>原因分析</t>
-  </si>
-  <si>
-    <t>心得总结</t>
   </si>
   <si>
     <t>1.本周的控制体重目标未完成。应该减到145以下，实际是146.6。
@@ -2402,37 +2399,6 @@
   </si>
   <si>
     <r>
-      <t>1.完成。7:38计划，23:05日报
-2.完成。09:20~13:00，3小时
-3.完成。16:00~18:00，2题
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。19:00~23:50，1小时
-5.完成。74.9kg，晚上吃了栗子</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>英语：总结that发音。做指示代词时读/ðæt/，其他情况都可弱读/ð</t>
     </r>
     <r>
@@ -2456,11 +2422,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>1.完成。7:38计划，23:05日报
+2.完成。09:20~13:00，3小时
+3.完成。16:00~18:00，2题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。19:00~23:50，1小时
+5.完成。75.5kg，晚上吃了栗子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.7点起床做计划，23点日报睡觉
 2.英语, 学习3小时
 3.leetcode，2题
 4.mysql视频3小时
-5.体重减到75.5kg(非必须)</t>
+5.体重减到75.3kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近5天，状态下滑，没有完成当日目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观原因：执行力不足，虽然有客观原因。但主观上自控力还是不足。容易受干扰。
+主观原因：出现干扰因素之后，没有及时调整反而因此觉得目标不完成也有理由了。
+客观原因：周末家人生病需要去医院并照顾，周一有朋友有事需要帮忙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现任务偏差后，要有奖惩措施，仅仅写检讨是不够的。这个检讨措施最好是自己在乎的，但是又不会影响整体计划太多的。本次奖惩措施。今天目标如果不完成，不允许去淘宝购物，直到某天的任务完成才能去购物。如果本周目标不完成或者可能完不成，淘宝只允许买300以内必须商品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:47计划，23:05日报
+2.完成。09:47~15:00，3小时
+3.完成。16:00~17:30，2题
+4.完成。17:45~23:00，3小时
+5.完成。74.9kg，晚上吃了栗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语，重新听了《450句助力托福计划》高级I-article1~4。leetcode:1667. 修复表中的名字, 209. 长度最小的子数组。学到了滑动窗口的处理方法。mysql：视频《MySQL实战调优》看了8~24，约3小时。今天制定了奖惩措施之后，状态显著提升。以后只要任务不完成就必须及时想办法恢复状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 学习3小时
+3.leetcode，2题
+4.mysql视频3小时
+5.体重减到75.2kg(非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2740,7 +2775,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="236">
+  <dxfs count="240">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5538,7 +5615,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -5581,7 +5658,7 @@
         <v>45235</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="7">
         <v>45229</v>
@@ -5590,10 +5667,10 @@
         <v>45235</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="31"/>
@@ -5628,13 +5705,13 @@
         <v>45228</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="1"/>
@@ -5668,13 +5745,13 @@
         <v>45221</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>360</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>361</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="1"/>
@@ -5708,13 +5785,13 @@
         <v>45214</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="1"/>
@@ -5748,13 +5825,13 @@
         <v>45200</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="1"/>
@@ -5788,13 +5865,13 @@
         <v>45193</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5831,10 +5908,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>214</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -6207,7 +6284,7 @@
         <v>51</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6377,7 +6454,7 @@
         <v>45030</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>69</v>
@@ -6400,7 +6477,7 @@
         <v>45023</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>71</v>
@@ -6479,7 +6556,7 @@
         <v>44996</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C35" s="12">
         <v>44989</v>
@@ -6859,10 +6936,10 @@
         <v>125</v>
       </c>
       <c r="F51" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.3">
@@ -6948,13 +7025,13 @@
         <v>44862</v>
       </c>
       <c r="E55" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="G55" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.3">
@@ -6971,13 +7048,13 @@
         <v>44855</v>
       </c>
       <c r="E56" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="G56" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="73.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6994,13 +7071,13 @@
         <v>44848</v>
       </c>
       <c r="E57" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="G57" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -7017,13 +7094,13 @@
         <v>44842</v>
       </c>
       <c r="E58" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7040,13 +7117,13 @@
         <v>44834</v>
       </c>
       <c r="E59" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="G59" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7063,13 +7140,13 @@
         <v>44829</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F60" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G60" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="77.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7086,13 +7163,13 @@
         <v>44822</v>
       </c>
       <c r="E61" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="G61" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7109,13 +7186,13 @@
         <v>44813</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F62" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7132,11 +7209,11 @@
         <v>44808</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7145,16 +7222,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B64:B1048576 B8:B53 B1">
-    <cfRule type="cellIs" dxfId="235" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="95" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="96">
@@ -7169,16 +7246,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="231" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -7193,16 +7270,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="227" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -7217,16 +7294,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="223" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -7241,16 +7318,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="219" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -7265,16 +7342,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="215" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -7289,16 +7366,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="211" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -7313,16 +7390,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="207" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -7337,16 +7414,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="203" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -7361,16 +7438,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="199" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -7385,16 +7462,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="195" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -7409,16 +7486,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="191" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -7433,16 +7510,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="187" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -7457,16 +7534,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="183" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -7481,16 +7558,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="179" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -7505,16 +7582,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="175" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7529,16 +7606,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -7565,13 +7642,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:W70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7593,10 +7670,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>133</v>
@@ -7624,19 +7701,21 @@
     </row>
     <row r="2" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E2" s="33"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7657,19 +7736,19 @@
     </row>
     <row r="3" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -7694,19 +7773,19 @@
     </row>
     <row r="4" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -7731,19 +7810,19 @@
     </row>
     <row r="5" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -7768,19 +7847,19 @@
     </row>
     <row r="6" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -7805,19 +7884,19 @@
     </row>
     <row r="7" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>382</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>380</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -7842,22 +7921,22 @@
     </row>
     <row r="8" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -7879,22 +7958,22 @@
     </row>
     <row r="9" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>374</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -7916,19 +7995,19 @@
     </row>
     <row r="10" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>373</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>367</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>135</v>
@@ -7953,19 +8032,19 @@
     </row>
     <row r="11" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45221</v>
+        <v>45222</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>135</v>
@@ -7990,22 +8069,22 @@
     </row>
     <row r="12" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
-        <v>45220</v>
+        <v>45221</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -8027,22 +8106,22 @@
     </row>
     <row r="13" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
-        <v>45219</v>
+        <v>45220</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -8064,19 +8143,19 @@
     </row>
     <row r="14" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>135</v>
@@ -8101,19 +8180,19 @@
     </row>
     <row r="15" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>135</v>
@@ -8136,24 +8215,24 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>344</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -8175,22 +8254,22 @@
     </row>
     <row r="17" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -8212,19 +8291,19 @@
     </row>
     <row r="18" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28">
-        <v>45213</v>
+        <v>45215</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>135</v>
@@ -8249,19 +8328,19 @@
     </row>
     <row r="19" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28">
-        <v>45212</v>
+        <v>45213</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>135</v>
@@ -8286,19 +8365,19 @@
     </row>
     <row r="20" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>332</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>330</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>135</v>
@@ -8323,19 +8402,19 @@
     </row>
     <row r="21" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A21" s="28">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>135</v>
@@ -8360,19 +8439,19 @@
     </row>
     <row r="22" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>135</v>
@@ -8395,9 +8474,9 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A23" s="28">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
@@ -8406,10 +8485,10 @@
         <v>322</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>135</v>
@@ -8432,24 +8511,24 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>319</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -8471,19 +8550,19 @@
     </row>
     <row r="25" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -8508,22 +8587,22 @@
     </row>
     <row r="26" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A26" s="28">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -8545,13 +8624,13 @@
     </row>
     <row r="27" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>312</v>
@@ -8580,21 +8659,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>305</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>135</v>
@@ -8617,21 +8696,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>135</v>
@@ -8654,24 +8733,24 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>299</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -8691,24 +8770,24 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -8730,19 +8809,19 @@
     </row>
     <row r="32" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>291</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>135</v>
@@ -8767,19 +8846,19 @@
     </row>
     <row r="33" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>135</v>
@@ -8802,21 +8881,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>135</v>
@@ -8839,18 +8918,18 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>256</v>
@@ -8876,24 +8955,24 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -8915,22 +8994,22 @@
     </row>
     <row r="37" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -8952,19 +9031,19 @@
     </row>
     <row r="38" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>135</v>
@@ -8989,19 +9068,19 @@
     </row>
     <row r="39" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>135</v>
@@ -9026,19 +9105,19 @@
     </row>
     <row r="40" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>135</v>
@@ -9063,19 +9142,19 @@
     </row>
     <row r="41" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>135</v>
@@ -9098,18 +9177,18 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
-        <v>45186</v>
+        <v>45187</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>230</v>
@@ -9135,21 +9214,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
-        <v>45185</v>
+        <v>45186</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>135</v>
@@ -9174,19 +9253,19 @@
     </row>
     <row r="44" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>135</v>
@@ -9211,19 +9290,19 @@
     </row>
     <row r="45" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>135</v>
@@ -9248,19 +9327,19 @@
     </row>
     <row r="46" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28">
-        <v>45182</v>
-      </c>
-      <c r="B46" s="11" t="s">
+        <v>45183</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>135</v>
@@ -9285,7 +9364,7 @@
     </row>
     <row r="47" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>9</v>
@@ -9297,7 +9376,7 @@
         <v>141</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>135</v>
@@ -9322,22 +9401,22 @@
     </row>
     <row r="48" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>140</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -9358,22 +9437,22 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29">
-        <v>45179</v>
+      <c r="A49" s="28">
+        <v>45180</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="14" t="s">
+      <c r="E49" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G49" s="1"/>
@@ -9395,22 +9474,22 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28">
-        <v>45178</v>
+      <c r="A50" s="29">
+        <v>45179</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G50" s="1"/>
@@ -9433,22 +9512,22 @@
     </row>
     <row r="51" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28">
-        <v>45176</v>
+        <v>45178</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -9470,7 +9549,7 @@
     </row>
     <row r="52" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>9</v>
@@ -9482,7 +9561,7 @@
         <v>141</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>135</v>
@@ -9507,21 +9586,23 @@
     </row>
     <row r="53" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -9542,19 +9623,19 @@
     </row>
     <row r="54" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
@@ -9577,7 +9658,7 @@
     </row>
     <row r="55" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>9</v>
@@ -9586,10 +9667,10 @@
         <v>151</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
@@ -9612,7 +9693,7 @@
     </row>
     <row r="56" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>9</v>
@@ -9621,10 +9702,10 @@
         <v>151</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
@@ -9646,20 +9727,20 @@
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29">
-        <v>45168</v>
+      <c r="A57" s="28">
+        <v>45169</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>163</v>
+        <v>9</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
@@ -9680,21 +9761,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
-        <v>44998</v>
+        <v>45168</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
@@ -9717,19 +9798,19 @@
     </row>
     <row r="59" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
@@ -9752,18 +9833,20 @@
     </row>
     <row r="60" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" s="15"/>
+        <v>168</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -9785,20 +9868,18 @@
     </row>
     <row r="61" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E61" s="15"/>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -9820,19 +9901,19 @@
     </row>
     <row r="62" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
@@ -9853,21 +9934,21 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
@@ -9890,19 +9971,19 @@
     </row>
     <row r="64" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
@@ -9923,21 +10004,21 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="1"/>
@@ -9958,21 +10039,21 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="1"/>
@@ -9995,19 +10076,19 @@
     </row>
     <row r="67" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="1"/>
@@ -10028,21 +10109,21 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="1"/>
@@ -10063,21 +10144,21 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="1"/>
@@ -10098,9 +10179,68 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
+    <row r="70" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A70" s="29">
+        <v>44986</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B43:B1048576 B1">
+  <conditionalFormatting sqref="B44:B1048576 B1">
+    <cfRule type="cellIs" dxfId="171" priority="221" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="222" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="223" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="224" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
     <cfRule type="cellIs" dxfId="167" priority="216" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -10124,7 +10264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
+  <conditionalFormatting sqref="B43">
     <cfRule type="cellIs" dxfId="163" priority="211" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -10148,7 +10288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="B41">
     <cfRule type="cellIs" dxfId="159" priority="206" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -10245,19 +10385,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="143" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="181" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="183" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="184" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="190">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10293,19 +10433,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="135" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="166" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="167" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="168" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="169" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="175">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11109,7 +11249,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B69" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -11133,7 +11273,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11149,7 +11289,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>195</v>
@@ -11164,7 +11304,7 @@
         <v>197</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>198</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
@@ -11178,13 +11318,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
@@ -11198,13 +11338,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
@@ -11218,13 +11358,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
@@ -11238,13 +11378,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
@@ -11258,13 +11398,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
@@ -11278,22 +11418,34 @@
         <v>9</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>366</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26">
+        <v>45230</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>

--- a/report/周期报告-2023-Gem.xlsx
+++ b/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FC49B7-64AA-4258-BDC0-1DE52E05CBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D319CDA6-9BF8-4A0B-A92F-F55A3382DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="409">
   <si>
     <t>汇报日期</t>
   </si>
@@ -2314,37 +2314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.延期完成。8:55计划，23:05日报
-2.未完成。
-3.完成。20:00~21:30，2题
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。
-5.完成。74.9kg，晚上吃了栗子</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。实际：5天
 2.完成。实际：mongoDB，11题
 3.完成。实际：已完成
@@ -2372,14 +2341,6 @@
   </si>
   <si>
     <t>上午学习英语article10，晚上写了周报和leetcode题目。1321. 餐馆营业额变化增长。602. 好友申请 II ：谁有最多的好友。学到了高级SQL语法over(order by date range interval 6 day preceding),写了Mermaid笔记。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。7:55计划，22:56日报
-2.完成。09:30~10:30，article10
-3.完成。22:00~22:50，2题
-4.完成。
-5.完成。75.7kg，晚上吃了栗子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2422,6 +2383,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 学习3小时
+3.leetcode，2题
+4.mysql视频3小时
+5.体重减到75.3kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近5天，状态下滑，没有完成当日目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观原因：执行力不足，虽然有客观原因。但主观上自控力还是不足。容易受干扰。
+主观原因：出现干扰因素之后，没有及时调整反而因此觉得目标不完成也有理由了。
+客观原因：周末家人生病需要去医院并照顾，周一有朋友有事需要帮忙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心得总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现任务偏差后，要有奖惩措施，仅仅写检讨是不够的。这个检讨措施最好是自己在乎的，但是又不会影响整体计划太多的。本次奖惩措施。今天目标如果不完成，不允许去淘宝购物，直到某天的任务完成才能去购物。如果本周目标不完成或者可能完不成，淘宝只允许买300以内必须商品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床做计划，23点日报睡觉
+2.英语, 学习3小时
+3.leetcode，2题
+4.mysql视频3小时
+5.体重减到75.2kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。7:47计划，23:35日报
+2.完成。09:47~15:00，3小时
+3.完成。16:00~17:30，2题
+4.完成。17:45~23:00，3小时
+5.完成。75.0kg，中晚饭代餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1.完成。7:38计划，23:05日报
 2.完成。09:20~13:00，3小时
@@ -2448,42 +2451,47 @@
         <charset val="134"/>
       </rPr>
       <t>。19:00~23:50，1小时
-5.完成。75.5kg，晚上吃了栗子</t>
+5.完成。75.5kg，</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.7点起床做计划，23点日报睡觉
-2.英语, 学习3小时
-3.leetcode，2题
-4.mysql视频3小时
-5.体重减到75.3kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近5天，状态下滑，没有完成当日目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主观原因：执行力不足，虽然有客观原因。但主观上自控力还是不足。容易受干扰。
-主观原因：出现干扰因素之后，没有及时调整反而因此觉得目标不完成也有理由了。
-客观原因：周末家人生病需要去医院并照顾，周一有朋友有事需要帮忙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心得总结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现任务偏差后，要有奖惩措施，仅仅写检讨是不够的。这个检讨措施最好是自己在乎的，但是又不会影响整体计划太多的。本次奖惩措施。今天目标如果不完成，不允许去淘宝购物，直到某天的任务完成才能去购物。如果本周目标不完成或者可能完不成，淘宝只允许买300以内必须商品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。7:47计划，23:05日报
-2.完成。09:47~15:00，3小时
-3.完成。16:00~17:30，2题
-4.完成。17:45~23:00，3小时
-5.完成。74.9kg，晚上吃了栗子</t>
+    <t>1.完成。7:55计划，22:56日报
+2.完成。09:30~10:30，article10
+3.完成。22:00~22:50，2题
+4.完成。
+5.完成。75.7kg，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.延期完成。8:55计划，23:05日报
+2.未完成。
+3.完成。20:00~21:30，2题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+5.完成。74.9kg，</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2491,11 +2499,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.7点起床做计划，23点日报睡觉
-2.英语, 学习3小时
-3.leetcode，2题
-4.mysql视频3小时
-5.体重减到75.2kg(非必须)</t>
+    <t>英语：用表格和甘特图整理了英语的16种时态。同时整理并复习了mermaid的甘特图语法。leetcode:1527. 患某种疾病的患者, 196. 删除重复的电子邮箱.学习到了一个删除表中重复数据的好办法。导入MySQL官网的sakila-db脚本。Dbeaver用不习惯，安装了Navicat Premium 16.1.15。视频《MySQL实战调优》看了25~34，约2小时。个别章节没听懂，明天重新听一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。7:40计划，23:05日报，检讨
+2.完成。09:45~15:30，5小时
+3.完成。15:30~16:00，2题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。17:00~23:59，2小时
+5.完成。74.9kg，中晚饭代餐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.延期完成。7:40计划，00:15日报
+2.完成。09:45~15:30，5小时
+3.完成。15:30~16:00，2题
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。17:00~23:59，2小时
+5.完成。74.9kg，中晚饭代餐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:20之前出门，去自习室。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2775,7 +2845,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="240">
+  <dxfs count="244">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5667,10 +5779,10 @@
         <v>45235</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="31"/>
@@ -5708,10 +5820,10 @@
         <v>361</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>387</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>388</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="1"/>
@@ -7222,16 +7334,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B64:B1048576 B8:B53 B1">
-    <cfRule type="cellIs" dxfId="239" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="95" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="96">
@@ -7246,16 +7358,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="235" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -7270,16 +7382,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="231" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -7294,16 +7406,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="227" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -7318,16 +7430,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="223" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -7342,16 +7454,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="219" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -7366,16 +7478,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="215" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -7390,16 +7502,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="211" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -7414,16 +7526,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="207" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -7438,16 +7550,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="203" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -7462,16 +7574,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="199" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -7486,16 +7598,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="195" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -7510,16 +7622,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="191" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -7534,16 +7646,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="187" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -7558,16 +7670,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="183" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -7582,16 +7694,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="179" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7606,16 +7718,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="175" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -7642,7 +7754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -7701,21 +7813,21 @@
     </row>
     <row r="2" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>301</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="10" t="s">
-        <v>134</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7736,19 +7848,19 @@
     </row>
     <row r="3" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>135</v>
@@ -7773,19 +7885,19 @@
     </row>
     <row r="4" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>135</v>
@@ -7810,19 +7922,19 @@
     </row>
     <row r="5" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
-        <v>45228</v>
+        <v>45229</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>135</v>
@@ -7847,19 +7959,19 @@
     </row>
     <row r="6" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>135</v>
@@ -7884,19 +7996,19 @@
     </row>
     <row r="7" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>135</v>
@@ -7921,19 +8033,19 @@
     </row>
     <row r="8" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>135</v>
@@ -7958,22 +8070,22 @@
     </row>
     <row r="9" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -7995,22 +8107,22 @@
     </row>
     <row r="10" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -8032,19 +8144,19 @@
     </row>
     <row r="11" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>366</v>
+        <v>375</v>
+      </c>
